--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="90">
   <si>
     <t>Group 3 Banking Project Schedule</t>
   </si>
@@ -28,7 +28,7 @@
     <t>GROUP MEMBER</t>
   </si>
   <si>
-    <t>Sungmo Koo, Daniel Rodriguez, Breanne Loo</t>
+    <t>Sungmo Koo, Daniel Rodriguez, Breanne Loo, Dongping Guo</t>
   </si>
   <si>
     <t>DATE</t>
@@ -167,30 +167,114 @@
     <t>(Phase 2) Project Design Phase</t>
   </si>
   <si>
-    <t>System Architecture Design</t>
+    <t>Project Schedul (Gantt Chart)</t>
+  </si>
+  <si>
+    <t>Sungmo</t>
+  </si>
+  <si>
+    <t>System Overview and Architecture</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Dongping</t>
+  </si>
+  <si>
+    <t>System Architecture Diagram</t>
+  </si>
+  <si>
+    <t>_x0008_Class Diagrams</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>User Class</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>Teller Class</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>ATM Class</t>
+  </si>
+  <si>
+    <t>Breanne</t>
+  </si>
+  <si>
+    <t>2.2.4</t>
+  </si>
+  <si>
+    <t>Account Class</t>
+  </si>
+  <si>
+    <t>2.2.5</t>
+  </si>
+  <si>
+    <t>Server Class</t>
+  </si>
+  <si>
+    <t>Sequence Diagrams</t>
+  </si>
+  <si>
+    <t>Use Cases</t>
   </si>
   <si>
     <t>TBD</t>
   </si>
   <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>2.3.5</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>2.4.3</t>
+  </si>
+  <si>
+    <t>2.4.4</t>
+  </si>
+  <si>
+    <t>2.4.5</t>
+  </si>
+  <si>
+    <t>UI Diagrams</t>
+  </si>
+  <si>
+    <t>Editing SRS</t>
+  </si>
+  <si>
+    <t>(Final) Project Implementation</t>
+  </si>
+  <si>
+    <t>Common Requirments</t>
+  </si>
+  <si>
     <t>Not started yet</t>
   </si>
   <si>
-    <t>Detailed Design</t>
-  </si>
-  <si>
-    <t>UI Design</t>
-  </si>
-  <si>
-    <t>Interface Design</t>
-  </si>
-  <si>
-    <t>(Final) Project Implementation</t>
-  </si>
-  <si>
-    <t>Common Requirments</t>
-  </si>
-  <si>
     <t>User Module</t>
   </si>
   <si>
@@ -213,12 +297,6 @@
   </si>
   <si>
     <t>ATM Module</t>
-  </si>
-  <si>
-    <t>Final Phase</t>
-  </si>
-  <si>
-    <t>Final Testing</t>
   </si>
 </sst>
 </file>
@@ -230,7 +308,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="M/d/yyyy"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="38">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -407,8 +485,27 @@
       <name val="Roboto"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <color rgb="FF434343"/>
       <name val="Docs-Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="22">
@@ -539,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border/>
     <border>
       <bottom style="thick">
@@ -720,11 +817,74 @@
         <color rgb="FFB7B7B7"/>
       </top>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB7B7B7"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB7B7B7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="148">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1025,17 +1185,128 @@
     <xf borderId="19" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="34" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="30" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="33" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="34" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="29" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="35" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="27" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="27" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="30" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="30" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1262,7 +1533,7 @@
     <col customWidth="1" min="3" max="3" width="27.75"/>
     <col customWidth="1" min="4" max="4" width="12.13"/>
     <col customWidth="1" min="5" max="6" width="10.5"/>
-    <col customWidth="1" min="7" max="7" width="8.63"/>
+    <col customWidth="1" min="7" max="7" width="13.13"/>
     <col customWidth="1" min="9" max="68" width="3.0"/>
     <col customWidth="1" min="69" max="69" width="3.38"/>
   </cols>
@@ -2847,29 +3118,30 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A20" s="62"/>
-      <c r="B20" s="63">
+      <c r="B20" s="106">
         <v>2.1</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="107" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="64" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="65">
-        <v>45355.0</v>
+        <v>45363.0</v>
       </c>
       <c r="F20" s="65">
-        <v>45359.0</v>
+        <v>45378.0</v>
       </c>
       <c r="G20" s="66">
-        <v>4.0</v>
-      </c>
-      <c r="H20" s="106" t="s">
-        <v>48</v>
+        <f>DAYS360(E20,F20)</f>
+        <v>15</v>
+      </c>
+      <c r="H20" s="108">
+        <v>1.0</v>
       </c>
       <c r="I20" s="68"/>
-      <c r="J20" s="107"/>
+      <c r="J20" s="109"/>
       <c r="K20" s="70"/>
       <c r="L20" s="70"/>
       <c r="M20" s="70"/>
@@ -2889,14 +3161,14 @@
       <c r="AA20" s="75"/>
       <c r="AB20" s="75"/>
       <c r="AC20" s="76"/>
-      <c r="AD20" s="76"/>
+      <c r="AD20" s="71"/>
       <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
+      <c r="AF20" s="71"/>
       <c r="AG20" s="76"/>
       <c r="AH20" s="75"/>
-      <c r="AI20" s="75"/>
+      <c r="AI20" s="71"/>
       <c r="AJ20" s="75"/>
-      <c r="AK20" s="75"/>
+      <c r="AK20" s="71"/>
       <c r="AL20" s="75"/>
       <c r="AM20" s="75"/>
       <c r="AN20" s="75"/>
@@ -2932,367 +3204,339 @@
     </row>
     <row r="21" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A21" s="62"/>
-      <c r="B21" s="63">
+      <c r="B21" s="110">
         <v>2.2</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="65">
-        <v>45360.0</v>
-      </c>
-      <c r="F21" s="65">
+      <c r="E21" s="113">
         <v>45363.0</v>
       </c>
-      <c r="G21" s="66">
-        <v>3.0</v>
-      </c>
-      <c r="H21" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="80"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="82"/>
-      <c r="X21" s="82"/>
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="82"/>
+      <c r="F21" s="113">
+        <v>45378.0</v>
+      </c>
+      <c r="G21" s="114"/>
+      <c r="H21" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I21" s="68"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
       <c r="AB21" s="75"/>
       <c r="AC21" s="76"/>
-      <c r="AD21" s="76"/>
+      <c r="AD21" s="71"/>
       <c r="AE21" s="76"/>
-      <c r="AF21" s="76"/>
+      <c r="AF21" s="71"/>
       <c r="AG21" s="76"/>
-      <c r="AH21" s="82"/>
-      <c r="AI21" s="82"/>
-      <c r="AJ21" s="82"/>
-      <c r="AK21" s="82"/>
-      <c r="AL21" s="82"/>
-      <c r="AM21" s="82"/>
-      <c r="AN21" s="82"/>
-      <c r="AO21" s="82"/>
-      <c r="AP21" s="82"/>
-      <c r="AQ21" s="82"/>
-      <c r="AR21" s="86"/>
-      <c r="AS21" s="86"/>
-      <c r="AT21" s="86"/>
-      <c r="AU21" s="86"/>
-      <c r="AV21" s="86"/>
-      <c r="AW21" s="82"/>
-      <c r="AX21" s="82"/>
-      <c r="AY21" s="82"/>
-      <c r="AZ21" s="82"/>
-      <c r="BA21" s="82"/>
-      <c r="BB21" s="82"/>
-      <c r="BC21" s="82"/>
-      <c r="BD21" s="82"/>
-      <c r="BE21" s="82"/>
-      <c r="BF21" s="82"/>
-      <c r="BG21" s="87"/>
-      <c r="BH21" s="87"/>
-      <c r="BI21" s="87"/>
-      <c r="BJ21" s="87"/>
-      <c r="BK21" s="87"/>
-      <c r="BL21" s="82"/>
-      <c r="BM21" s="82"/>
-      <c r="BN21" s="82"/>
-      <c r="BO21" s="82"/>
-      <c r="BP21" s="88"/>
+      <c r="AH21" s="75"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="75"/>
+      <c r="AK21" s="71"/>
+      <c r="AL21" s="75"/>
+      <c r="AM21" s="75"/>
+      <c r="AN21" s="75"/>
+      <c r="AO21" s="75"/>
+      <c r="AP21" s="75"/>
+      <c r="AQ21" s="75"/>
+      <c r="AR21" s="77"/>
+      <c r="AS21" s="77"/>
+      <c r="AT21" s="77"/>
+      <c r="AU21" s="77"/>
+      <c r="AV21" s="77"/>
+      <c r="AW21" s="75"/>
+      <c r="AX21" s="75"/>
+      <c r="AY21" s="75"/>
+      <c r="AZ21" s="75"/>
+      <c r="BA21" s="75"/>
+      <c r="BB21" s="75"/>
+      <c r="BC21" s="75"/>
+      <c r="BD21" s="75"/>
+      <c r="BE21" s="75"/>
+      <c r="BF21" s="75"/>
+      <c r="BG21" s="78"/>
+      <c r="BH21" s="78"/>
+      <c r="BI21" s="78"/>
+      <c r="BJ21" s="78"/>
+      <c r="BK21" s="78"/>
+      <c r="BL21" s="75"/>
+      <c r="BM21" s="75"/>
+      <c r="BN21" s="75"/>
+      <c r="BO21" s="75"/>
+      <c r="BP21" s="79"/>
       <c r="BQ21" s="62"/>
     </row>
     <row r="22" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A22" s="62"/>
-      <c r="B22" s="63">
-        <v>2.3</v>
-      </c>
-      <c r="C22" s="64" t="s">
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="65">
-        <v>45361.0</v>
-      </c>
-      <c r="F22" s="65">
-        <v>45371.0</v>
-      </c>
-      <c r="G22" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="80"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="85"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="85"/>
-      <c r="AH22" s="82"/>
-      <c r="AI22" s="82"/>
-      <c r="AJ22" s="82"/>
-      <c r="AK22" s="82"/>
-      <c r="AL22" s="82"/>
-      <c r="AM22" s="82"/>
-      <c r="AN22" s="82"/>
-      <c r="AO22" s="82"/>
-      <c r="AP22" s="82"/>
-      <c r="AQ22" s="82"/>
-      <c r="AR22" s="86"/>
-      <c r="AS22" s="86"/>
-      <c r="AT22" s="86"/>
-      <c r="AU22" s="86"/>
-      <c r="AV22" s="86"/>
-      <c r="AW22" s="82"/>
-      <c r="AX22" s="82"/>
-      <c r="AY22" s="82"/>
-      <c r="AZ22" s="82"/>
-      <c r="BA22" s="82"/>
-      <c r="BB22" s="82"/>
-      <c r="BC22" s="82"/>
-      <c r="BD22" s="82"/>
-      <c r="BE22" s="82"/>
-      <c r="BF22" s="82"/>
-      <c r="BG22" s="87"/>
-      <c r="BH22" s="87"/>
-      <c r="BI22" s="87"/>
-      <c r="BJ22" s="87"/>
-      <c r="BK22" s="87"/>
-      <c r="BL22" s="82"/>
-      <c r="BM22" s="82"/>
-      <c r="BN22" s="82"/>
-      <c r="BO22" s="82"/>
-      <c r="BP22" s="88"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="76"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="76"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="75"/>
+      <c r="AK22" s="75"/>
+      <c r="AL22" s="75"/>
+      <c r="AM22" s="75"/>
+      <c r="AN22" s="75"/>
+      <c r="AO22" s="75"/>
+      <c r="AP22" s="75"/>
+      <c r="AQ22" s="75"/>
+      <c r="AR22" s="77"/>
+      <c r="AS22" s="77"/>
+      <c r="AT22" s="77"/>
+      <c r="AU22" s="77"/>
+      <c r="AV22" s="77"/>
+      <c r="AW22" s="75"/>
+      <c r="AX22" s="75"/>
+      <c r="AY22" s="75"/>
+      <c r="AZ22" s="75"/>
+      <c r="BA22" s="75"/>
+      <c r="BB22" s="75"/>
+      <c r="BC22" s="75"/>
+      <c r="BD22" s="75"/>
+      <c r="BE22" s="75"/>
+      <c r="BF22" s="75"/>
+      <c r="BG22" s="78"/>
+      <c r="BH22" s="78"/>
+      <c r="BI22" s="78"/>
+      <c r="BJ22" s="78"/>
+      <c r="BK22" s="78"/>
+      <c r="BL22" s="75"/>
+      <c r="BM22" s="75"/>
+      <c r="BN22" s="75"/>
+      <c r="BO22" s="75"/>
+      <c r="BP22" s="79"/>
       <c r="BQ22" s="62"/>
     </row>
     <row r="23" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A23" s="62"/>
-      <c r="B23" s="63">
-        <v>2.4</v>
-      </c>
-      <c r="C23" s="64" t="s">
+      <c r="B23" s="110">
+        <v>2.3</v>
+      </c>
+      <c r="C23" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="65">
-        <v>45372.0</v>
-      </c>
-      <c r="F23" s="108">
-        <v>45379.0</v>
-      </c>
-      <c r="G23" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="80"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="82"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="82"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="85"/>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="85"/>
-      <c r="AH23" s="82"/>
-      <c r="AI23" s="82"/>
-      <c r="AJ23" s="82"/>
-      <c r="AK23" s="82"/>
-      <c r="AL23" s="82"/>
-      <c r="AM23" s="82"/>
-      <c r="AN23" s="82"/>
-      <c r="AO23" s="82"/>
-      <c r="AP23" s="82"/>
-      <c r="AQ23" s="82"/>
-      <c r="AR23" s="86"/>
-      <c r="AS23" s="86"/>
-      <c r="AT23" s="86"/>
-      <c r="AU23" s="86"/>
-      <c r="AV23" s="86"/>
-      <c r="AW23" s="82"/>
-      <c r="AX23" s="82"/>
-      <c r="AY23" s="82"/>
-      <c r="AZ23" s="82"/>
-      <c r="BA23" s="82"/>
-      <c r="BB23" s="82"/>
-      <c r="BC23" s="82"/>
-      <c r="BD23" s="82"/>
-      <c r="BE23" s="82"/>
-      <c r="BF23" s="82"/>
-      <c r="BG23" s="87"/>
-      <c r="BH23" s="87"/>
-      <c r="BI23" s="87"/>
-      <c r="BJ23" s="87"/>
-      <c r="BK23" s="87"/>
-      <c r="BL23" s="82"/>
-      <c r="BM23" s="82"/>
-      <c r="BN23" s="82"/>
-      <c r="BO23" s="82"/>
-      <c r="BP23" s="88"/>
+      <c r="D23" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="113">
+        <v>45363.0</v>
+      </c>
+      <c r="F23" s="113">
+        <v>45378.0</v>
+      </c>
+      <c r="G23" s="114"/>
+      <c r="H23" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I23" s="68"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="76"/>
+      <c r="AH23" s="75"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="75"/>
+      <c r="AK23" s="71"/>
+      <c r="AL23" s="75"/>
+      <c r="AM23" s="75"/>
+      <c r="AN23" s="75"/>
+      <c r="AO23" s="75"/>
+      <c r="AP23" s="75"/>
+      <c r="AQ23" s="75"/>
+      <c r="AR23" s="77"/>
+      <c r="AS23" s="77"/>
+      <c r="AT23" s="77"/>
+      <c r="AU23" s="77"/>
+      <c r="AV23" s="77"/>
+      <c r="AW23" s="75"/>
+      <c r="AX23" s="75"/>
+      <c r="AY23" s="75"/>
+      <c r="AZ23" s="75"/>
+      <c r="BA23" s="75"/>
+      <c r="BB23" s="75"/>
+      <c r="BC23" s="75"/>
+      <c r="BD23" s="75"/>
+      <c r="BE23" s="75"/>
+      <c r="BF23" s="75"/>
+      <c r="BG23" s="78"/>
+      <c r="BH23" s="78"/>
+      <c r="BI23" s="78"/>
+      <c r="BJ23" s="78"/>
+      <c r="BK23" s="78"/>
+      <c r="BL23" s="75"/>
+      <c r="BM23" s="75"/>
+      <c r="BN23" s="75"/>
+      <c r="BO23" s="75"/>
+      <c r="BP23" s="79"/>
       <c r="BQ23" s="62"/>
     </row>
-    <row r="24" ht="21.0" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="55">
-        <v>3.0</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="61"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="61"/>
-      <c r="AE24" s="61"/>
-      <c r="AF24" s="61"/>
-      <c r="AG24" s="61"/>
-      <c r="AH24" s="61"/>
-      <c r="AI24" s="61"/>
-      <c r="AJ24" s="61"/>
-      <c r="AK24" s="61"/>
-      <c r="AL24" s="61"/>
-      <c r="AM24" s="61"/>
-      <c r="AN24" s="61"/>
-      <c r="AO24" s="61"/>
-      <c r="AP24" s="61"/>
-      <c r="AQ24" s="61"/>
-      <c r="AR24" s="61"/>
-      <c r="AS24" s="61"/>
-      <c r="AT24" s="61"/>
-      <c r="AU24" s="61"/>
-      <c r="AV24" s="61"/>
-      <c r="AW24" s="61"/>
-      <c r="AX24" s="61"/>
-      <c r="AY24" s="61"/>
-      <c r="AZ24" s="61"/>
-      <c r="BA24" s="61"/>
-      <c r="BB24" s="61"/>
-      <c r="BC24" s="61"/>
-      <c r="BD24" s="61"/>
-      <c r="BE24" s="61"/>
-      <c r="BF24" s="61"/>
-      <c r="BG24" s="61"/>
-      <c r="BH24" s="61"/>
-      <c r="BI24" s="61"/>
-      <c r="BJ24" s="61"/>
-      <c r="BK24" s="61"/>
-      <c r="BL24" s="61"/>
-      <c r="BM24" s="61"/>
-      <c r="BN24" s="61"/>
-      <c r="BO24" s="61"/>
-      <c r="BP24" s="61"/>
-      <c r="BQ24" s="32"/>
+    <row r="24" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A24" s="62"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="117" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="76"/>
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="75"/>
+      <c r="AJ24" s="75"/>
+      <c r="AK24" s="75"/>
+      <c r="AL24" s="75"/>
+      <c r="AM24" s="75"/>
+      <c r="AN24" s="75"/>
+      <c r="AO24" s="75"/>
+      <c r="AP24" s="75"/>
+      <c r="AQ24" s="75"/>
+      <c r="AR24" s="77"/>
+      <c r="AS24" s="77"/>
+      <c r="AT24" s="77"/>
+      <c r="AU24" s="77"/>
+      <c r="AV24" s="77"/>
+      <c r="AW24" s="75"/>
+      <c r="AX24" s="75"/>
+      <c r="AY24" s="75"/>
+      <c r="AZ24" s="75"/>
+      <c r="BA24" s="75"/>
+      <c r="BB24" s="75"/>
+      <c r="BC24" s="75"/>
+      <c r="BD24" s="75"/>
+      <c r="BE24" s="75"/>
+      <c r="BF24" s="75"/>
+      <c r="BG24" s="78"/>
+      <c r="BH24" s="78"/>
+      <c r="BI24" s="78"/>
+      <c r="BJ24" s="78"/>
+      <c r="BK24" s="78"/>
+      <c r="BL24" s="75"/>
+      <c r="BM24" s="75"/>
+      <c r="BN24" s="75"/>
+      <c r="BO24" s="75"/>
+      <c r="BP24" s="79"/>
+      <c r="BQ24" s="62"/>
     </row>
     <row r="25" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A25" s="62"/>
       <c r="B25" s="63">
-        <v>3.1</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="109">
-        <v>45361.0</v>
-      </c>
-      <c r="F25" s="65">
-        <v>45363.0</v>
-      </c>
-      <c r="G25" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="106" t="s">
-        <v>48</v>
-      </c>
+        <v>2.2</v>
+      </c>
+      <c r="C25" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="120"/>
       <c r="I25" s="68"/>
-      <c r="J25" s="107"/>
+      <c r="J25" s="109"/>
       <c r="K25" s="70"/>
       <c r="L25" s="70"/>
       <c r="M25" s="70"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
       <c r="S25" s="75"/>
       <c r="T25" s="75"/>
       <c r="U25" s="75"/>
@@ -3347,87 +3591,88 @@
     </row>
     <row r="26" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A26" s="62"/>
-      <c r="B26" s="63">
-        <v>3.2</v>
+      <c r="B26" s="63" t="s">
+        <v>53</v>
       </c>
       <c r="C26" s="64" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="65">
-        <v>45364.0</v>
+        <v>49</v>
+      </c>
+      <c r="E26" s="123">
+        <v>45363.0</v>
       </c>
       <c r="F26" s="65">
-        <v>45366.0</v>
+        <v>45376.0</v>
       </c>
       <c r="G26" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="80"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="82"/>
-      <c r="Y26" s="82"/>
-      <c r="Z26" s="82"/>
-      <c r="AA26" s="82"/>
-      <c r="AB26" s="82"/>
-      <c r="AC26" s="85"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="85"/>
-      <c r="AF26" s="85"/>
-      <c r="AG26" s="85"/>
-      <c r="AH26" s="82"/>
-      <c r="AI26" s="82"/>
-      <c r="AJ26" s="82"/>
-      <c r="AK26" s="82"/>
-      <c r="AL26" s="82"/>
-      <c r="AM26" s="82"/>
-      <c r="AN26" s="82"/>
-      <c r="AO26" s="82"/>
-      <c r="AP26" s="82"/>
-      <c r="AQ26" s="82"/>
-      <c r="AR26" s="86"/>
-      <c r="AS26" s="86"/>
-      <c r="AT26" s="86"/>
-      <c r="AU26" s="86"/>
-      <c r="AV26" s="86"/>
-      <c r="AW26" s="82"/>
-      <c r="AX26" s="82"/>
-      <c r="AY26" s="82"/>
-      <c r="AZ26" s="82"/>
-      <c r="BA26" s="82"/>
-      <c r="BB26" s="82"/>
-      <c r="BC26" s="82"/>
-      <c r="BD26" s="82"/>
-      <c r="BE26" s="82"/>
-      <c r="BF26" s="82"/>
-      <c r="BG26" s="87"/>
-      <c r="BH26" s="87"/>
-      <c r="BI26" s="87"/>
-      <c r="BJ26" s="87"/>
-      <c r="BK26" s="87"/>
-      <c r="BL26" s="82"/>
-      <c r="BM26" s="82"/>
-      <c r="BN26" s="82"/>
-      <c r="BO26" s="82"/>
-      <c r="BP26" s="88"/>
+        <f t="shared" ref="G26:G30" si="2">DAYS360(E26,F26)</f>
+        <v>13</v>
+      </c>
+      <c r="H26" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I26" s="68"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="76"/>
+      <c r="AD26" s="71"/>
+      <c r="AE26" s="76"/>
+      <c r="AF26" s="71"/>
+      <c r="AG26" s="76"/>
+      <c r="AH26" s="75"/>
+      <c r="AI26" s="71"/>
+      <c r="AJ26" s="75"/>
+      <c r="AK26" s="71"/>
+      <c r="AL26" s="75"/>
+      <c r="AM26" s="75"/>
+      <c r="AN26" s="71"/>
+      <c r="AO26" s="75"/>
+      <c r="AP26" s="71"/>
+      <c r="AQ26" s="75"/>
+      <c r="AR26" s="77"/>
+      <c r="AS26" s="77"/>
+      <c r="AT26" s="77"/>
+      <c r="AU26" s="77"/>
+      <c r="AV26" s="77"/>
+      <c r="AW26" s="75"/>
+      <c r="AX26" s="75"/>
+      <c r="AY26" s="75"/>
+      <c r="AZ26" s="75"/>
+      <c r="BA26" s="75"/>
+      <c r="BB26" s="75"/>
+      <c r="BC26" s="75"/>
+      <c r="BD26" s="75"/>
+      <c r="BE26" s="75"/>
+      <c r="BF26" s="75"/>
+      <c r="BG26" s="78"/>
+      <c r="BH26" s="78"/>
+      <c r="BI26" s="78"/>
+      <c r="BJ26" s="78"/>
+      <c r="BK26" s="78"/>
+      <c r="BL26" s="75"/>
+      <c r="BM26" s="75"/>
+      <c r="BN26" s="75"/>
+      <c r="BO26" s="75"/>
+      <c r="BP26" s="79"/>
       <c r="BQ26" s="62"/>
     </row>
     <row r="27" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3441,78 +3686,79 @@
       <c r="D27" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="65">
-        <v>45367.0</v>
+      <c r="E27" s="124">
+        <v>45363.0</v>
       </c>
       <c r="F27" s="65">
-        <v>45369.0</v>
+        <v>45376.0</v>
       </c>
       <c r="G27" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="82"/>
-      <c r="Y27" s="82"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="82"/>
-      <c r="AB27" s="82"/>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="85"/>
-      <c r="AG27" s="85"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="82"/>
-      <c r="AK27" s="82"/>
-      <c r="AL27" s="82"/>
-      <c r="AM27" s="82"/>
-      <c r="AN27" s="82"/>
-      <c r="AO27" s="82"/>
-      <c r="AP27" s="82"/>
-      <c r="AQ27" s="82"/>
-      <c r="AR27" s="86"/>
-      <c r="AS27" s="86"/>
-      <c r="AT27" s="86"/>
-      <c r="AU27" s="86"/>
-      <c r="AV27" s="86"/>
-      <c r="AW27" s="82"/>
-      <c r="AX27" s="82"/>
-      <c r="AY27" s="82"/>
-      <c r="AZ27" s="82"/>
-      <c r="BA27" s="82"/>
-      <c r="BB27" s="82"/>
-      <c r="BC27" s="82"/>
-      <c r="BD27" s="82"/>
-      <c r="BE27" s="82"/>
-      <c r="BF27" s="82"/>
-      <c r="BG27" s="87"/>
-      <c r="BH27" s="87"/>
-      <c r="BI27" s="87"/>
-      <c r="BJ27" s="87"/>
-      <c r="BK27" s="87"/>
-      <c r="BL27" s="82"/>
-      <c r="BM27" s="82"/>
-      <c r="BN27" s="82"/>
-      <c r="BO27" s="82"/>
-      <c r="BP27" s="88"/>
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H27" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I27" s="68"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="71"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="71"/>
+      <c r="AG27" s="76"/>
+      <c r="AH27" s="75"/>
+      <c r="AI27" s="71"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="71"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="71"/>
+      <c r="AO27" s="75"/>
+      <c r="AP27" s="71"/>
+      <c r="AQ27" s="75"/>
+      <c r="AR27" s="77"/>
+      <c r="AS27" s="77"/>
+      <c r="AT27" s="77"/>
+      <c r="AU27" s="77"/>
+      <c r="AV27" s="77"/>
+      <c r="AW27" s="75"/>
+      <c r="AX27" s="75"/>
+      <c r="AY27" s="75"/>
+      <c r="AZ27" s="75"/>
+      <c r="BA27" s="75"/>
+      <c r="BB27" s="75"/>
+      <c r="BC27" s="75"/>
+      <c r="BD27" s="75"/>
+      <c r="BE27" s="75"/>
+      <c r="BF27" s="75"/>
+      <c r="BG27" s="78"/>
+      <c r="BH27" s="78"/>
+      <c r="BI27" s="78"/>
+      <c r="BJ27" s="78"/>
+      <c r="BK27" s="78"/>
+      <c r="BL27" s="75"/>
+      <c r="BM27" s="75"/>
+      <c r="BN27" s="75"/>
+      <c r="BO27" s="75"/>
+      <c r="BP27" s="79"/>
       <c r="BQ27" s="62"/>
     </row>
     <row r="28" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3524,429 +3770,450 @@
         <v>58</v>
       </c>
       <c r="D28" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="65">
-        <v>45370.0</v>
+        <v>59</v>
+      </c>
+      <c r="E28" s="125">
+        <v>45363.0</v>
       </c>
       <c r="F28" s="65">
-        <v>45371.0</v>
+        <v>45376.0</v>
       </c>
       <c r="G28" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="80"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="70"/>
-      <c r="T28" s="70"/>
-      <c r="U28" s="70"/>
-      <c r="V28" s="70"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="82"/>
-      <c r="AB28" s="82"/>
-      <c r="AC28" s="85"/>
-      <c r="AD28" s="85"/>
-      <c r="AE28" s="85"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="85"/>
-      <c r="AH28" s="82"/>
-      <c r="AI28" s="82"/>
-      <c r="AJ28" s="82"/>
-      <c r="AK28" s="82"/>
-      <c r="AL28" s="82"/>
-      <c r="AM28" s="82"/>
-      <c r="AN28" s="82"/>
-      <c r="AO28" s="82"/>
-      <c r="AP28" s="82"/>
-      <c r="AQ28" s="82"/>
-      <c r="AR28" s="86"/>
-      <c r="AS28" s="86"/>
-      <c r="AT28" s="86"/>
-      <c r="AU28" s="86"/>
-      <c r="AV28" s="86"/>
-      <c r="AW28" s="82"/>
-      <c r="AX28" s="82"/>
-      <c r="AY28" s="82"/>
-      <c r="AZ28" s="82"/>
-      <c r="BA28" s="82"/>
-      <c r="BB28" s="82"/>
-      <c r="BC28" s="82"/>
-      <c r="BD28" s="82"/>
-      <c r="BE28" s="82"/>
-      <c r="BF28" s="82"/>
-      <c r="BG28" s="87"/>
-      <c r="BH28" s="87"/>
-      <c r="BI28" s="87"/>
-      <c r="BJ28" s="87"/>
-      <c r="BK28" s="87"/>
-      <c r="BL28" s="82"/>
-      <c r="BM28" s="82"/>
-      <c r="BN28" s="82"/>
-      <c r="BO28" s="82"/>
-      <c r="BP28" s="88"/>
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H28" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I28" s="68"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="71"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="71"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="71"/>
+      <c r="AJ28" s="75"/>
+      <c r="AK28" s="71"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="71"/>
+      <c r="AO28" s="75"/>
+      <c r="AP28" s="71"/>
+      <c r="AQ28" s="75"/>
+      <c r="AR28" s="77"/>
+      <c r="AS28" s="77"/>
+      <c r="AT28" s="77"/>
+      <c r="AU28" s="77"/>
+      <c r="AV28" s="77"/>
+      <c r="AW28" s="75"/>
+      <c r="AX28" s="75"/>
+      <c r="AY28" s="75"/>
+      <c r="AZ28" s="75"/>
+      <c r="BA28" s="75"/>
+      <c r="BB28" s="75"/>
+      <c r="BC28" s="75"/>
+      <c r="BD28" s="75"/>
+      <c r="BE28" s="75"/>
+      <c r="BF28" s="75"/>
+      <c r="BG28" s="78"/>
+      <c r="BH28" s="78"/>
+      <c r="BI28" s="78"/>
+      <c r="BJ28" s="78"/>
+      <c r="BK28" s="78"/>
+      <c r="BL28" s="75"/>
+      <c r="BM28" s="75"/>
+      <c r="BN28" s="75"/>
+      <c r="BO28" s="75"/>
+      <c r="BP28" s="79"/>
       <c r="BQ28" s="62"/>
     </row>
     <row r="29" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A29" s="62"/>
-      <c r="B29" s="63">
-        <v>3.3</v>
+      <c r="B29" s="63" t="s">
+        <v>60</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="65">
-        <v>45371.0</v>
+        <v>49</v>
+      </c>
+      <c r="E29" s="125">
+        <v>45363.0</v>
       </c>
       <c r="F29" s="65">
-        <v>45373.0</v>
+        <v>45376.0</v>
       </c>
       <c r="G29" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="80"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="82"/>
-      <c r="AB29" s="82"/>
-      <c r="AC29" s="85"/>
-      <c r="AD29" s="85"/>
-      <c r="AE29" s="85"/>
-      <c r="AF29" s="85"/>
-      <c r="AG29" s="85"/>
-      <c r="AH29" s="82"/>
-      <c r="AI29" s="82"/>
-      <c r="AJ29" s="82"/>
-      <c r="AK29" s="82"/>
-      <c r="AL29" s="82"/>
-      <c r="AM29" s="82"/>
-      <c r="AN29" s="82"/>
-      <c r="AO29" s="82"/>
-      <c r="AP29" s="82"/>
-      <c r="AQ29" s="82"/>
-      <c r="AR29" s="86"/>
-      <c r="AS29" s="86"/>
-      <c r="AT29" s="86"/>
-      <c r="AU29" s="86"/>
-      <c r="AV29" s="86"/>
-      <c r="AW29" s="82"/>
-      <c r="AX29" s="82"/>
-      <c r="AY29" s="82"/>
-      <c r="AZ29" s="82"/>
-      <c r="BA29" s="82"/>
-      <c r="BB29" s="82"/>
-      <c r="BC29" s="82"/>
-      <c r="BD29" s="82"/>
-      <c r="BE29" s="82"/>
-      <c r="BF29" s="82"/>
-      <c r="BG29" s="87"/>
-      <c r="BH29" s="87"/>
-      <c r="BI29" s="87"/>
-      <c r="BJ29" s="87"/>
-      <c r="BK29" s="87"/>
-      <c r="BL29" s="82"/>
-      <c r="BM29" s="82"/>
-      <c r="BN29" s="82"/>
-      <c r="BO29" s="82"/>
-      <c r="BP29" s="88"/>
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H29" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I29" s="68"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="75"/>
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="76"/>
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="76"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="76"/>
+      <c r="AH29" s="75"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="75"/>
+      <c r="AK29" s="71"/>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="71"/>
+      <c r="AO29" s="75"/>
+      <c r="AP29" s="71"/>
+      <c r="AQ29" s="75"/>
+      <c r="AR29" s="77"/>
+      <c r="AS29" s="77"/>
+      <c r="AT29" s="77"/>
+      <c r="AU29" s="77"/>
+      <c r="AV29" s="77"/>
+      <c r="AW29" s="75"/>
+      <c r="AX29" s="75"/>
+      <c r="AY29" s="75"/>
+      <c r="AZ29" s="75"/>
+      <c r="BA29" s="75"/>
+      <c r="BB29" s="75"/>
+      <c r="BC29" s="75"/>
+      <c r="BD29" s="75"/>
+      <c r="BE29" s="75"/>
+      <c r="BF29" s="75"/>
+      <c r="BG29" s="78"/>
+      <c r="BH29" s="78"/>
+      <c r="BI29" s="78"/>
+      <c r="BJ29" s="78"/>
+      <c r="BK29" s="78"/>
+      <c r="BL29" s="75"/>
+      <c r="BM29" s="75"/>
+      <c r="BN29" s="75"/>
+      <c r="BO29" s="75"/>
+      <c r="BP29" s="79"/>
       <c r="BQ29" s="62"/>
     </row>
     <row r="30" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A30" s="62"/>
       <c r="B30" s="63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="65">
-        <v>45374.0</v>
-      </c>
-      <c r="F30" s="108">
-        <v>45379.0</v>
+        <v>50</v>
+      </c>
+      <c r="E30" s="125">
+        <v>45363.0</v>
+      </c>
+      <c r="F30" s="65">
+        <v>45376.0</v>
       </c>
       <c r="G30" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H30" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="80"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="82"/>
-      <c r="AB30" s="82"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="85"/>
-      <c r="AF30" s="85"/>
-      <c r="AG30" s="85"/>
-      <c r="AH30" s="82"/>
-      <c r="AI30" s="82"/>
-      <c r="AJ30" s="82"/>
-      <c r="AK30" s="82"/>
-      <c r="AL30" s="82"/>
-      <c r="AM30" s="82"/>
-      <c r="AN30" s="82"/>
-      <c r="AO30" s="82"/>
-      <c r="AP30" s="82"/>
-      <c r="AQ30" s="82"/>
-      <c r="AR30" s="86"/>
-      <c r="AS30" s="86"/>
-      <c r="AT30" s="86"/>
-      <c r="AU30" s="86"/>
-      <c r="AV30" s="86"/>
-      <c r="AW30" s="82"/>
-      <c r="AX30" s="82"/>
-      <c r="AY30" s="82"/>
-      <c r="AZ30" s="82"/>
-      <c r="BA30" s="82"/>
-      <c r="BB30" s="82"/>
-      <c r="BC30" s="82"/>
-      <c r="BD30" s="82"/>
-      <c r="BE30" s="82"/>
-      <c r="BF30" s="82"/>
-      <c r="BG30" s="87"/>
-      <c r="BH30" s="87"/>
-      <c r="BI30" s="87"/>
-      <c r="BJ30" s="87"/>
-      <c r="BK30" s="87"/>
-      <c r="BL30" s="82"/>
-      <c r="BM30" s="82"/>
-      <c r="BN30" s="82"/>
-      <c r="BO30" s="82"/>
-      <c r="BP30" s="88"/>
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H30" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I30" s="68"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="75"/>
+      <c r="W30" s="75"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="75"/>
+      <c r="Z30" s="75"/>
+      <c r="AA30" s="75"/>
+      <c r="AB30" s="75"/>
+      <c r="AC30" s="76"/>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="76"/>
+      <c r="AF30" s="71"/>
+      <c r="AG30" s="76"/>
+      <c r="AH30" s="75"/>
+      <c r="AI30" s="71"/>
+      <c r="AJ30" s="75"/>
+      <c r="AK30" s="71"/>
+      <c r="AL30" s="75"/>
+      <c r="AM30" s="75"/>
+      <c r="AN30" s="71"/>
+      <c r="AO30" s="75"/>
+      <c r="AP30" s="71"/>
+      <c r="AQ30" s="75"/>
+      <c r="AR30" s="77"/>
+      <c r="AS30" s="77"/>
+      <c r="AT30" s="77"/>
+      <c r="AU30" s="77"/>
+      <c r="AV30" s="77"/>
+      <c r="AW30" s="75"/>
+      <c r="AX30" s="75"/>
+      <c r="AY30" s="75"/>
+      <c r="AZ30" s="75"/>
+      <c r="BA30" s="75"/>
+      <c r="BB30" s="75"/>
+      <c r="BC30" s="75"/>
+      <c r="BD30" s="75"/>
+      <c r="BE30" s="75"/>
+      <c r="BF30" s="75"/>
+      <c r="BG30" s="78"/>
+      <c r="BH30" s="78"/>
+      <c r="BI30" s="78"/>
+      <c r="BJ30" s="78"/>
+      <c r="BK30" s="78"/>
+      <c r="BL30" s="75"/>
+      <c r="BM30" s="75"/>
+      <c r="BN30" s="75"/>
+      <c r="BO30" s="75"/>
+      <c r="BP30" s="79"/>
       <c r="BQ30" s="62"/>
     </row>
-    <row r="31" ht="21.0" customHeight="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="55">
-        <v>4.0</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
-      <c r="Z31" s="61"/>
-      <c r="AA31" s="61"/>
-      <c r="AB31" s="61"/>
-      <c r="AC31" s="61"/>
-      <c r="AD31" s="61"/>
-      <c r="AE31" s="61"/>
-      <c r="AF31" s="61"/>
-      <c r="AG31" s="61"/>
-      <c r="AH31" s="61"/>
-      <c r="AI31" s="61"/>
-      <c r="AJ31" s="61"/>
-      <c r="AK31" s="61"/>
-      <c r="AL31" s="61"/>
-      <c r="AM31" s="61"/>
-      <c r="AN31" s="61"/>
-      <c r="AO31" s="61"/>
-      <c r="AP31" s="61"/>
-      <c r="AQ31" s="61"/>
-      <c r="AR31" s="61"/>
-      <c r="AS31" s="61"/>
-      <c r="AT31" s="61"/>
-      <c r="AU31" s="61"/>
-      <c r="AV31" s="61"/>
-      <c r="AW31" s="61"/>
-      <c r="AX31" s="61"/>
-      <c r="AY31" s="61"/>
-      <c r="AZ31" s="61"/>
-      <c r="BA31" s="61"/>
-      <c r="BB31" s="61"/>
-      <c r="BC31" s="61"/>
-      <c r="BD31" s="61"/>
-      <c r="BE31" s="61"/>
-      <c r="BF31" s="61"/>
-      <c r="BG31" s="61"/>
-      <c r="BH31" s="61"/>
-      <c r="BI31" s="61"/>
-      <c r="BJ31" s="61"/>
-      <c r="BK31" s="61"/>
-      <c r="BL31" s="61"/>
-      <c r="BM31" s="61"/>
-      <c r="BN31" s="61"/>
-      <c r="BO31" s="61"/>
-      <c r="BP31" s="61"/>
-      <c r="BQ31" s="32"/>
+    <row r="31" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A31" s="62"/>
+      <c r="B31" s="63">
+        <v>2.2</v>
+      </c>
+      <c r="C31" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="76"/>
+      <c r="AD31" s="76"/>
+      <c r="AE31" s="76"/>
+      <c r="AF31" s="76"/>
+      <c r="AG31" s="76"/>
+      <c r="AH31" s="82"/>
+      <c r="AI31" s="82"/>
+      <c r="AJ31" s="82"/>
+      <c r="AK31" s="82"/>
+      <c r="AL31" s="82"/>
+      <c r="AM31" s="82"/>
+      <c r="AN31" s="82"/>
+      <c r="AO31" s="82"/>
+      <c r="AP31" s="82"/>
+      <c r="AQ31" s="82"/>
+      <c r="AR31" s="86"/>
+      <c r="AS31" s="86"/>
+      <c r="AT31" s="86"/>
+      <c r="AU31" s="86"/>
+      <c r="AV31" s="86"/>
+      <c r="AW31" s="82"/>
+      <c r="AX31" s="82"/>
+      <c r="AY31" s="82"/>
+      <c r="AZ31" s="82"/>
+      <c r="BA31" s="82"/>
+      <c r="BB31" s="82"/>
+      <c r="BC31" s="82"/>
+      <c r="BD31" s="82"/>
+      <c r="BE31" s="82"/>
+      <c r="BF31" s="82"/>
+      <c r="BG31" s="87"/>
+      <c r="BH31" s="87"/>
+      <c r="BI31" s="87"/>
+      <c r="BJ31" s="87"/>
+      <c r="BK31" s="87"/>
+      <c r="BL31" s="82"/>
+      <c r="BM31" s="82"/>
+      <c r="BN31" s="82"/>
+      <c r="BO31" s="82"/>
+      <c r="BP31" s="88"/>
+      <c r="BQ31" s="62"/>
     </row>
     <row r="32" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A32" s="62"/>
-      <c r="B32" s="63">
-        <v>4.1</v>
-      </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
+      <c r="B32" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="123">
+        <v>45365.0</v>
+      </c>
+      <c r="F32" s="65">
+        <v>45376.0</v>
+      </c>
       <c r="G32" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="68"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="75"/>
-      <c r="T32" s="75"/>
-      <c r="U32" s="75"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="75"/>
-      <c r="X32" s="75"/>
-      <c r="Y32" s="75"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="75"/>
+        <f t="shared" ref="G32:G36" si="3">DAYS360(E32,F32)</f>
+        <v>11</v>
+      </c>
+      <c r="H32" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I32" s="80"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="82"/>
       <c r="AB32" s="75"/>
       <c r="AC32" s="76"/>
       <c r="AD32" s="76"/>
       <c r="AE32" s="76"/>
-      <c r="AF32" s="76"/>
+      <c r="AF32" s="71"/>
       <c r="AG32" s="76"/>
-      <c r="AH32" s="75"/>
-      <c r="AI32" s="75"/>
-      <c r="AJ32" s="75"/>
-      <c r="AK32" s="75"/>
-      <c r="AL32" s="75"/>
-      <c r="AM32" s="75"/>
-      <c r="AN32" s="75"/>
-      <c r="AO32" s="75"/>
-      <c r="AP32" s="75"/>
-      <c r="AQ32" s="75"/>
-      <c r="AR32" s="77"/>
-      <c r="AS32" s="77"/>
-      <c r="AT32" s="77"/>
-      <c r="AU32" s="77"/>
-      <c r="AV32" s="77"/>
-      <c r="AW32" s="75"/>
-      <c r="AX32" s="75"/>
-      <c r="AY32" s="75"/>
-      <c r="AZ32" s="75"/>
-      <c r="BA32" s="75"/>
-      <c r="BB32" s="75"/>
-      <c r="BC32" s="75"/>
-      <c r="BD32" s="75"/>
-      <c r="BE32" s="75"/>
-      <c r="BF32" s="75"/>
-      <c r="BG32" s="78"/>
-      <c r="BH32" s="78"/>
-      <c r="BI32" s="78"/>
-      <c r="BJ32" s="78"/>
-      <c r="BK32" s="78"/>
-      <c r="BL32" s="75"/>
-      <c r="BM32" s="75"/>
-      <c r="BN32" s="75"/>
-      <c r="BO32" s="75"/>
-      <c r="BP32" s="79"/>
+      <c r="AH32" s="82"/>
+      <c r="AI32" s="71"/>
+      <c r="AJ32" s="82"/>
+      <c r="AK32" s="71"/>
+      <c r="AL32" s="71"/>
+      <c r="AM32" s="82"/>
+      <c r="AN32" s="71"/>
+      <c r="AO32" s="82"/>
+      <c r="AP32" s="71"/>
+      <c r="AQ32" s="82"/>
+      <c r="AR32" s="86"/>
+      <c r="AS32" s="86"/>
+      <c r="AT32" s="86"/>
+      <c r="AU32" s="86"/>
+      <c r="AV32" s="86"/>
+      <c r="AW32" s="82"/>
+      <c r="AX32" s="82"/>
+      <c r="AY32" s="82"/>
+      <c r="AZ32" s="82"/>
+      <c r="BA32" s="82"/>
+      <c r="BB32" s="82"/>
+      <c r="BC32" s="82"/>
+      <c r="BD32" s="82"/>
+      <c r="BE32" s="82"/>
+      <c r="BF32" s="82"/>
+      <c r="BG32" s="87"/>
+      <c r="BH32" s="87"/>
+      <c r="BI32" s="87"/>
+      <c r="BJ32" s="87"/>
+      <c r="BK32" s="87"/>
+      <c r="BL32" s="82"/>
+      <c r="BM32" s="82"/>
+      <c r="BN32" s="82"/>
+      <c r="BO32" s="82"/>
+      <c r="BP32" s="88"/>
       <c r="BQ32" s="62"/>
     </row>
     <row r="33" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A33" s="62"/>
-      <c r="B33" s="63">
-        <v>4.2</v>
-      </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
+      <c r="B33" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="124">
+        <v>45365.0</v>
+      </c>
+      <c r="F33" s="65">
+        <v>45376.0</v>
+      </c>
       <c r="G33" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="106" t="s">
-        <v>48</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="H33" s="108">
+        <v>1.0</v>
       </c>
       <c r="I33" s="80"/>
       <c r="J33" s="89"/>
       <c r="K33" s="81"/>
       <c r="L33" s="81"/>
       <c r="M33" s="82"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
       <c r="S33" s="82"/>
       <c r="T33" s="82"/>
       <c r="U33" s="82"/>
@@ -3956,21 +4223,21 @@
       <c r="Y33" s="82"/>
       <c r="Z33" s="82"/>
       <c r="AA33" s="82"/>
-      <c r="AB33" s="82"/>
-      <c r="AC33" s="85"/>
-      <c r="AD33" s="85"/>
-      <c r="AE33" s="85"/>
-      <c r="AF33" s="85"/>
-      <c r="AG33" s="85"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="76"/>
+      <c r="AD33" s="76"/>
+      <c r="AE33" s="76"/>
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="76"/>
       <c r="AH33" s="82"/>
-      <c r="AI33" s="82"/>
+      <c r="AI33" s="71"/>
       <c r="AJ33" s="82"/>
-      <c r="AK33" s="82"/>
-      <c r="AL33" s="82"/>
+      <c r="AK33" s="71"/>
+      <c r="AL33" s="71"/>
       <c r="AM33" s="82"/>
-      <c r="AN33" s="82"/>
+      <c r="AN33" s="71"/>
       <c r="AO33" s="82"/>
-      <c r="AP33" s="82"/>
+      <c r="AP33" s="71"/>
       <c r="AQ33" s="82"/>
       <c r="AR33" s="86"/>
       <c r="AS33" s="86"/>
@@ -4001,53 +4268,62 @@
     </row>
     <row r="34" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A34" s="62"/>
-      <c r="B34" s="63">
-        <v>4.3</v>
-      </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
+      <c r="B34" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="123">
+        <v>45365.0</v>
+      </c>
+      <c r="F34" s="65">
+        <v>45376.0</v>
+      </c>
       <c r="G34" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H34" s="106" t="s">
-        <v>48</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="H34" s="108">
+        <v>1.0</v>
       </c>
       <c r="I34" s="80"/>
       <c r="J34" s="89"/>
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
       <c r="M34" s="82"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="74"/>
-      <c r="S34" s="70"/>
-      <c r="T34" s="70"/>
-      <c r="U34" s="70"/>
-      <c r="V34" s="70"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="82"/>
       <c r="W34" s="82"/>
       <c r="X34" s="82"/>
       <c r="Y34" s="82"/>
       <c r="Z34" s="82"/>
       <c r="AA34" s="82"/>
-      <c r="AB34" s="82"/>
-      <c r="AC34" s="85"/>
-      <c r="AD34" s="85"/>
-      <c r="AE34" s="85"/>
-      <c r="AF34" s="85"/>
-      <c r="AG34" s="85"/>
+      <c r="AB34" s="75"/>
+      <c r="AC34" s="76"/>
+      <c r="AD34" s="76"/>
+      <c r="AE34" s="76"/>
+      <c r="AF34" s="71"/>
+      <c r="AG34" s="76"/>
       <c r="AH34" s="82"/>
-      <c r="AI34" s="82"/>
+      <c r="AI34" s="71"/>
       <c r="AJ34" s="82"/>
-      <c r="AK34" s="82"/>
-      <c r="AL34" s="82"/>
+      <c r="AK34" s="71"/>
+      <c r="AL34" s="71"/>
       <c r="AM34" s="82"/>
-      <c r="AN34" s="82"/>
+      <c r="AN34" s="71"/>
       <c r="AO34" s="82"/>
-      <c r="AP34" s="82"/>
+      <c r="AP34" s="71"/>
       <c r="AQ34" s="82"/>
       <c r="AR34" s="86"/>
       <c r="AS34" s="86"/>
@@ -4078,57 +4354,62 @@
     </row>
     <row r="35" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A35" s="62"/>
-      <c r="B35" s="63">
-        <v>4.4</v>
+      <c r="B35" s="63" t="s">
+        <v>60</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="65"/>
+        <v>61</v>
+      </c>
+      <c r="D35" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="124">
+        <v>45365.0</v>
+      </c>
       <c r="F35" s="65">
-        <v>45414.0</v>
+        <v>45376.0</v>
       </c>
       <c r="G35" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H35" s="106" t="s">
-        <v>48</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="H35" s="108">
+        <v>1.0</v>
       </c>
       <c r="I35" s="80"/>
       <c r="J35" s="89"/>
       <c r="K35" s="81"/>
       <c r="L35" s="81"/>
       <c r="M35" s="82"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="70"/>
-      <c r="T35" s="70"/>
-      <c r="U35" s="70"/>
-      <c r="V35" s="70"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
       <c r="W35" s="82"/>
       <c r="X35" s="82"/>
       <c r="Y35" s="82"/>
       <c r="Z35" s="82"/>
       <c r="AA35" s="82"/>
-      <c r="AB35" s="82"/>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="85"/>
-      <c r="AF35" s="85"/>
-      <c r="AG35" s="85"/>
+      <c r="AB35" s="75"/>
+      <c r="AC35" s="76"/>
+      <c r="AD35" s="76"/>
+      <c r="AE35" s="76"/>
+      <c r="AF35" s="71"/>
+      <c r="AG35" s="76"/>
       <c r="AH35" s="82"/>
-      <c r="AI35" s="82"/>
+      <c r="AI35" s="71"/>
       <c r="AJ35" s="82"/>
-      <c r="AK35" s="82"/>
-      <c r="AL35" s="82"/>
+      <c r="AK35" s="71"/>
+      <c r="AL35" s="71"/>
       <c r="AM35" s="82"/>
-      <c r="AN35" s="82"/>
+      <c r="AN35" s="71"/>
       <c r="AO35" s="82"/>
-      <c r="AP35" s="82"/>
+      <c r="AP35" s="71"/>
       <c r="AQ35" s="82"/>
       <c r="AR35" s="86"/>
       <c r="AS35" s="86"/>
@@ -4157,218 +4438,2428 @@
       <c r="BP35" s="88"/>
       <c r="BQ35" s="62"/>
     </row>
-    <row r="36" ht="21.0" customHeight="1">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="32"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="32"/>
-      <c r="AL36" s="32"/>
-      <c r="AM36" s="32"/>
-      <c r="AN36" s="32"/>
-      <c r="AO36" s="32"/>
-      <c r="AP36" s="32"/>
-      <c r="AQ36" s="32"/>
-      <c r="AR36" s="32"/>
-      <c r="AS36" s="32"/>
-      <c r="AT36" s="32"/>
-      <c r="AU36" s="32"/>
-      <c r="AV36" s="32"/>
-      <c r="AW36" s="32"/>
-      <c r="AX36" s="32"/>
-      <c r="AY36" s="32"/>
-      <c r="AZ36" s="32"/>
-      <c r="BA36" s="32"/>
-      <c r="BB36" s="32"/>
-      <c r="BC36" s="32"/>
-      <c r="BD36" s="32"/>
-      <c r="BE36" s="32"/>
-      <c r="BF36" s="32"/>
-      <c r="BG36" s="32"/>
-      <c r="BH36" s="32"/>
-      <c r="BI36" s="32"/>
-      <c r="BJ36" s="32"/>
-      <c r="BK36" s="32"/>
-      <c r="BL36" s="32"/>
-      <c r="BM36" s="32"/>
-      <c r="BN36" s="32"/>
-      <c r="BO36" s="32"/>
-      <c r="BP36" s="32"/>
-      <c r="BQ36" s="32"/>
+    <row r="36" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A36" s="62"/>
+      <c r="B36" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="124">
+        <v>45365.0</v>
+      </c>
+      <c r="F36" s="65">
+        <v>45376.0</v>
+      </c>
+      <c r="G36" s="66">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="H36" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I36" s="80"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="84"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="82"/>
+      <c r="AA36" s="82"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="71"/>
+      <c r="AG36" s="76"/>
+      <c r="AH36" s="82"/>
+      <c r="AI36" s="71"/>
+      <c r="AJ36" s="82"/>
+      <c r="AK36" s="71"/>
+      <c r="AL36" s="71"/>
+      <c r="AM36" s="82"/>
+      <c r="AN36" s="71"/>
+      <c r="AO36" s="82"/>
+      <c r="AP36" s="71"/>
+      <c r="AQ36" s="82"/>
+      <c r="AR36" s="86"/>
+      <c r="AS36" s="86"/>
+      <c r="AT36" s="86"/>
+      <c r="AU36" s="86"/>
+      <c r="AV36" s="86"/>
+      <c r="AW36" s="82"/>
+      <c r="AX36" s="82"/>
+      <c r="AY36" s="82"/>
+      <c r="AZ36" s="82"/>
+      <c r="BA36" s="82"/>
+      <c r="BB36" s="82"/>
+      <c r="BC36" s="82"/>
+      <c r="BD36" s="82"/>
+      <c r="BE36" s="82"/>
+      <c r="BF36" s="82"/>
+      <c r="BG36" s="87"/>
+      <c r="BH36" s="87"/>
+      <c r="BI36" s="87"/>
+      <c r="BJ36" s="87"/>
+      <c r="BK36" s="87"/>
+      <c r="BL36" s="82"/>
+      <c r="BM36" s="82"/>
+      <c r="BN36" s="82"/>
+      <c r="BO36" s="82"/>
+      <c r="BP36" s="88"/>
+      <c r="BQ36" s="62"/>
     </row>
-    <row r="37" ht="21.0" customHeight="1">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="32"/>
-      <c r="AI37" s="32"/>
-      <c r="AJ37" s="32"/>
-      <c r="AK37" s="32"/>
-      <c r="AL37" s="32"/>
-      <c r="AM37" s="32"/>
-      <c r="AN37" s="32"/>
-      <c r="AO37" s="32"/>
-      <c r="AP37" s="32"/>
-      <c r="AQ37" s="32"/>
-      <c r="AR37" s="32"/>
-      <c r="AS37" s="32"/>
-      <c r="AT37" s="32"/>
-      <c r="AU37" s="32"/>
-      <c r="AV37" s="32"/>
-      <c r="AW37" s="32"/>
-      <c r="AX37" s="32"/>
-      <c r="AY37" s="32"/>
-      <c r="AZ37" s="32"/>
-      <c r="BA37" s="32"/>
-      <c r="BB37" s="32"/>
-      <c r="BC37" s="32"/>
-      <c r="BD37" s="32"/>
-      <c r="BE37" s="32"/>
-      <c r="BF37" s="32"/>
-      <c r="BG37" s="32"/>
-      <c r="BH37" s="32"/>
-      <c r="BI37" s="32"/>
-      <c r="BJ37" s="32"/>
-      <c r="BK37" s="32"/>
-      <c r="BL37" s="32"/>
-      <c r="BM37" s="32"/>
-      <c r="BN37" s="32"/>
-      <c r="BO37" s="32"/>
-      <c r="BP37" s="32"/>
-      <c r="BQ37" s="32"/>
+    <row r="37" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A37" s="62"/>
+      <c r="B37" s="63">
+        <v>2.3</v>
+      </c>
+      <c r="C37" s="122" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
+      <c r="R37" s="84"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="82"/>
+      <c r="U37" s="82"/>
+      <c r="V37" s="82"/>
+      <c r="W37" s="82"/>
+      <c r="X37" s="82"/>
+      <c r="Y37" s="82"/>
+      <c r="Z37" s="82"/>
+      <c r="AA37" s="82"/>
+      <c r="AB37" s="82"/>
+      <c r="AC37" s="85"/>
+      <c r="AD37" s="85"/>
+      <c r="AE37" s="85"/>
+      <c r="AF37" s="85"/>
+      <c r="AG37" s="85"/>
+      <c r="AH37" s="82"/>
+      <c r="AI37" s="82"/>
+      <c r="AJ37" s="82"/>
+      <c r="AK37" s="82"/>
+      <c r="AL37" s="82"/>
+      <c r="AM37" s="82"/>
+      <c r="AN37" s="82"/>
+      <c r="AO37" s="82"/>
+      <c r="AP37" s="82"/>
+      <c r="AQ37" s="82"/>
+      <c r="AR37" s="86"/>
+      <c r="AS37" s="86"/>
+      <c r="AT37" s="86"/>
+      <c r="AU37" s="86"/>
+      <c r="AV37" s="86"/>
+      <c r="AW37" s="82"/>
+      <c r="AX37" s="82"/>
+      <c r="AY37" s="82"/>
+      <c r="AZ37" s="82"/>
+      <c r="BA37" s="82"/>
+      <c r="BB37" s="82"/>
+      <c r="BC37" s="82"/>
+      <c r="BD37" s="82"/>
+      <c r="BE37" s="82"/>
+      <c r="BF37" s="82"/>
+      <c r="BG37" s="87"/>
+      <c r="BH37" s="87"/>
+      <c r="BI37" s="87"/>
+      <c r="BJ37" s="87"/>
+      <c r="BK37" s="87"/>
+      <c r="BL37" s="82"/>
+      <c r="BM37" s="82"/>
+      <c r="BN37" s="82"/>
+      <c r="BO37" s="82"/>
+      <c r="BP37" s="88"/>
+      <c r="BQ37" s="62"/>
     </row>
-    <row r="38" ht="21.0" customHeight="1">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="32"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
-      <c r="AH38" s="32"/>
-      <c r="AI38" s="32"/>
-      <c r="AJ38" s="32"/>
-      <c r="AK38" s="32"/>
-      <c r="AL38" s="32"/>
-      <c r="AM38" s="32"/>
-      <c r="AN38" s="32"/>
-      <c r="AO38" s="32"/>
-      <c r="AP38" s="32"/>
-      <c r="AQ38" s="32"/>
-      <c r="AR38" s="32"/>
-      <c r="AS38" s="32"/>
-      <c r="AT38" s="32"/>
-      <c r="AU38" s="32"/>
-      <c r="AV38" s="32"/>
-      <c r="AW38" s="32"/>
-      <c r="AX38" s="32"/>
-      <c r="AY38" s="32"/>
-      <c r="AZ38" s="32"/>
-      <c r="BA38" s="32"/>
-      <c r="BB38" s="32"/>
-      <c r="BC38" s="32"/>
-      <c r="BD38" s="32"/>
-      <c r="BE38" s="32"/>
-      <c r="BF38" s="32"/>
-      <c r="BG38" s="32"/>
-      <c r="BH38" s="32"/>
-      <c r="BI38" s="32"/>
-      <c r="BJ38" s="32"/>
-      <c r="BK38" s="32"/>
-      <c r="BL38" s="32"/>
-      <c r="BM38" s="32"/>
-      <c r="BN38" s="32"/>
-      <c r="BO38" s="32"/>
-      <c r="BP38" s="32"/>
-      <c r="BQ38" s="32"/>
+    <row r="38" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A38" s="62"/>
+      <c r="B38" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="123">
+        <v>45365.0</v>
+      </c>
+      <c r="F38" s="65">
+        <v>45376.0</v>
+      </c>
+      <c r="G38" s="66">
+        <f t="shared" ref="G38:G42" si="4">DAYS360(E38,F38)</f>
+        <v>11</v>
+      </c>
+      <c r="H38" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I38" s="80"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="84"/>
+      <c r="R38" s="84"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="82"/>
+      <c r="V38" s="82"/>
+      <c r="W38" s="82"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="82"/>
+      <c r="AA38" s="82"/>
+      <c r="AB38" s="82"/>
+      <c r="AC38" s="85"/>
+      <c r="AD38" s="85"/>
+      <c r="AE38" s="85"/>
+      <c r="AF38" s="71"/>
+      <c r="AG38" s="85"/>
+      <c r="AH38" s="82"/>
+      <c r="AI38" s="71"/>
+      <c r="AJ38" s="82"/>
+      <c r="AK38" s="71"/>
+      <c r="AL38" s="71"/>
+      <c r="AM38" s="82"/>
+      <c r="AN38" s="71"/>
+      <c r="AO38" s="82"/>
+      <c r="AP38" s="82"/>
+      <c r="AQ38" s="82"/>
+      <c r="AR38" s="86"/>
+      <c r="AS38" s="86"/>
+      <c r="AT38" s="86"/>
+      <c r="AU38" s="86"/>
+      <c r="AV38" s="86"/>
+      <c r="AW38" s="82"/>
+      <c r="AX38" s="82"/>
+      <c r="AY38" s="82"/>
+      <c r="AZ38" s="82"/>
+      <c r="BA38" s="82"/>
+      <c r="BB38" s="82"/>
+      <c r="BC38" s="82"/>
+      <c r="BD38" s="82"/>
+      <c r="BE38" s="82"/>
+      <c r="BF38" s="82"/>
+      <c r="BG38" s="87"/>
+      <c r="BH38" s="87"/>
+      <c r="BI38" s="87"/>
+      <c r="BJ38" s="87"/>
+      <c r="BK38" s="87"/>
+      <c r="BL38" s="82"/>
+      <c r="BM38" s="82"/>
+      <c r="BN38" s="82"/>
+      <c r="BO38" s="82"/>
+      <c r="BP38" s="88"/>
+      <c r="BQ38" s="62"/>
+    </row>
+    <row r="39" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A39" s="62"/>
+      <c r="B39" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="124">
+        <v>45365.0</v>
+      </c>
+      <c r="F39" s="65">
+        <v>45376.0</v>
+      </c>
+      <c r="G39" s="66">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H39" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I39" s="80"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="84"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="82"/>
+      <c r="U39" s="82"/>
+      <c r="V39" s="82"/>
+      <c r="W39" s="82"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="82"/>
+      <c r="AA39" s="82"/>
+      <c r="AB39" s="82"/>
+      <c r="AC39" s="85"/>
+      <c r="AD39" s="85"/>
+      <c r="AE39" s="85"/>
+      <c r="AF39" s="71"/>
+      <c r="AG39" s="85"/>
+      <c r="AH39" s="82"/>
+      <c r="AI39" s="71"/>
+      <c r="AJ39" s="82"/>
+      <c r="AK39" s="71"/>
+      <c r="AL39" s="71"/>
+      <c r="AM39" s="82"/>
+      <c r="AN39" s="71"/>
+      <c r="AO39" s="82"/>
+      <c r="AP39" s="82"/>
+      <c r="AQ39" s="82"/>
+      <c r="AR39" s="86"/>
+      <c r="AS39" s="86"/>
+      <c r="AT39" s="86"/>
+      <c r="AU39" s="86"/>
+      <c r="AV39" s="86"/>
+      <c r="AW39" s="82"/>
+      <c r="AX39" s="82"/>
+      <c r="AY39" s="82"/>
+      <c r="AZ39" s="82"/>
+      <c r="BA39" s="82"/>
+      <c r="BB39" s="82"/>
+      <c r="BC39" s="82"/>
+      <c r="BD39" s="82"/>
+      <c r="BE39" s="82"/>
+      <c r="BF39" s="82"/>
+      <c r="BG39" s="87"/>
+      <c r="BH39" s="87"/>
+      <c r="BI39" s="87"/>
+      <c r="BJ39" s="87"/>
+      <c r="BK39" s="87"/>
+      <c r="BL39" s="82"/>
+      <c r="BM39" s="82"/>
+      <c r="BN39" s="82"/>
+      <c r="BO39" s="82"/>
+      <c r="BP39" s="88"/>
+      <c r="BQ39" s="62"/>
+    </row>
+    <row r="40" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A40" s="62"/>
+      <c r="B40" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="123">
+        <v>45365.0</v>
+      </c>
+      <c r="F40" s="65">
+        <v>45376.0</v>
+      </c>
+      <c r="G40" s="66">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H40" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I40" s="80"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="84"/>
+      <c r="R40" s="84"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="82"/>
+      <c r="U40" s="82"/>
+      <c r="V40" s="82"/>
+      <c r="W40" s="82"/>
+      <c r="X40" s="82"/>
+      <c r="Y40" s="82"/>
+      <c r="Z40" s="82"/>
+      <c r="AA40" s="82"/>
+      <c r="AB40" s="82"/>
+      <c r="AC40" s="85"/>
+      <c r="AD40" s="85"/>
+      <c r="AE40" s="85"/>
+      <c r="AF40" s="71"/>
+      <c r="AG40" s="85"/>
+      <c r="AH40" s="82"/>
+      <c r="AI40" s="71"/>
+      <c r="AJ40" s="82"/>
+      <c r="AK40" s="71"/>
+      <c r="AL40" s="71"/>
+      <c r="AM40" s="82"/>
+      <c r="AN40" s="71"/>
+      <c r="AO40" s="82"/>
+      <c r="AP40" s="82"/>
+      <c r="AQ40" s="82"/>
+      <c r="AR40" s="86"/>
+      <c r="AS40" s="86"/>
+      <c r="AT40" s="86"/>
+      <c r="AU40" s="86"/>
+      <c r="AV40" s="86"/>
+      <c r="AW40" s="82"/>
+      <c r="AX40" s="82"/>
+      <c r="AY40" s="82"/>
+      <c r="AZ40" s="82"/>
+      <c r="BA40" s="82"/>
+      <c r="BB40" s="82"/>
+      <c r="BC40" s="82"/>
+      <c r="BD40" s="82"/>
+      <c r="BE40" s="82"/>
+      <c r="BF40" s="82"/>
+      <c r="BG40" s="87"/>
+      <c r="BH40" s="87"/>
+      <c r="BI40" s="87"/>
+      <c r="BJ40" s="87"/>
+      <c r="BK40" s="87"/>
+      <c r="BL40" s="82"/>
+      <c r="BM40" s="82"/>
+      <c r="BN40" s="82"/>
+      <c r="BO40" s="82"/>
+      <c r="BP40" s="88"/>
+      <c r="BQ40" s="62"/>
+    </row>
+    <row r="41" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A41" s="62"/>
+      <c r="B41" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="124">
+        <v>45365.0</v>
+      </c>
+      <c r="F41" s="65">
+        <v>45376.0</v>
+      </c>
+      <c r="G41" s="66">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H41" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I41" s="80"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="84"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="82"/>
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="82"/>
+      <c r="AB41" s="82"/>
+      <c r="AC41" s="85"/>
+      <c r="AD41" s="85"/>
+      <c r="AE41" s="85"/>
+      <c r="AF41" s="71"/>
+      <c r="AG41" s="85"/>
+      <c r="AH41" s="82"/>
+      <c r="AI41" s="71"/>
+      <c r="AJ41" s="82"/>
+      <c r="AK41" s="71"/>
+      <c r="AL41" s="71"/>
+      <c r="AM41" s="82"/>
+      <c r="AN41" s="71"/>
+      <c r="AO41" s="82"/>
+      <c r="AP41" s="82"/>
+      <c r="AQ41" s="82"/>
+      <c r="AR41" s="86"/>
+      <c r="AS41" s="86"/>
+      <c r="AT41" s="86"/>
+      <c r="AU41" s="86"/>
+      <c r="AV41" s="86"/>
+      <c r="AW41" s="82"/>
+      <c r="AX41" s="82"/>
+      <c r="AY41" s="82"/>
+      <c r="AZ41" s="82"/>
+      <c r="BA41" s="82"/>
+      <c r="BB41" s="82"/>
+      <c r="BC41" s="82"/>
+      <c r="BD41" s="82"/>
+      <c r="BE41" s="82"/>
+      <c r="BF41" s="82"/>
+      <c r="BG41" s="87"/>
+      <c r="BH41" s="87"/>
+      <c r="BI41" s="87"/>
+      <c r="BJ41" s="87"/>
+      <c r="BK41" s="87"/>
+      <c r="BL41" s="82"/>
+      <c r="BM41" s="82"/>
+      <c r="BN41" s="82"/>
+      <c r="BO41" s="82"/>
+      <c r="BP41" s="88"/>
+      <c r="BQ41" s="62"/>
+    </row>
+    <row r="42" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A42" s="62"/>
+      <c r="B42" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="124">
+        <v>45365.0</v>
+      </c>
+      <c r="F42" s="65">
+        <v>45376.0</v>
+      </c>
+      <c r="G42" s="66">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H42" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I42" s="80"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="84"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="82"/>
+      <c r="U42" s="82"/>
+      <c r="V42" s="82"/>
+      <c r="W42" s="82"/>
+      <c r="X42" s="82"/>
+      <c r="Y42" s="82"/>
+      <c r="Z42" s="82"/>
+      <c r="AA42" s="82"/>
+      <c r="AB42" s="82"/>
+      <c r="AC42" s="85"/>
+      <c r="AD42" s="85"/>
+      <c r="AE42" s="85"/>
+      <c r="AF42" s="71"/>
+      <c r="AG42" s="85"/>
+      <c r="AH42" s="82"/>
+      <c r="AI42" s="71"/>
+      <c r="AJ42" s="82"/>
+      <c r="AK42" s="71"/>
+      <c r="AL42" s="71"/>
+      <c r="AM42" s="82"/>
+      <c r="AN42" s="71"/>
+      <c r="AO42" s="82"/>
+      <c r="AP42" s="82"/>
+      <c r="AQ42" s="82"/>
+      <c r="AR42" s="86"/>
+      <c r="AS42" s="86"/>
+      <c r="AT42" s="86"/>
+      <c r="AU42" s="86"/>
+      <c r="AV42" s="86"/>
+      <c r="AW42" s="82"/>
+      <c r="AX42" s="82"/>
+      <c r="AY42" s="82"/>
+      <c r="AZ42" s="82"/>
+      <c r="BA42" s="82"/>
+      <c r="BB42" s="82"/>
+      <c r="BC42" s="82"/>
+      <c r="BD42" s="82"/>
+      <c r="BE42" s="82"/>
+      <c r="BF42" s="82"/>
+      <c r="BG42" s="87"/>
+      <c r="BH42" s="87"/>
+      <c r="BI42" s="87"/>
+      <c r="BJ42" s="87"/>
+      <c r="BK42" s="87"/>
+      <c r="BL42" s="82"/>
+      <c r="BM42" s="82"/>
+      <c r="BN42" s="82"/>
+      <c r="BO42" s="82"/>
+      <c r="BP42" s="88"/>
+      <c r="BQ42" s="62"/>
+    </row>
+    <row r="43" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A43" s="62"/>
+      <c r="B43" s="63">
+        <v>2.4</v>
+      </c>
+      <c r="C43" s="122" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="64"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="84"/>
+      <c r="P43" s="84"/>
+      <c r="Q43" s="84"/>
+      <c r="R43" s="84"/>
+      <c r="S43" s="82"/>
+      <c r="T43" s="82"/>
+      <c r="U43" s="82"/>
+      <c r="V43" s="82"/>
+      <c r="W43" s="82"/>
+      <c r="X43" s="82"/>
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="82"/>
+      <c r="AA43" s="82"/>
+      <c r="AB43" s="82"/>
+      <c r="AC43" s="85"/>
+      <c r="AD43" s="85"/>
+      <c r="AE43" s="85"/>
+      <c r="AF43" s="85"/>
+      <c r="AG43" s="85"/>
+      <c r="AH43" s="82"/>
+      <c r="AI43" s="82"/>
+      <c r="AJ43" s="82"/>
+      <c r="AK43" s="82"/>
+      <c r="AL43" s="82"/>
+      <c r="AM43" s="82"/>
+      <c r="AN43" s="82"/>
+      <c r="AO43" s="82"/>
+      <c r="AP43" s="82"/>
+      <c r="AQ43" s="82"/>
+      <c r="AR43" s="86"/>
+      <c r="AS43" s="86"/>
+      <c r="AT43" s="86"/>
+      <c r="AU43" s="86"/>
+      <c r="AV43" s="86"/>
+      <c r="AW43" s="82"/>
+      <c r="AX43" s="82"/>
+      <c r="AY43" s="82"/>
+      <c r="AZ43" s="82"/>
+      <c r="BA43" s="82"/>
+      <c r="BB43" s="82"/>
+      <c r="BC43" s="82"/>
+      <c r="BD43" s="82"/>
+      <c r="BE43" s="82"/>
+      <c r="BF43" s="82"/>
+      <c r="BG43" s="87"/>
+      <c r="BH43" s="87"/>
+      <c r="BI43" s="87"/>
+      <c r="BJ43" s="87"/>
+      <c r="BK43" s="87"/>
+      <c r="BL43" s="82"/>
+      <c r="BM43" s="82"/>
+      <c r="BN43" s="82"/>
+      <c r="BO43" s="82"/>
+      <c r="BP43" s="88"/>
+      <c r="BQ43" s="62"/>
+    </row>
+    <row r="44" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A44" s="62"/>
+      <c r="B44" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="123">
+        <v>45363.0</v>
+      </c>
+      <c r="F44" s="65">
+        <v>45376.0</v>
+      </c>
+      <c r="G44" s="66">
+        <f t="shared" ref="G44:G50" si="5">DAYS360(E44,F44)</f>
+        <v>13</v>
+      </c>
+      <c r="H44" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I44" s="80"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="84"/>
+      <c r="R44" s="84"/>
+      <c r="S44" s="82"/>
+      <c r="T44" s="82"/>
+      <c r="U44" s="82"/>
+      <c r="V44" s="82"/>
+      <c r="W44" s="82"/>
+      <c r="X44" s="82"/>
+      <c r="Y44" s="82"/>
+      <c r="Z44" s="82"/>
+      <c r="AA44" s="82"/>
+      <c r="AB44" s="82"/>
+      <c r="AC44" s="85"/>
+      <c r="AD44" s="71"/>
+      <c r="AE44" s="85"/>
+      <c r="AF44" s="71"/>
+      <c r="AG44" s="85"/>
+      <c r="AH44" s="82"/>
+      <c r="AI44" s="71"/>
+      <c r="AJ44" s="82"/>
+      <c r="AK44" s="71"/>
+      <c r="AL44" s="71"/>
+      <c r="AM44" s="82"/>
+      <c r="AN44" s="71"/>
+      <c r="AO44" s="82"/>
+      <c r="AP44" s="71"/>
+      <c r="AQ44" s="82"/>
+      <c r="AR44" s="86"/>
+      <c r="AS44" s="86"/>
+      <c r="AT44" s="86"/>
+      <c r="AU44" s="86"/>
+      <c r="AV44" s="86"/>
+      <c r="AW44" s="82"/>
+      <c r="AX44" s="82"/>
+      <c r="AY44" s="82"/>
+      <c r="AZ44" s="82"/>
+      <c r="BA44" s="82"/>
+      <c r="BB44" s="82"/>
+      <c r="BC44" s="82"/>
+      <c r="BD44" s="82"/>
+      <c r="BE44" s="82"/>
+      <c r="BF44" s="82"/>
+      <c r="BG44" s="87"/>
+      <c r="BH44" s="87"/>
+      <c r="BI44" s="87"/>
+      <c r="BJ44" s="87"/>
+      <c r="BK44" s="87"/>
+      <c r="BL44" s="82"/>
+      <c r="BM44" s="82"/>
+      <c r="BN44" s="82"/>
+      <c r="BO44" s="82"/>
+      <c r="BP44" s="88"/>
+      <c r="BQ44" s="62"/>
+    </row>
+    <row r="45" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A45" s="62"/>
+      <c r="B45" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="124">
+        <v>45363.0</v>
+      </c>
+      <c r="F45" s="65">
+        <v>45376.0</v>
+      </c>
+      <c r="G45" s="66">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H45" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I45" s="80"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="84"/>
+      <c r="P45" s="84"/>
+      <c r="Q45" s="84"/>
+      <c r="R45" s="84"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="82"/>
+      <c r="AA45" s="82"/>
+      <c r="AB45" s="82"/>
+      <c r="AC45" s="85"/>
+      <c r="AD45" s="71"/>
+      <c r="AE45" s="85"/>
+      <c r="AF45" s="71"/>
+      <c r="AG45" s="85"/>
+      <c r="AH45" s="82"/>
+      <c r="AI45" s="71"/>
+      <c r="AJ45" s="82"/>
+      <c r="AK45" s="71"/>
+      <c r="AL45" s="71"/>
+      <c r="AM45" s="82"/>
+      <c r="AN45" s="71"/>
+      <c r="AO45" s="82"/>
+      <c r="AP45" s="71"/>
+      <c r="AQ45" s="82"/>
+      <c r="AR45" s="86"/>
+      <c r="AS45" s="86"/>
+      <c r="AT45" s="86"/>
+      <c r="AU45" s="86"/>
+      <c r="AV45" s="86"/>
+      <c r="AW45" s="82"/>
+      <c r="AX45" s="82"/>
+      <c r="AY45" s="82"/>
+      <c r="AZ45" s="82"/>
+      <c r="BA45" s="82"/>
+      <c r="BB45" s="82"/>
+      <c r="BC45" s="82"/>
+      <c r="BD45" s="82"/>
+      <c r="BE45" s="82"/>
+      <c r="BF45" s="82"/>
+      <c r="BG45" s="87"/>
+      <c r="BH45" s="87"/>
+      <c r="BI45" s="87"/>
+      <c r="BJ45" s="87"/>
+      <c r="BK45" s="87"/>
+      <c r="BL45" s="82"/>
+      <c r="BM45" s="82"/>
+      <c r="BN45" s="82"/>
+      <c r="BO45" s="82"/>
+      <c r="BP45" s="88"/>
+      <c r="BQ45" s="62"/>
+    </row>
+    <row r="46" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A46" s="62"/>
+      <c r="B46" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="123">
+        <v>45363.0</v>
+      </c>
+      <c r="F46" s="65">
+        <v>45376.0</v>
+      </c>
+      <c r="G46" s="66">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H46" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I46" s="80"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="84"/>
+      <c r="R46" s="84"/>
+      <c r="S46" s="82"/>
+      <c r="T46" s="82"/>
+      <c r="U46" s="82"/>
+      <c r="V46" s="82"/>
+      <c r="W46" s="82"/>
+      <c r="X46" s="82"/>
+      <c r="Y46" s="82"/>
+      <c r="Z46" s="82"/>
+      <c r="AA46" s="82"/>
+      <c r="AB46" s="82"/>
+      <c r="AC46" s="85"/>
+      <c r="AD46" s="71"/>
+      <c r="AE46" s="85"/>
+      <c r="AF46" s="71"/>
+      <c r="AG46" s="85"/>
+      <c r="AH46" s="82"/>
+      <c r="AI46" s="71"/>
+      <c r="AJ46" s="82"/>
+      <c r="AK46" s="71"/>
+      <c r="AL46" s="71"/>
+      <c r="AM46" s="82"/>
+      <c r="AN46" s="71"/>
+      <c r="AO46" s="82"/>
+      <c r="AP46" s="71"/>
+      <c r="AQ46" s="82"/>
+      <c r="AR46" s="86"/>
+      <c r="AS46" s="86"/>
+      <c r="AT46" s="86"/>
+      <c r="AU46" s="86"/>
+      <c r="AV46" s="86"/>
+      <c r="AW46" s="82"/>
+      <c r="AX46" s="82"/>
+      <c r="AY46" s="82"/>
+      <c r="AZ46" s="82"/>
+      <c r="BA46" s="82"/>
+      <c r="BB46" s="82"/>
+      <c r="BC46" s="82"/>
+      <c r="BD46" s="82"/>
+      <c r="BE46" s="82"/>
+      <c r="BF46" s="82"/>
+      <c r="BG46" s="87"/>
+      <c r="BH46" s="87"/>
+      <c r="BI46" s="87"/>
+      <c r="BJ46" s="87"/>
+      <c r="BK46" s="87"/>
+      <c r="BL46" s="82"/>
+      <c r="BM46" s="82"/>
+      <c r="BN46" s="82"/>
+      <c r="BO46" s="82"/>
+      <c r="BP46" s="88"/>
+      <c r="BQ46" s="62"/>
+    </row>
+    <row r="47" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A47" s="62"/>
+      <c r="B47" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="124">
+        <v>45363.0</v>
+      </c>
+      <c r="F47" s="65">
+        <v>45376.0</v>
+      </c>
+      <c r="G47" s="66">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H47" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I47" s="80"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="84"/>
+      <c r="Q47" s="84"/>
+      <c r="R47" s="84"/>
+      <c r="S47" s="82"/>
+      <c r="T47" s="82"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="82"/>
+      <c r="W47" s="82"/>
+      <c r="X47" s="82"/>
+      <c r="Y47" s="82"/>
+      <c r="Z47" s="82"/>
+      <c r="AA47" s="82"/>
+      <c r="AB47" s="82"/>
+      <c r="AC47" s="85"/>
+      <c r="AD47" s="71"/>
+      <c r="AE47" s="85"/>
+      <c r="AF47" s="71"/>
+      <c r="AG47" s="85"/>
+      <c r="AH47" s="82"/>
+      <c r="AI47" s="71"/>
+      <c r="AJ47" s="82"/>
+      <c r="AK47" s="71"/>
+      <c r="AL47" s="71"/>
+      <c r="AM47" s="82"/>
+      <c r="AN47" s="71"/>
+      <c r="AO47" s="82"/>
+      <c r="AP47" s="71"/>
+      <c r="AQ47" s="82"/>
+      <c r="AR47" s="86"/>
+      <c r="AS47" s="86"/>
+      <c r="AT47" s="86"/>
+      <c r="AU47" s="86"/>
+      <c r="AV47" s="86"/>
+      <c r="AW47" s="82"/>
+      <c r="AX47" s="82"/>
+      <c r="AY47" s="82"/>
+      <c r="AZ47" s="82"/>
+      <c r="BA47" s="82"/>
+      <c r="BB47" s="82"/>
+      <c r="BC47" s="82"/>
+      <c r="BD47" s="82"/>
+      <c r="BE47" s="82"/>
+      <c r="BF47" s="82"/>
+      <c r="BG47" s="87"/>
+      <c r="BH47" s="87"/>
+      <c r="BI47" s="87"/>
+      <c r="BJ47" s="87"/>
+      <c r="BK47" s="87"/>
+      <c r="BL47" s="82"/>
+      <c r="BM47" s="82"/>
+      <c r="BN47" s="82"/>
+      <c r="BO47" s="82"/>
+      <c r="BP47" s="88"/>
+      <c r="BQ47" s="62"/>
+    </row>
+    <row r="48" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A48" s="62"/>
+      <c r="B48" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="124">
+        <v>45363.0</v>
+      </c>
+      <c r="F48" s="65">
+        <v>45376.0</v>
+      </c>
+      <c r="G48" s="66">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H48" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I48" s="80"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="84"/>
+      <c r="Q48" s="84"/>
+      <c r="R48" s="84"/>
+      <c r="S48" s="82"/>
+      <c r="T48" s="82"/>
+      <c r="U48" s="82"/>
+      <c r="V48" s="82"/>
+      <c r="W48" s="82"/>
+      <c r="X48" s="82"/>
+      <c r="Y48" s="82"/>
+      <c r="Z48" s="82"/>
+      <c r="AA48" s="82"/>
+      <c r="AB48" s="82"/>
+      <c r="AC48" s="85"/>
+      <c r="AD48" s="71"/>
+      <c r="AE48" s="85"/>
+      <c r="AF48" s="71"/>
+      <c r="AG48" s="85"/>
+      <c r="AH48" s="82"/>
+      <c r="AI48" s="71"/>
+      <c r="AJ48" s="82"/>
+      <c r="AK48" s="71"/>
+      <c r="AL48" s="71"/>
+      <c r="AM48" s="82"/>
+      <c r="AN48" s="71"/>
+      <c r="AO48" s="82"/>
+      <c r="AP48" s="71"/>
+      <c r="AQ48" s="82"/>
+      <c r="AR48" s="86"/>
+      <c r="AS48" s="86"/>
+      <c r="AT48" s="86"/>
+      <c r="AU48" s="86"/>
+      <c r="AV48" s="86"/>
+      <c r="AW48" s="82"/>
+      <c r="AX48" s="82"/>
+      <c r="AY48" s="82"/>
+      <c r="AZ48" s="82"/>
+      <c r="BA48" s="82"/>
+      <c r="BB48" s="82"/>
+      <c r="BC48" s="82"/>
+      <c r="BD48" s="82"/>
+      <c r="BE48" s="82"/>
+      <c r="BF48" s="82"/>
+      <c r="BG48" s="87"/>
+      <c r="BH48" s="87"/>
+      <c r="BI48" s="87"/>
+      <c r="BJ48" s="87"/>
+      <c r="BK48" s="87"/>
+      <c r="BL48" s="82"/>
+      <c r="BM48" s="82"/>
+      <c r="BN48" s="82"/>
+      <c r="BO48" s="82"/>
+      <c r="BP48" s="88"/>
+      <c r="BQ48" s="62"/>
+    </row>
+    <row r="49" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A49" s="62"/>
+      <c r="B49" s="63">
+        <v>2.5</v>
+      </c>
+      <c r="C49" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="65">
+        <v>45363.0</v>
+      </c>
+      <c r="F49" s="65">
+        <v>45376.0</v>
+      </c>
+      <c r="G49" s="66">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H49" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I49" s="80"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="84"/>
+      <c r="P49" s="84"/>
+      <c r="Q49" s="84"/>
+      <c r="R49" s="84"/>
+      <c r="S49" s="82"/>
+      <c r="T49" s="82"/>
+      <c r="U49" s="82"/>
+      <c r="V49" s="82"/>
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="82"/>
+      <c r="AA49" s="82"/>
+      <c r="AB49" s="82"/>
+      <c r="AC49" s="85"/>
+      <c r="AD49" s="71"/>
+      <c r="AE49" s="85"/>
+      <c r="AF49" s="71"/>
+      <c r="AG49" s="85"/>
+      <c r="AH49" s="82"/>
+      <c r="AI49" s="71"/>
+      <c r="AJ49" s="82"/>
+      <c r="AK49" s="71"/>
+      <c r="AL49" s="71"/>
+      <c r="AM49" s="82"/>
+      <c r="AN49" s="71"/>
+      <c r="AO49" s="82"/>
+      <c r="AP49" s="71"/>
+      <c r="AQ49" s="82"/>
+      <c r="AR49" s="86"/>
+      <c r="AS49" s="86"/>
+      <c r="AT49" s="86"/>
+      <c r="AU49" s="86"/>
+      <c r="AV49" s="86"/>
+      <c r="AW49" s="82"/>
+      <c r="AX49" s="82"/>
+      <c r="AY49" s="82"/>
+      <c r="AZ49" s="82"/>
+      <c r="BA49" s="82"/>
+      <c r="BB49" s="82"/>
+      <c r="BC49" s="82"/>
+      <c r="BD49" s="82"/>
+      <c r="BE49" s="82"/>
+      <c r="BF49" s="82"/>
+      <c r="BG49" s="87"/>
+      <c r="BH49" s="87"/>
+      <c r="BI49" s="87"/>
+      <c r="BJ49" s="87"/>
+      <c r="BK49" s="87"/>
+      <c r="BL49" s="82"/>
+      <c r="BM49" s="82"/>
+      <c r="BN49" s="82"/>
+      <c r="BO49" s="82"/>
+      <c r="BP49" s="88"/>
+      <c r="BQ49" s="62"/>
+    </row>
+    <row r="50" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A50" s="62"/>
+      <c r="B50" s="63">
+        <v>2.6</v>
+      </c>
+      <c r="C50" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="65">
+        <v>45363.0</v>
+      </c>
+      <c r="F50" s="126">
+        <v>45378.0</v>
+      </c>
+      <c r="G50" s="66">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="H50" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I50" s="80"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="81"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="84"/>
+      <c r="R50" s="84"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="82"/>
+      <c r="U50" s="82"/>
+      <c r="V50" s="82"/>
+      <c r="W50" s="82"/>
+      <c r="X50" s="82"/>
+      <c r="Y50" s="82"/>
+      <c r="Z50" s="82"/>
+      <c r="AA50" s="82"/>
+      <c r="AB50" s="82"/>
+      <c r="AC50" s="85"/>
+      <c r="AD50" s="71"/>
+      <c r="AE50" s="85"/>
+      <c r="AF50" s="71"/>
+      <c r="AG50" s="85"/>
+      <c r="AH50" s="82"/>
+      <c r="AI50" s="71"/>
+      <c r="AJ50" s="82"/>
+      <c r="AK50" s="71"/>
+      <c r="AL50" s="71"/>
+      <c r="AM50" s="82"/>
+      <c r="AN50" s="71"/>
+      <c r="AO50" s="82"/>
+      <c r="AP50" s="71"/>
+      <c r="AQ50" s="82"/>
+      <c r="AR50" s="86"/>
+      <c r="AS50" s="86"/>
+      <c r="AT50" s="86"/>
+      <c r="AU50" s="86"/>
+      <c r="AV50" s="86"/>
+      <c r="AW50" s="82"/>
+      <c r="AX50" s="82"/>
+      <c r="AY50" s="82"/>
+      <c r="AZ50" s="82"/>
+      <c r="BA50" s="82"/>
+      <c r="BB50" s="82"/>
+      <c r="BC50" s="82"/>
+      <c r="BD50" s="82"/>
+      <c r="BE50" s="82"/>
+      <c r="BF50" s="82"/>
+      <c r="BG50" s="87"/>
+      <c r="BH50" s="87"/>
+      <c r="BI50" s="87"/>
+      <c r="BJ50" s="87"/>
+      <c r="BK50" s="87"/>
+      <c r="BL50" s="82"/>
+      <c r="BM50" s="82"/>
+      <c r="BN50" s="82"/>
+      <c r="BO50" s="82"/>
+      <c r="BP50" s="88"/>
+      <c r="BQ50" s="62"/>
+    </row>
+    <row r="51" ht="21.0" customHeight="1">
+      <c r="A51" s="32"/>
+      <c r="B51" s="55">
+        <v>3.0</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="58"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="61"/>
+      <c r="U51" s="61"/>
+      <c r="V51" s="61"/>
+      <c r="W51" s="61"/>
+      <c r="X51" s="61"/>
+      <c r="Y51" s="61"/>
+      <c r="Z51" s="61"/>
+      <c r="AA51" s="61"/>
+      <c r="AB51" s="61"/>
+      <c r="AC51" s="61"/>
+      <c r="AD51" s="61"/>
+      <c r="AE51" s="61"/>
+      <c r="AF51" s="61"/>
+      <c r="AG51" s="61"/>
+      <c r="AH51" s="61"/>
+      <c r="AI51" s="61"/>
+      <c r="AJ51" s="61"/>
+      <c r="AK51" s="61"/>
+      <c r="AL51" s="61"/>
+      <c r="AM51" s="61"/>
+      <c r="AN51" s="61"/>
+      <c r="AO51" s="61"/>
+      <c r="AP51" s="61"/>
+      <c r="AQ51" s="61"/>
+      <c r="AR51" s="61"/>
+      <c r="AS51" s="61"/>
+      <c r="AT51" s="61"/>
+      <c r="AU51" s="61"/>
+      <c r="AV51" s="61"/>
+      <c r="AW51" s="61"/>
+      <c r="AX51" s="61"/>
+      <c r="AY51" s="61"/>
+      <c r="AZ51" s="61"/>
+      <c r="BA51" s="61"/>
+      <c r="BB51" s="61"/>
+      <c r="BC51" s="61"/>
+      <c r="BD51" s="61"/>
+      <c r="BE51" s="61"/>
+      <c r="BF51" s="61"/>
+      <c r="BG51" s="61"/>
+      <c r="BH51" s="61"/>
+      <c r="BI51" s="61"/>
+      <c r="BJ51" s="61"/>
+      <c r="BK51" s="61"/>
+      <c r="BL51" s="61"/>
+      <c r="BM51" s="61"/>
+      <c r="BN51" s="61"/>
+      <c r="BO51" s="61"/>
+      <c r="BP51" s="61"/>
+      <c r="BQ51" s="32"/>
+    </row>
+    <row r="52" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A52" s="62"/>
+      <c r="B52" s="63">
+        <v>3.1</v>
+      </c>
+      <c r="C52" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="127">
+        <v>45361.0</v>
+      </c>
+      <c r="F52" s="65">
+        <v>45363.0</v>
+      </c>
+      <c r="G52" s="66">
+        <v>0.0</v>
+      </c>
+      <c r="H52" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52" s="68"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="84"/>
+      <c r="R52" s="84"/>
+      <c r="S52" s="75"/>
+      <c r="T52" s="75"/>
+      <c r="U52" s="75"/>
+      <c r="V52" s="75"/>
+      <c r="W52" s="75"/>
+      <c r="X52" s="75"/>
+      <c r="Y52" s="75"/>
+      <c r="Z52" s="75"/>
+      <c r="AA52" s="75"/>
+      <c r="AB52" s="75"/>
+      <c r="AC52" s="76"/>
+      <c r="AD52" s="76"/>
+      <c r="AE52" s="76"/>
+      <c r="AF52" s="76"/>
+      <c r="AG52" s="76"/>
+      <c r="AH52" s="75"/>
+      <c r="AI52" s="75"/>
+      <c r="AJ52" s="75"/>
+      <c r="AK52" s="75"/>
+      <c r="AL52" s="75"/>
+      <c r="AM52" s="75"/>
+      <c r="AN52" s="75"/>
+      <c r="AO52" s="75"/>
+      <c r="AP52" s="75"/>
+      <c r="AQ52" s="75"/>
+      <c r="AR52" s="77"/>
+      <c r="AS52" s="77"/>
+      <c r="AT52" s="77"/>
+      <c r="AU52" s="77"/>
+      <c r="AV52" s="77"/>
+      <c r="AW52" s="75"/>
+      <c r="AX52" s="75"/>
+      <c r="AY52" s="75"/>
+      <c r="AZ52" s="75"/>
+      <c r="BA52" s="75"/>
+      <c r="BB52" s="75"/>
+      <c r="BC52" s="75"/>
+      <c r="BD52" s="75"/>
+      <c r="BE52" s="75"/>
+      <c r="BF52" s="75"/>
+      <c r="BG52" s="78"/>
+      <c r="BH52" s="78"/>
+      <c r="BI52" s="78"/>
+      <c r="BJ52" s="78"/>
+      <c r="BK52" s="78"/>
+      <c r="BL52" s="75"/>
+      <c r="BM52" s="75"/>
+      <c r="BN52" s="75"/>
+      <c r="BO52" s="75"/>
+      <c r="BP52" s="79"/>
+      <c r="BQ52" s="62"/>
+    </row>
+    <row r="53" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A53" s="62"/>
+      <c r="B53" s="63">
+        <v>3.2</v>
+      </c>
+      <c r="C53" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="65">
+        <v>45364.0</v>
+      </c>
+      <c r="F53" s="65">
+        <v>45366.0</v>
+      </c>
+      <c r="G53" s="66">
+        <v>0.0</v>
+      </c>
+      <c r="H53" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" s="80"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="82"/>
+      <c r="T53" s="82"/>
+      <c r="U53" s="82"/>
+      <c r="V53" s="82"/>
+      <c r="W53" s="82"/>
+      <c r="X53" s="82"/>
+      <c r="Y53" s="82"/>
+      <c r="Z53" s="82"/>
+      <c r="AA53" s="82"/>
+      <c r="AB53" s="82"/>
+      <c r="AC53" s="85"/>
+      <c r="AD53" s="85"/>
+      <c r="AE53" s="85"/>
+      <c r="AF53" s="85"/>
+      <c r="AG53" s="85"/>
+      <c r="AH53" s="82"/>
+      <c r="AI53" s="82"/>
+      <c r="AJ53" s="82"/>
+      <c r="AK53" s="82"/>
+      <c r="AL53" s="82"/>
+      <c r="AM53" s="82"/>
+      <c r="AN53" s="82"/>
+      <c r="AO53" s="82"/>
+      <c r="AP53" s="82"/>
+      <c r="AQ53" s="82"/>
+      <c r="AR53" s="86"/>
+      <c r="AS53" s="86"/>
+      <c r="AT53" s="86"/>
+      <c r="AU53" s="86"/>
+      <c r="AV53" s="86"/>
+      <c r="AW53" s="82"/>
+      <c r="AX53" s="82"/>
+      <c r="AY53" s="82"/>
+      <c r="AZ53" s="82"/>
+      <c r="BA53" s="82"/>
+      <c r="BB53" s="82"/>
+      <c r="BC53" s="82"/>
+      <c r="BD53" s="82"/>
+      <c r="BE53" s="82"/>
+      <c r="BF53" s="82"/>
+      <c r="BG53" s="87"/>
+      <c r="BH53" s="87"/>
+      <c r="BI53" s="87"/>
+      <c r="BJ53" s="87"/>
+      <c r="BK53" s="87"/>
+      <c r="BL53" s="82"/>
+      <c r="BM53" s="82"/>
+      <c r="BN53" s="82"/>
+      <c r="BO53" s="82"/>
+      <c r="BP53" s="88"/>
+      <c r="BQ53" s="62"/>
+    </row>
+    <row r="54" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A54" s="62"/>
+      <c r="B54" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="65">
+        <v>45367.0</v>
+      </c>
+      <c r="F54" s="65">
+        <v>45369.0</v>
+      </c>
+      <c r="G54" s="66">
+        <v>0.0</v>
+      </c>
+      <c r="H54" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" s="80"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="81"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84"/>
+      <c r="S54" s="70"/>
+      <c r="T54" s="70"/>
+      <c r="U54" s="70"/>
+      <c r="V54" s="70"/>
+      <c r="W54" s="82"/>
+      <c r="X54" s="82"/>
+      <c r="Y54" s="82"/>
+      <c r="Z54" s="82"/>
+      <c r="AA54" s="82"/>
+      <c r="AB54" s="82"/>
+      <c r="AC54" s="85"/>
+      <c r="AD54" s="85"/>
+      <c r="AE54" s="85"/>
+      <c r="AF54" s="85"/>
+      <c r="AG54" s="85"/>
+      <c r="AH54" s="82"/>
+      <c r="AI54" s="82"/>
+      <c r="AJ54" s="82"/>
+      <c r="AK54" s="82"/>
+      <c r="AL54" s="82"/>
+      <c r="AM54" s="82"/>
+      <c r="AN54" s="82"/>
+      <c r="AO54" s="82"/>
+      <c r="AP54" s="82"/>
+      <c r="AQ54" s="82"/>
+      <c r="AR54" s="86"/>
+      <c r="AS54" s="86"/>
+      <c r="AT54" s="86"/>
+      <c r="AU54" s="86"/>
+      <c r="AV54" s="86"/>
+      <c r="AW54" s="82"/>
+      <c r="AX54" s="82"/>
+      <c r="AY54" s="82"/>
+      <c r="AZ54" s="82"/>
+      <c r="BA54" s="82"/>
+      <c r="BB54" s="82"/>
+      <c r="BC54" s="82"/>
+      <c r="BD54" s="82"/>
+      <c r="BE54" s="82"/>
+      <c r="BF54" s="82"/>
+      <c r="BG54" s="87"/>
+      <c r="BH54" s="87"/>
+      <c r="BI54" s="87"/>
+      <c r="BJ54" s="87"/>
+      <c r="BK54" s="87"/>
+      <c r="BL54" s="82"/>
+      <c r="BM54" s="82"/>
+      <c r="BN54" s="82"/>
+      <c r="BO54" s="82"/>
+      <c r="BP54" s="88"/>
+      <c r="BQ54" s="62"/>
+    </row>
+    <row r="55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A55" s="62"/>
+      <c r="B55" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="65">
+        <v>45370.0</v>
+      </c>
+      <c r="F55" s="65">
+        <v>45371.0</v>
+      </c>
+      <c r="G55" s="66">
+        <v>0.0</v>
+      </c>
+      <c r="H55" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55" s="80"/>
+      <c r="J55" s="89"/>
+      <c r="K55" s="81"/>
+      <c r="L55" s="81"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
+      <c r="Q55" s="84"/>
+      <c r="R55" s="84"/>
+      <c r="S55" s="70"/>
+      <c r="T55" s="70"/>
+      <c r="U55" s="70"/>
+      <c r="V55" s="70"/>
+      <c r="W55" s="82"/>
+      <c r="X55" s="82"/>
+      <c r="Y55" s="82"/>
+      <c r="Z55" s="82"/>
+      <c r="AA55" s="82"/>
+      <c r="AB55" s="82"/>
+      <c r="AC55" s="85"/>
+      <c r="AD55" s="85"/>
+      <c r="AE55" s="85"/>
+      <c r="AF55" s="85"/>
+      <c r="AG55" s="85"/>
+      <c r="AH55" s="82"/>
+      <c r="AI55" s="82"/>
+      <c r="AJ55" s="82"/>
+      <c r="AK55" s="82"/>
+      <c r="AL55" s="82"/>
+      <c r="AM55" s="82"/>
+      <c r="AN55" s="82"/>
+      <c r="AO55" s="82"/>
+      <c r="AP55" s="82"/>
+      <c r="AQ55" s="82"/>
+      <c r="AR55" s="86"/>
+      <c r="AS55" s="86"/>
+      <c r="AT55" s="86"/>
+      <c r="AU55" s="86"/>
+      <c r="AV55" s="86"/>
+      <c r="AW55" s="82"/>
+      <c r="AX55" s="82"/>
+      <c r="AY55" s="82"/>
+      <c r="AZ55" s="82"/>
+      <c r="BA55" s="82"/>
+      <c r="BB55" s="82"/>
+      <c r="BC55" s="82"/>
+      <c r="BD55" s="82"/>
+      <c r="BE55" s="82"/>
+      <c r="BF55" s="82"/>
+      <c r="BG55" s="87"/>
+      <c r="BH55" s="87"/>
+      <c r="BI55" s="87"/>
+      <c r="BJ55" s="87"/>
+      <c r="BK55" s="87"/>
+      <c r="BL55" s="82"/>
+      <c r="BM55" s="82"/>
+      <c r="BN55" s="82"/>
+      <c r="BO55" s="82"/>
+      <c r="BP55" s="88"/>
+      <c r="BQ55" s="62"/>
+    </row>
+    <row r="56" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A56" s="62"/>
+      <c r="B56" s="63">
+        <v>3.3</v>
+      </c>
+      <c r="C56" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="65">
+        <v>45371.0</v>
+      </c>
+      <c r="F56" s="65">
+        <v>45373.0</v>
+      </c>
+      <c r="G56" s="66">
+        <v>0.0</v>
+      </c>
+      <c r="H56" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" s="80"/>
+      <c r="J56" s="89"/>
+      <c r="K56" s="81"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="84"/>
+      <c r="S56" s="70"/>
+      <c r="T56" s="70"/>
+      <c r="U56" s="70"/>
+      <c r="V56" s="70"/>
+      <c r="W56" s="82"/>
+      <c r="X56" s="82"/>
+      <c r="Y56" s="82"/>
+      <c r="Z56" s="82"/>
+      <c r="AA56" s="82"/>
+      <c r="AB56" s="82"/>
+      <c r="AC56" s="85"/>
+      <c r="AD56" s="85"/>
+      <c r="AE56" s="85"/>
+      <c r="AF56" s="85"/>
+      <c r="AG56" s="85"/>
+      <c r="AH56" s="82"/>
+      <c r="AI56" s="82"/>
+      <c r="AJ56" s="82"/>
+      <c r="AK56" s="82"/>
+      <c r="AL56" s="82"/>
+      <c r="AM56" s="82"/>
+      <c r="AN56" s="82"/>
+      <c r="AO56" s="82"/>
+      <c r="AP56" s="82"/>
+      <c r="AQ56" s="82"/>
+      <c r="AR56" s="86"/>
+      <c r="AS56" s="86"/>
+      <c r="AT56" s="86"/>
+      <c r="AU56" s="86"/>
+      <c r="AV56" s="86"/>
+      <c r="AW56" s="82"/>
+      <c r="AX56" s="82"/>
+      <c r="AY56" s="82"/>
+      <c r="AZ56" s="82"/>
+      <c r="BA56" s="82"/>
+      <c r="BB56" s="82"/>
+      <c r="BC56" s="82"/>
+      <c r="BD56" s="82"/>
+      <c r="BE56" s="82"/>
+      <c r="BF56" s="82"/>
+      <c r="BG56" s="87"/>
+      <c r="BH56" s="87"/>
+      <c r="BI56" s="87"/>
+      <c r="BJ56" s="87"/>
+      <c r="BK56" s="87"/>
+      <c r="BL56" s="82"/>
+      <c r="BM56" s="82"/>
+      <c r="BN56" s="82"/>
+      <c r="BO56" s="82"/>
+      <c r="BP56" s="88"/>
+      <c r="BQ56" s="62"/>
+    </row>
+    <row r="57" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A57" s="62"/>
+      <c r="B57" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="65">
+        <v>45374.0</v>
+      </c>
+      <c r="F57" s="128">
+        <v>45379.0</v>
+      </c>
+      <c r="G57" s="66">
+        <v>0.0</v>
+      </c>
+      <c r="H57" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="I57" s="80"/>
+      <c r="J57" s="89"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="84"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="84"/>
+      <c r="Q57" s="84"/>
+      <c r="R57" s="84"/>
+      <c r="S57" s="70"/>
+      <c r="T57" s="70"/>
+      <c r="U57" s="70"/>
+      <c r="V57" s="70"/>
+      <c r="W57" s="82"/>
+      <c r="X57" s="82"/>
+      <c r="Y57" s="82"/>
+      <c r="Z57" s="82"/>
+      <c r="AA57" s="82"/>
+      <c r="AB57" s="82"/>
+      <c r="AC57" s="85"/>
+      <c r="AD57" s="85"/>
+      <c r="AE57" s="85"/>
+      <c r="AF57" s="85"/>
+      <c r="AG57" s="85"/>
+      <c r="AH57" s="82"/>
+      <c r="AI57" s="82"/>
+      <c r="AJ57" s="82"/>
+      <c r="AK57" s="82"/>
+      <c r="AL57" s="82"/>
+      <c r="AM57" s="82"/>
+      <c r="AN57" s="82"/>
+      <c r="AO57" s="82"/>
+      <c r="AP57" s="82"/>
+      <c r="AQ57" s="82"/>
+      <c r="AR57" s="86"/>
+      <c r="AS57" s="86"/>
+      <c r="AT57" s="86"/>
+      <c r="AU57" s="86"/>
+      <c r="AV57" s="86"/>
+      <c r="AW57" s="82"/>
+      <c r="AX57" s="82"/>
+      <c r="AY57" s="82"/>
+      <c r="AZ57" s="82"/>
+      <c r="BA57" s="82"/>
+      <c r="BB57" s="82"/>
+      <c r="BC57" s="82"/>
+      <c r="BD57" s="82"/>
+      <c r="BE57" s="82"/>
+      <c r="BF57" s="82"/>
+      <c r="BG57" s="87"/>
+      <c r="BH57" s="87"/>
+      <c r="BI57" s="87"/>
+      <c r="BJ57" s="87"/>
+      <c r="BK57" s="87"/>
+      <c r="BL57" s="82"/>
+      <c r="BM57" s="82"/>
+      <c r="BN57" s="82"/>
+      <c r="BO57" s="82"/>
+      <c r="BP57" s="88"/>
+      <c r="BQ57" s="62"/>
+    </row>
+    <row r="58" ht="21.0" customHeight="1">
+      <c r="A58" s="32"/>
+      <c r="B58" s="129"/>
+      <c r="C58" s="130"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="134"/>
+      <c r="L58" s="134"/>
+      <c r="M58" s="135"/>
+      <c r="N58" s="132"/>
+      <c r="O58" s="135"/>
+      <c r="P58" s="132"/>
+      <c r="Q58" s="135"/>
+      <c r="R58" s="135"/>
+      <c r="S58" s="135"/>
+      <c r="T58" s="135"/>
+      <c r="U58" s="135"/>
+      <c r="V58" s="135"/>
+      <c r="W58" s="135"/>
+      <c r="X58" s="135"/>
+      <c r="Y58" s="135"/>
+      <c r="Z58" s="135"/>
+      <c r="AA58" s="135"/>
+      <c r="AB58" s="135"/>
+      <c r="AC58" s="135"/>
+      <c r="AD58" s="135"/>
+      <c r="AE58" s="135"/>
+      <c r="AF58" s="135"/>
+      <c r="AG58" s="135"/>
+      <c r="AH58" s="135"/>
+      <c r="AI58" s="135"/>
+      <c r="AJ58" s="135"/>
+      <c r="AK58" s="135"/>
+      <c r="AL58" s="135"/>
+      <c r="AM58" s="135"/>
+      <c r="AN58" s="135"/>
+      <c r="AO58" s="135"/>
+      <c r="AP58" s="135"/>
+      <c r="AQ58" s="135"/>
+      <c r="AR58" s="135"/>
+      <c r="AS58" s="135"/>
+      <c r="AT58" s="135"/>
+      <c r="AU58" s="135"/>
+      <c r="AV58" s="135"/>
+      <c r="AW58" s="135"/>
+      <c r="AX58" s="135"/>
+      <c r="AY58" s="135"/>
+      <c r="AZ58" s="135"/>
+      <c r="BA58" s="135"/>
+      <c r="BB58" s="135"/>
+      <c r="BC58" s="135"/>
+      <c r="BD58" s="135"/>
+      <c r="BE58" s="135"/>
+      <c r="BF58" s="135"/>
+      <c r="BG58" s="135"/>
+      <c r="BH58" s="135"/>
+      <c r="BI58" s="135"/>
+      <c r="BJ58" s="135"/>
+      <c r="BK58" s="135"/>
+      <c r="BL58" s="135"/>
+      <c r="BM58" s="135"/>
+      <c r="BN58" s="135"/>
+      <c r="BO58" s="135"/>
+      <c r="BP58" s="135"/>
+      <c r="BQ58" s="136"/>
+    </row>
+    <row r="59" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A59" s="62"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="139"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="141"/>
+      <c r="I59" s="142"/>
+      <c r="J59" s="143"/>
+      <c r="K59" s="144"/>
+      <c r="L59" s="144"/>
+      <c r="M59" s="144"/>
+      <c r="N59" s="145"/>
+      <c r="O59" s="145"/>
+      <c r="P59" s="145"/>
+      <c r="Q59" s="145"/>
+      <c r="R59" s="145"/>
+      <c r="S59" s="145"/>
+      <c r="T59" s="145"/>
+      <c r="U59" s="145"/>
+      <c r="V59" s="145"/>
+      <c r="W59" s="145"/>
+      <c r="X59" s="145"/>
+      <c r="Y59" s="145"/>
+      <c r="Z59" s="145"/>
+      <c r="AA59" s="145"/>
+      <c r="AB59" s="145"/>
+      <c r="AC59" s="145"/>
+      <c r="AD59" s="145"/>
+      <c r="AE59" s="145"/>
+      <c r="AF59" s="145"/>
+      <c r="AG59" s="145"/>
+      <c r="AH59" s="145"/>
+      <c r="AI59" s="145"/>
+      <c r="AJ59" s="145"/>
+      <c r="AK59" s="145"/>
+      <c r="AL59" s="145"/>
+      <c r="AM59" s="145"/>
+      <c r="AN59" s="145"/>
+      <c r="AO59" s="145"/>
+      <c r="AP59" s="145"/>
+      <c r="AQ59" s="145"/>
+      <c r="AR59" s="145"/>
+      <c r="AS59" s="145"/>
+      <c r="AT59" s="145"/>
+      <c r="AU59" s="145"/>
+      <c r="AV59" s="145"/>
+      <c r="AW59" s="145"/>
+      <c r="AX59" s="145"/>
+      <c r="AY59" s="145"/>
+      <c r="AZ59" s="145"/>
+      <c r="BA59" s="145"/>
+      <c r="BB59" s="145"/>
+      <c r="BC59" s="145"/>
+      <c r="BD59" s="145"/>
+      <c r="BE59" s="145"/>
+      <c r="BF59" s="145"/>
+      <c r="BG59" s="145"/>
+      <c r="BH59" s="145"/>
+      <c r="BI59" s="145"/>
+      <c r="BJ59" s="145"/>
+      <c r="BK59" s="145"/>
+      <c r="BL59" s="145"/>
+      <c r="BM59" s="145"/>
+      <c r="BN59" s="145"/>
+      <c r="BO59" s="145"/>
+      <c r="BP59" s="145"/>
+      <c r="BQ59" s="146"/>
+    </row>
+    <row r="60" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A60" s="62"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="139"/>
+      <c r="F60" s="139"/>
+      <c r="G60" s="140"/>
+      <c r="H60" s="141"/>
+      <c r="I60" s="142"/>
+      <c r="J60" s="143"/>
+      <c r="K60" s="144"/>
+      <c r="L60" s="144"/>
+      <c r="M60" s="145"/>
+      <c r="N60" s="145"/>
+      <c r="O60" s="145"/>
+      <c r="P60" s="145"/>
+      <c r="Q60" s="145"/>
+      <c r="R60" s="145"/>
+      <c r="S60" s="145"/>
+      <c r="T60" s="145"/>
+      <c r="U60" s="145"/>
+      <c r="V60" s="145"/>
+      <c r="W60" s="145"/>
+      <c r="X60" s="145"/>
+      <c r="Y60" s="145"/>
+      <c r="Z60" s="145"/>
+      <c r="AA60" s="145"/>
+      <c r="AB60" s="145"/>
+      <c r="AC60" s="145"/>
+      <c r="AD60" s="145"/>
+      <c r="AE60" s="145"/>
+      <c r="AF60" s="145"/>
+      <c r="AG60" s="145"/>
+      <c r="AH60" s="145"/>
+      <c r="AI60" s="145"/>
+      <c r="AJ60" s="145"/>
+      <c r="AK60" s="145"/>
+      <c r="AL60" s="145"/>
+      <c r="AM60" s="145"/>
+      <c r="AN60" s="145"/>
+      <c r="AO60" s="145"/>
+      <c r="AP60" s="145"/>
+      <c r="AQ60" s="145"/>
+      <c r="AR60" s="145"/>
+      <c r="AS60" s="145"/>
+      <c r="AT60" s="145"/>
+      <c r="AU60" s="145"/>
+      <c r="AV60" s="145"/>
+      <c r="AW60" s="145"/>
+      <c r="AX60" s="145"/>
+      <c r="AY60" s="145"/>
+      <c r="AZ60" s="145"/>
+      <c r="BA60" s="145"/>
+      <c r="BB60" s="145"/>
+      <c r="BC60" s="145"/>
+      <c r="BD60" s="145"/>
+      <c r="BE60" s="145"/>
+      <c r="BF60" s="145"/>
+      <c r="BG60" s="145"/>
+      <c r="BH60" s="145"/>
+      <c r="BI60" s="145"/>
+      <c r="BJ60" s="145"/>
+      <c r="BK60" s="145"/>
+      <c r="BL60" s="145"/>
+      <c r="BM60" s="145"/>
+      <c r="BN60" s="145"/>
+      <c r="BO60" s="145"/>
+      <c r="BP60" s="145"/>
+      <c r="BQ60" s="146"/>
+    </row>
+    <row r="61" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A61" s="62"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="138"/>
+      <c r="D61" s="138"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="139"/>
+      <c r="G61" s="140"/>
+      <c r="H61" s="141"/>
+      <c r="I61" s="142"/>
+      <c r="J61" s="143"/>
+      <c r="K61" s="144"/>
+      <c r="L61" s="144"/>
+      <c r="M61" s="145"/>
+      <c r="N61" s="145"/>
+      <c r="O61" s="145"/>
+      <c r="P61" s="145"/>
+      <c r="Q61" s="145"/>
+      <c r="R61" s="145"/>
+      <c r="S61" s="144"/>
+      <c r="T61" s="144"/>
+      <c r="U61" s="144"/>
+      <c r="V61" s="144"/>
+      <c r="W61" s="145"/>
+      <c r="X61" s="145"/>
+      <c r="Y61" s="145"/>
+      <c r="Z61" s="145"/>
+      <c r="AA61" s="145"/>
+      <c r="AB61" s="145"/>
+      <c r="AC61" s="145"/>
+      <c r="AD61" s="145"/>
+      <c r="AE61" s="145"/>
+      <c r="AF61" s="145"/>
+      <c r="AG61" s="145"/>
+      <c r="AH61" s="145"/>
+      <c r="AI61" s="145"/>
+      <c r="AJ61" s="145"/>
+      <c r="AK61" s="145"/>
+      <c r="AL61" s="145"/>
+      <c r="AM61" s="145"/>
+      <c r="AN61" s="145"/>
+      <c r="AO61" s="145"/>
+      <c r="AP61" s="145"/>
+      <c r="AQ61" s="145"/>
+      <c r="AR61" s="145"/>
+      <c r="AS61" s="145"/>
+      <c r="AT61" s="145"/>
+      <c r="AU61" s="145"/>
+      <c r="AV61" s="145"/>
+      <c r="AW61" s="145"/>
+      <c r="AX61" s="145"/>
+      <c r="AY61" s="145"/>
+      <c r="AZ61" s="145"/>
+      <c r="BA61" s="145"/>
+      <c r="BB61" s="145"/>
+      <c r="BC61" s="145"/>
+      <c r="BD61" s="145"/>
+      <c r="BE61" s="145"/>
+      <c r="BF61" s="145"/>
+      <c r="BG61" s="145"/>
+      <c r="BH61" s="145"/>
+      <c r="BI61" s="145"/>
+      <c r="BJ61" s="145"/>
+      <c r="BK61" s="145"/>
+      <c r="BL61" s="145"/>
+      <c r="BM61" s="145"/>
+      <c r="BN61" s="145"/>
+      <c r="BO61" s="145"/>
+      <c r="BP61" s="145"/>
+      <c r="BQ61" s="146"/>
+    </row>
+    <row r="62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A62" s="62"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="140"/>
+      <c r="H62" s="141"/>
+      <c r="I62" s="142"/>
+      <c r="J62" s="143"/>
+      <c r="K62" s="144"/>
+      <c r="L62" s="144"/>
+      <c r="M62" s="145"/>
+      <c r="N62" s="145"/>
+      <c r="O62" s="145"/>
+      <c r="P62" s="145"/>
+      <c r="Q62" s="145"/>
+      <c r="R62" s="145"/>
+      <c r="S62" s="144"/>
+      <c r="T62" s="144"/>
+      <c r="U62" s="144"/>
+      <c r="V62" s="144"/>
+      <c r="W62" s="145"/>
+      <c r="X62" s="145"/>
+      <c r="Y62" s="145"/>
+      <c r="Z62" s="145"/>
+      <c r="AA62" s="145"/>
+      <c r="AB62" s="145"/>
+      <c r="AC62" s="145"/>
+      <c r="AD62" s="145"/>
+      <c r="AE62" s="145"/>
+      <c r="AF62" s="145"/>
+      <c r="AG62" s="145"/>
+      <c r="AH62" s="145"/>
+      <c r="AI62" s="145"/>
+      <c r="AJ62" s="145"/>
+      <c r="AK62" s="145"/>
+      <c r="AL62" s="145"/>
+      <c r="AM62" s="145"/>
+      <c r="AN62" s="145"/>
+      <c r="AO62" s="145"/>
+      <c r="AP62" s="145"/>
+      <c r="AQ62" s="145"/>
+      <c r="AR62" s="145"/>
+      <c r="AS62" s="145"/>
+      <c r="AT62" s="145"/>
+      <c r="AU62" s="145"/>
+      <c r="AV62" s="145"/>
+      <c r="AW62" s="145"/>
+      <c r="AX62" s="145"/>
+      <c r="AY62" s="145"/>
+      <c r="AZ62" s="145"/>
+      <c r="BA62" s="145"/>
+      <c r="BB62" s="145"/>
+      <c r="BC62" s="145"/>
+      <c r="BD62" s="145"/>
+      <c r="BE62" s="145"/>
+      <c r="BF62" s="145"/>
+      <c r="BG62" s="145"/>
+      <c r="BH62" s="145"/>
+      <c r="BI62" s="145"/>
+      <c r="BJ62" s="145"/>
+      <c r="BK62" s="145"/>
+      <c r="BL62" s="145"/>
+      <c r="BM62" s="145"/>
+      <c r="BN62" s="145"/>
+      <c r="BO62" s="145"/>
+      <c r="BP62" s="145"/>
+      <c r="BQ62" s="146"/>
+    </row>
+    <row r="63" ht="21.0" customHeight="1">
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="147"/>
+      <c r="H63" s="147"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="32"/>
+      <c r="Y63" s="32"/>
+      <c r="Z63" s="32"/>
+      <c r="AA63" s="32"/>
+      <c r="AB63" s="32"/>
+      <c r="AC63" s="32"/>
+      <c r="AD63" s="32"/>
+      <c r="AE63" s="32"/>
+      <c r="AF63" s="32"/>
+      <c r="AG63" s="32"/>
+      <c r="AH63" s="32"/>
+      <c r="AI63" s="32"/>
+      <c r="AJ63" s="32"/>
+      <c r="AK63" s="32"/>
+      <c r="AL63" s="32"/>
+      <c r="AM63" s="32"/>
+      <c r="AN63" s="32"/>
+      <c r="AO63" s="32"/>
+      <c r="AP63" s="32"/>
+      <c r="AQ63" s="32"/>
+      <c r="AR63" s="32"/>
+      <c r="AS63" s="32"/>
+      <c r="AT63" s="32"/>
+      <c r="AU63" s="32"/>
+      <c r="AV63" s="32"/>
+      <c r="AW63" s="32"/>
+      <c r="AX63" s="32"/>
+      <c r="AY63" s="32"/>
+      <c r="AZ63" s="32"/>
+      <c r="BA63" s="32"/>
+      <c r="BB63" s="32"/>
+      <c r="BC63" s="32"/>
+      <c r="BD63" s="32"/>
+      <c r="BE63" s="32"/>
+      <c r="BF63" s="32"/>
+      <c r="BG63" s="32"/>
+      <c r="BH63" s="32"/>
+      <c r="BI63" s="32"/>
+      <c r="BJ63" s="32"/>
+      <c r="BK63" s="32"/>
+      <c r="BL63" s="32"/>
+      <c r="BM63" s="32"/>
+      <c r="BN63" s="32"/>
+      <c r="BO63" s="32"/>
+      <c r="BP63" s="32"/>
+      <c r="BQ63" s="32"/>
+    </row>
+    <row r="64" ht="21.0" customHeight="1">
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="147"/>
+      <c r="H64" s="147"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="32"/>
+      <c r="U64" s="32"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="32"/>
+      <c r="Y64" s="32"/>
+      <c r="Z64" s="32"/>
+      <c r="AA64" s="32"/>
+      <c r="AB64" s="32"/>
+      <c r="AC64" s="32"/>
+      <c r="AD64" s="32"/>
+      <c r="AE64" s="32"/>
+      <c r="AF64" s="32"/>
+      <c r="AG64" s="32"/>
+      <c r="AH64" s="32"/>
+      <c r="AI64" s="32"/>
+      <c r="AJ64" s="32"/>
+      <c r="AK64" s="32"/>
+      <c r="AL64" s="32"/>
+      <c r="AM64" s="32"/>
+      <c r="AN64" s="32"/>
+      <c r="AO64" s="32"/>
+      <c r="AP64" s="32"/>
+      <c r="AQ64" s="32"/>
+      <c r="AR64" s="32"/>
+      <c r="AS64" s="32"/>
+      <c r="AT64" s="32"/>
+      <c r="AU64" s="32"/>
+      <c r="AV64" s="32"/>
+      <c r="AW64" s="32"/>
+      <c r="AX64" s="32"/>
+      <c r="AY64" s="32"/>
+      <c r="AZ64" s="32"/>
+      <c r="BA64" s="32"/>
+      <c r="BB64" s="32"/>
+      <c r="BC64" s="32"/>
+      <c r="BD64" s="32"/>
+      <c r="BE64" s="32"/>
+      <c r="BF64" s="32"/>
+      <c r="BG64" s="32"/>
+      <c r="BH64" s="32"/>
+      <c r="BI64" s="32"/>
+      <c r="BJ64" s="32"/>
+      <c r="BK64" s="32"/>
+      <c r="BL64" s="32"/>
+      <c r="BM64" s="32"/>
+      <c r="BN64" s="32"/>
+      <c r="BO64" s="32"/>
+      <c r="BP64" s="32"/>
+      <c r="BQ64" s="32"/>
+    </row>
+    <row r="65" ht="21.0" customHeight="1">
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="147"/>
+      <c r="H65" s="147"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="32"/>
+      <c r="W65" s="32"/>
+      <c r="X65" s="32"/>
+      <c r="Y65" s="32"/>
+      <c r="Z65" s="32"/>
+      <c r="AA65" s="32"/>
+      <c r="AB65" s="32"/>
+      <c r="AC65" s="32"/>
+      <c r="AD65" s="32"/>
+      <c r="AE65" s="32"/>
+      <c r="AF65" s="32"/>
+      <c r="AG65" s="32"/>
+      <c r="AH65" s="32"/>
+      <c r="AI65" s="32"/>
+      <c r="AJ65" s="32"/>
+      <c r="AK65" s="32"/>
+      <c r="AL65" s="32"/>
+      <c r="AM65" s="32"/>
+      <c r="AN65" s="32"/>
+      <c r="AO65" s="32"/>
+      <c r="AP65" s="32"/>
+      <c r="AQ65" s="32"/>
+      <c r="AR65" s="32"/>
+      <c r="AS65" s="32"/>
+      <c r="AT65" s="32"/>
+      <c r="AU65" s="32"/>
+      <c r="AV65" s="32"/>
+      <c r="AW65" s="32"/>
+      <c r="AX65" s="32"/>
+      <c r="AY65" s="32"/>
+      <c r="AZ65" s="32"/>
+      <c r="BA65" s="32"/>
+      <c r="BB65" s="32"/>
+      <c r="BC65" s="32"/>
+      <c r="BD65" s="32"/>
+      <c r="BE65" s="32"/>
+      <c r="BF65" s="32"/>
+      <c r="BG65" s="32"/>
+      <c r="BH65" s="32"/>
+      <c r="BI65" s="32"/>
+      <c r="BJ65" s="32"/>
+      <c r="BK65" s="32"/>
+      <c r="BL65" s="32"/>
+      <c r="BM65" s="32"/>
+      <c r="BN65" s="32"/>
+      <c r="BO65" s="32"/>
+      <c r="BP65" s="32"/>
+      <c r="BQ65" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -4407,7 +6898,7 @@
     <mergeCell ref="AR9:AV9"/>
     <mergeCell ref="AW9:BA9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H12:H18 H20:H35">
+  <conditionalFormatting sqref="H12:H18 H20:H62">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4417,7 +6908,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H18 H20:H35">
+  <conditionalFormatting sqref="H12:H18 H20:H62">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="94">
   <si>
     <t>Group 3 Banking Project Schedule</t>
   </si>
@@ -266,37 +266,49 @@
     <t>Editing SRS</t>
   </si>
   <si>
-    <t>(Final) Project Implementation</t>
-  </si>
-  <si>
-    <t>Common Requirments</t>
-  </si>
-  <si>
-    <t>Not started yet</t>
-  </si>
-  <si>
-    <t>User Module</t>
-  </si>
-  <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
-    <t>Bank User Module</t>
-  </si>
-  <si>
-    <t>3.2.2</t>
-  </si>
-  <si>
-    <t>Teller User Module</t>
-  </si>
-  <si>
-    <t>Oner User Module</t>
-  </si>
-  <si>
-    <t>3.3.1</t>
-  </si>
-  <si>
-    <t>ATM Module</t>
+    <t>Implementation Phase</t>
+  </si>
+  <si>
+    <t>Bank User Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3.3.1</t>
+  </si>
+  <si>
+    <t>Bank Account Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Teller Client</t>
+  </si>
+  <si>
+    <t>Admin Teller Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3.6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ATM Client</t>
+  </si>
+  <si>
+    <t>Message Class</t>
+  </si>
+  <si>
+    <t>Teller GUI</t>
+  </si>
+  <si>
+    <t>ATM GUI</t>
+  </si>
+  <si>
+    <t>3.10.</t>
+  </si>
+  <si>
+    <t>Github Setup Session</t>
+  </si>
+  <si>
+    <t>JUnit Test</t>
   </si>
 </sst>
 </file>
@@ -308,7 +320,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="M/d/yyyy"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -507,6 +519,10 @@
       <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="22">
     <fill>
@@ -636,7 +652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border/>
     <border>
       <bottom style="thick">
@@ -867,6 +883,25 @@
       </bottom>
     </border>
     <border>
+      <right style="hair">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFB7B7B7"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="hair">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <bottom style="hair">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -884,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="161">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1251,9 +1286,26 @@
     <xf borderId="10" fillId="0" fontId="29" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="15" fillId="20" fontId="38" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="20" fontId="38" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="20" fontId="38" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="20" fontId="38" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="17" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="10" fillId="2" fontId="35" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="26" fillId="20" fontId="38" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="38" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="38" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="38" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="38" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="0" fontId="38" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="0" fontId="38" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="2" fontId="34" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1278,31 +1330,31 @@
     <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="2" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="27" fillId="2" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="2" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="2" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="25" fillId="2" fontId="30" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="27" fillId="2" fontId="30" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="25" fillId="2" fontId="30" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="27" fillId="2" fontId="30" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="25" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="25" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5789,22 +5841,22 @@
         <v>3.1</v>
       </c>
       <c r="C52" s="64" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D52" s="64" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E52" s="127">
-        <v>45361.0</v>
+        <v>45391.0</v>
       </c>
       <c r="F52" s="65">
-        <v>45363.0</v>
+        <v>45398.0</v>
       </c>
       <c r="G52" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="120" t="s">
-        <v>81</v>
+        <v>7.0</v>
+      </c>
+      <c r="H52" s="108">
+        <v>1.0</v>
       </c>
       <c r="I52" s="68"/>
       <c r="J52" s="109"/>
@@ -5842,27 +5894,27 @@
       <c r="AP52" s="75"/>
       <c r="AQ52" s="75"/>
       <c r="AR52" s="77"/>
-      <c r="AS52" s="77"/>
-      <c r="AT52" s="77"/>
-      <c r="AU52" s="77"/>
-      <c r="AV52" s="77"/>
-      <c r="AW52" s="75"/>
-      <c r="AX52" s="75"/>
-      <c r="AY52" s="75"/>
-      <c r="AZ52" s="75"/>
-      <c r="BA52" s="75"/>
-      <c r="BB52" s="75"/>
-      <c r="BC52" s="75"/>
-      <c r="BD52" s="75"/>
-      <c r="BE52" s="75"/>
-      <c r="BF52" s="75"/>
-      <c r="BG52" s="78"/>
-      <c r="BH52" s="78"/>
-      <c r="BI52" s="78"/>
-      <c r="BJ52" s="78"/>
-      <c r="BK52" s="78"/>
-      <c r="BL52" s="75"/>
-      <c r="BM52" s="75"/>
+      <c r="AS52" s="86"/>
+      <c r="AT52" s="86"/>
+      <c r="AU52" s="86"/>
+      <c r="AV52" s="86"/>
+      <c r="AW52" s="82"/>
+      <c r="AX52" s="71"/>
+      <c r="AY52" s="71"/>
+      <c r="AZ52" s="71"/>
+      <c r="BA52" s="71"/>
+      <c r="BB52" s="71"/>
+      <c r="BC52" s="71"/>
+      <c r="BD52" s="71"/>
+      <c r="BE52" s="71"/>
+      <c r="BF52" s="71"/>
+      <c r="BG52" s="71"/>
+      <c r="BH52" s="71"/>
+      <c r="BI52" s="71"/>
+      <c r="BJ52" s="71"/>
+      <c r="BK52" s="71"/>
+      <c r="BL52" s="71"/>
+      <c r="BM52" s="71"/>
       <c r="BN52" s="75"/>
       <c r="BO52" s="75"/>
       <c r="BP52" s="79"/>
@@ -5874,22 +5926,22 @@
         <v>3.2</v>
       </c>
       <c r="C53" s="64" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D53" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="65">
-        <v>45364.0</v>
+        <v>49</v>
+      </c>
+      <c r="E53" s="127">
+        <v>45391.0</v>
       </c>
       <c r="F53" s="65">
-        <v>45366.0</v>
+        <v>45398.0</v>
       </c>
       <c r="G53" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H53" s="120" t="s">
-        <v>81</v>
+        <v>7.0</v>
+      </c>
+      <c r="H53" s="108">
+        <v>1.0</v>
       </c>
       <c r="I53" s="80"/>
       <c r="J53" s="89"/>
@@ -5932,22 +5984,22 @@
       <c r="AU53" s="86"/>
       <c r="AV53" s="86"/>
       <c r="AW53" s="82"/>
-      <c r="AX53" s="82"/>
-      <c r="AY53" s="82"/>
-      <c r="AZ53" s="82"/>
-      <c r="BA53" s="82"/>
-      <c r="BB53" s="82"/>
-      <c r="BC53" s="82"/>
-      <c r="BD53" s="82"/>
-      <c r="BE53" s="82"/>
-      <c r="BF53" s="82"/>
-      <c r="BG53" s="87"/>
-      <c r="BH53" s="87"/>
-      <c r="BI53" s="87"/>
-      <c r="BJ53" s="87"/>
-      <c r="BK53" s="87"/>
-      <c r="BL53" s="82"/>
-      <c r="BM53" s="82"/>
+      <c r="AX53" s="71"/>
+      <c r="AY53" s="71"/>
+      <c r="AZ53" s="71"/>
+      <c r="BA53" s="71"/>
+      <c r="BB53" s="71"/>
+      <c r="BC53" s="71"/>
+      <c r="BD53" s="71"/>
+      <c r="BE53" s="71"/>
+      <c r="BF53" s="71"/>
+      <c r="BG53" s="71"/>
+      <c r="BH53" s="71"/>
+      <c r="BI53" s="71"/>
+      <c r="BJ53" s="71"/>
+      <c r="BK53" s="71"/>
+      <c r="BL53" s="71"/>
+      <c r="BM53" s="71"/>
       <c r="BN53" s="82"/>
       <c r="BO53" s="82"/>
       <c r="BP53" s="88"/>
@@ -5955,26 +6007,26 @@
     </row>
     <row r="54" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A54" s="62"/>
-      <c r="B54" s="63" t="s">
-        <v>83</v>
+      <c r="B54" s="63">
+        <v>3.3</v>
       </c>
       <c r="C54" s="64" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D54" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" s="65">
-        <v>45367.0</v>
+        <v>49</v>
+      </c>
+      <c r="E54" s="127">
+        <v>45391.0</v>
       </c>
       <c r="F54" s="65">
-        <v>45369.0</v>
+        <v>45398.0</v>
       </c>
       <c r="G54" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H54" s="120" t="s">
-        <v>81</v>
+        <v>7.0</v>
+      </c>
+      <c r="H54" s="108">
+        <v>1.0</v>
       </c>
       <c r="I54" s="80"/>
       <c r="J54" s="89"/>
@@ -6017,22 +6069,22 @@
       <c r="AU54" s="86"/>
       <c r="AV54" s="86"/>
       <c r="AW54" s="82"/>
-      <c r="AX54" s="82"/>
-      <c r="AY54" s="82"/>
-      <c r="AZ54" s="82"/>
-      <c r="BA54" s="82"/>
-      <c r="BB54" s="82"/>
-      <c r="BC54" s="82"/>
-      <c r="BD54" s="82"/>
-      <c r="BE54" s="82"/>
-      <c r="BF54" s="82"/>
-      <c r="BG54" s="87"/>
-      <c r="BH54" s="87"/>
-      <c r="BI54" s="87"/>
-      <c r="BJ54" s="87"/>
-      <c r="BK54" s="87"/>
-      <c r="BL54" s="82"/>
-      <c r="BM54" s="82"/>
+      <c r="AX54" s="71"/>
+      <c r="AY54" s="71"/>
+      <c r="AZ54" s="71"/>
+      <c r="BA54" s="71"/>
+      <c r="BB54" s="71"/>
+      <c r="BC54" s="71"/>
+      <c r="BD54" s="71"/>
+      <c r="BE54" s="71"/>
+      <c r="BF54" s="71"/>
+      <c r="BG54" s="71"/>
+      <c r="BH54" s="71"/>
+      <c r="BI54" s="71"/>
+      <c r="BJ54" s="71"/>
+      <c r="BK54" s="71"/>
+      <c r="BL54" s="71"/>
+      <c r="BM54" s="71"/>
       <c r="BN54" s="82"/>
       <c r="BO54" s="82"/>
       <c r="BP54" s="88"/>
@@ -6041,25 +6093,25 @@
     <row r="55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A55" s="62"/>
       <c r="B55" s="63" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C55" s="64" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D55" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E55" s="65">
-        <v>45370.0</v>
+        <v>47</v>
+      </c>
+      <c r="E55" s="127">
+        <v>45391.0</v>
       </c>
       <c r="F55" s="65">
-        <v>45371.0</v>
+        <v>45398.0</v>
       </c>
       <c r="G55" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H55" s="120" t="s">
-        <v>81</v>
+        <v>7.0</v>
+      </c>
+      <c r="H55" s="108">
+        <v>1.0</v>
       </c>
       <c r="I55" s="80"/>
       <c r="J55" s="89"/>
@@ -6102,22 +6154,22 @@
       <c r="AU55" s="86"/>
       <c r="AV55" s="86"/>
       <c r="AW55" s="82"/>
-      <c r="AX55" s="82"/>
-      <c r="AY55" s="82"/>
-      <c r="AZ55" s="82"/>
-      <c r="BA55" s="82"/>
-      <c r="BB55" s="82"/>
-      <c r="BC55" s="82"/>
-      <c r="BD55" s="82"/>
-      <c r="BE55" s="82"/>
-      <c r="BF55" s="82"/>
-      <c r="BG55" s="87"/>
-      <c r="BH55" s="87"/>
-      <c r="BI55" s="87"/>
-      <c r="BJ55" s="87"/>
-      <c r="BK55" s="87"/>
-      <c r="BL55" s="82"/>
-      <c r="BM55" s="82"/>
+      <c r="AX55" s="71"/>
+      <c r="AY55" s="71"/>
+      <c r="AZ55" s="71"/>
+      <c r="BA55" s="71"/>
+      <c r="BB55" s="71"/>
+      <c r="BC55" s="71"/>
+      <c r="BD55" s="71"/>
+      <c r="BE55" s="71"/>
+      <c r="BF55" s="71"/>
+      <c r="BG55" s="71"/>
+      <c r="BH55" s="71"/>
+      <c r="BI55" s="71"/>
+      <c r="BJ55" s="71"/>
+      <c r="BK55" s="71"/>
+      <c r="BL55" s="71"/>
+      <c r="BM55" s="71"/>
       <c r="BN55" s="82"/>
       <c r="BO55" s="82"/>
       <c r="BP55" s="88"/>
@@ -6126,25 +6178,25 @@
     <row r="56" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A56" s="62"/>
       <c r="B56" s="63">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="C56" s="64" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D56" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E56" s="65">
-        <v>45371.0</v>
+        <v>47</v>
+      </c>
+      <c r="E56" s="127">
+        <v>45391.0</v>
       </c>
       <c r="F56" s="65">
-        <v>45373.0</v>
+        <v>45398.0</v>
       </c>
       <c r="G56" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H56" s="120" t="s">
-        <v>81</v>
+        <v>7.0</v>
+      </c>
+      <c r="H56" s="108">
+        <v>1.0</v>
       </c>
       <c r="I56" s="80"/>
       <c r="J56" s="89"/>
@@ -6187,22 +6239,22 @@
       <c r="AU56" s="86"/>
       <c r="AV56" s="86"/>
       <c r="AW56" s="82"/>
-      <c r="AX56" s="82"/>
-      <c r="AY56" s="82"/>
-      <c r="AZ56" s="82"/>
-      <c r="BA56" s="82"/>
-      <c r="BB56" s="82"/>
-      <c r="BC56" s="82"/>
-      <c r="BD56" s="82"/>
-      <c r="BE56" s="82"/>
-      <c r="BF56" s="82"/>
-      <c r="BG56" s="87"/>
-      <c r="BH56" s="87"/>
-      <c r="BI56" s="87"/>
-      <c r="BJ56" s="87"/>
-      <c r="BK56" s="87"/>
-      <c r="BL56" s="82"/>
-      <c r="BM56" s="82"/>
+      <c r="AX56" s="71"/>
+      <c r="AY56" s="71"/>
+      <c r="AZ56" s="71"/>
+      <c r="BA56" s="71"/>
+      <c r="BB56" s="71"/>
+      <c r="BC56" s="71"/>
+      <c r="BD56" s="71"/>
+      <c r="BE56" s="71"/>
+      <c r="BF56" s="71"/>
+      <c r="BG56" s="71"/>
+      <c r="BH56" s="71"/>
+      <c r="BI56" s="71"/>
+      <c r="BJ56" s="71"/>
+      <c r="BK56" s="71"/>
+      <c r="BL56" s="71"/>
+      <c r="BM56" s="71"/>
       <c r="BN56" s="82"/>
       <c r="BO56" s="82"/>
       <c r="BP56" s="88"/>
@@ -6210,31 +6262,19 @@
     </row>
     <row r="57" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A57" s="62"/>
-      <c r="B57" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="64" t="s">
-        <v>89</v>
-      </c>
+      <c r="B57" s="63"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E57" s="65">
-        <v>45374.0</v>
-      </c>
-      <c r="F57" s="128">
-        <v>45379.0</v>
-      </c>
-      <c r="G57" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="H57" s="120" t="s">
-        <v>81</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="120"/>
       <c r="I57" s="80"/>
       <c r="J57" s="89"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
       <c r="M57" s="82"/>
       <c r="N57" s="84"/>
       <c r="O57" s="84"/>
@@ -6293,573 +6333,1478 @@
       <c r="BP57" s="88"/>
       <c r="BQ57" s="62"/>
     </row>
-    <row r="58" ht="21.0" customHeight="1">
-      <c r="A58" s="32"/>
-      <c r="B58" s="129"/>
-      <c r="C58" s="130"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="131"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="133"/>
-      <c r="K58" s="134"/>
-      <c r="L58" s="134"/>
-      <c r="M58" s="135"/>
-      <c r="N58" s="132"/>
-      <c r="O58" s="135"/>
-      <c r="P58" s="132"/>
-      <c r="Q58" s="135"/>
-      <c r="R58" s="135"/>
-      <c r="S58" s="135"/>
-      <c r="T58" s="135"/>
-      <c r="U58" s="135"/>
-      <c r="V58" s="135"/>
-      <c r="W58" s="135"/>
-      <c r="X58" s="135"/>
-      <c r="Y58" s="135"/>
-      <c r="Z58" s="135"/>
-      <c r="AA58" s="135"/>
-      <c r="AB58" s="135"/>
-      <c r="AC58" s="135"/>
-      <c r="AD58" s="135"/>
-      <c r="AE58" s="135"/>
-      <c r="AF58" s="135"/>
-      <c r="AG58" s="135"/>
-      <c r="AH58" s="135"/>
-      <c r="AI58" s="135"/>
-      <c r="AJ58" s="135"/>
-      <c r="AK58" s="135"/>
-      <c r="AL58" s="135"/>
-      <c r="AM58" s="135"/>
-      <c r="AN58" s="135"/>
-      <c r="AO58" s="135"/>
-      <c r="AP58" s="135"/>
-      <c r="AQ58" s="135"/>
-      <c r="AR58" s="135"/>
-      <c r="AS58" s="135"/>
-      <c r="AT58" s="135"/>
-      <c r="AU58" s="135"/>
-      <c r="AV58" s="135"/>
-      <c r="AW58" s="135"/>
-      <c r="AX58" s="135"/>
-      <c r="AY58" s="135"/>
-      <c r="AZ58" s="135"/>
-      <c r="BA58" s="135"/>
-      <c r="BB58" s="135"/>
-      <c r="BC58" s="135"/>
-      <c r="BD58" s="135"/>
-      <c r="BE58" s="135"/>
-      <c r="BF58" s="135"/>
-      <c r="BG58" s="135"/>
-      <c r="BH58" s="135"/>
-      <c r="BI58" s="135"/>
-      <c r="BJ58" s="135"/>
-      <c r="BK58" s="135"/>
-      <c r="BL58" s="135"/>
-      <c r="BM58" s="135"/>
-      <c r="BN58" s="135"/>
-      <c r="BO58" s="135"/>
-      <c r="BP58" s="135"/>
-      <c r="BQ58" s="136"/>
+    <row r="58" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A58" s="62"/>
+      <c r="B58" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="127">
+        <v>45391.0</v>
+      </c>
+      <c r="F58" s="65">
+        <v>45398.0</v>
+      </c>
+      <c r="G58" s="66">
+        <v>7.0</v>
+      </c>
+      <c r="H58" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I58" s="80"/>
+      <c r="J58" s="89"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="81"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="84"/>
+      <c r="Q58" s="84"/>
+      <c r="R58" s="84"/>
+      <c r="S58" s="70"/>
+      <c r="T58" s="70"/>
+      <c r="U58" s="70"/>
+      <c r="V58" s="70"/>
+      <c r="W58" s="82"/>
+      <c r="X58" s="82"/>
+      <c r="Y58" s="82"/>
+      <c r="Z58" s="82"/>
+      <c r="AA58" s="82"/>
+      <c r="AB58" s="82"/>
+      <c r="AC58" s="85"/>
+      <c r="AD58" s="85"/>
+      <c r="AE58" s="85"/>
+      <c r="AF58" s="85"/>
+      <c r="AG58" s="85"/>
+      <c r="AH58" s="82"/>
+      <c r="AI58" s="82"/>
+      <c r="AJ58" s="82"/>
+      <c r="AK58" s="82"/>
+      <c r="AL58" s="82"/>
+      <c r="AM58" s="82"/>
+      <c r="AN58" s="82"/>
+      <c r="AO58" s="82"/>
+      <c r="AP58" s="82"/>
+      <c r="AQ58" s="82"/>
+      <c r="AR58" s="86"/>
+      <c r="AS58" s="86"/>
+      <c r="AT58" s="86"/>
+      <c r="AU58" s="86"/>
+      <c r="AV58" s="86"/>
+      <c r="AW58" s="82"/>
+      <c r="AX58" s="71"/>
+      <c r="AY58" s="71"/>
+      <c r="AZ58" s="71"/>
+      <c r="BA58" s="71"/>
+      <c r="BB58" s="71"/>
+      <c r="BC58" s="71"/>
+      <c r="BD58" s="82"/>
+      <c r="BE58" s="71"/>
+      <c r="BF58" s="82"/>
+      <c r="BG58" s="87"/>
+      <c r="BH58" s="87"/>
+      <c r="BI58" s="87"/>
+      <c r="BJ58" s="87"/>
+      <c r="BK58" s="87"/>
+      <c r="BL58" s="82"/>
+      <c r="BM58" s="82"/>
+      <c r="BN58" s="82"/>
+      <c r="BO58" s="82"/>
+      <c r="BP58" s="88"/>
+      <c r="BQ58" s="62"/>
     </row>
     <row r="59" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A59" s="62"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="139"/>
-      <c r="F59" s="139"/>
-      <c r="G59" s="140"/>
-      <c r="H59" s="141"/>
-      <c r="I59" s="142"/>
-      <c r="J59" s="143"/>
-      <c r="K59" s="144"/>
-      <c r="L59" s="144"/>
-      <c r="M59" s="144"/>
-      <c r="N59" s="145"/>
-      <c r="O59" s="145"/>
-      <c r="P59" s="145"/>
-      <c r="Q59" s="145"/>
-      <c r="R59" s="145"/>
-      <c r="S59" s="145"/>
-      <c r="T59" s="145"/>
-      <c r="U59" s="145"/>
-      <c r="V59" s="145"/>
-      <c r="W59" s="145"/>
-      <c r="X59" s="145"/>
-      <c r="Y59" s="145"/>
-      <c r="Z59" s="145"/>
-      <c r="AA59" s="145"/>
-      <c r="AB59" s="145"/>
-      <c r="AC59" s="145"/>
-      <c r="AD59" s="145"/>
-      <c r="AE59" s="145"/>
-      <c r="AF59" s="145"/>
-      <c r="AG59" s="145"/>
-      <c r="AH59" s="145"/>
-      <c r="AI59" s="145"/>
-      <c r="AJ59" s="145"/>
-      <c r="AK59" s="145"/>
-      <c r="AL59" s="145"/>
-      <c r="AM59" s="145"/>
-      <c r="AN59" s="145"/>
-      <c r="AO59" s="145"/>
-      <c r="AP59" s="145"/>
-      <c r="AQ59" s="145"/>
-      <c r="AR59" s="145"/>
-      <c r="AS59" s="145"/>
-      <c r="AT59" s="145"/>
-      <c r="AU59" s="145"/>
-      <c r="AV59" s="145"/>
-      <c r="AW59" s="145"/>
-      <c r="AX59" s="145"/>
-      <c r="AY59" s="145"/>
-      <c r="AZ59" s="145"/>
-      <c r="BA59" s="145"/>
-      <c r="BB59" s="145"/>
-      <c r="BC59" s="145"/>
-      <c r="BD59" s="145"/>
-      <c r="BE59" s="145"/>
-      <c r="BF59" s="145"/>
-      <c r="BG59" s="145"/>
-      <c r="BH59" s="145"/>
-      <c r="BI59" s="145"/>
-      <c r="BJ59" s="145"/>
-      <c r="BK59" s="145"/>
-      <c r="BL59" s="145"/>
-      <c r="BM59" s="145"/>
-      <c r="BN59" s="145"/>
-      <c r="BO59" s="145"/>
-      <c r="BP59" s="145"/>
-      <c r="BQ59" s="146"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="127"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="89"/>
+      <c r="K59" s="81"/>
+      <c r="L59" s="81"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="84"/>
+      <c r="Q59" s="84"/>
+      <c r="R59" s="84"/>
+      <c r="S59" s="70"/>
+      <c r="T59" s="70"/>
+      <c r="U59" s="70"/>
+      <c r="V59" s="70"/>
+      <c r="W59" s="82"/>
+      <c r="X59" s="82"/>
+      <c r="Y59" s="82"/>
+      <c r="Z59" s="82"/>
+      <c r="AA59" s="82"/>
+      <c r="AB59" s="82"/>
+      <c r="AC59" s="85"/>
+      <c r="AD59" s="85"/>
+      <c r="AE59" s="85"/>
+      <c r="AF59" s="85"/>
+      <c r="AG59" s="85"/>
+      <c r="AH59" s="82"/>
+      <c r="AI59" s="82"/>
+      <c r="AJ59" s="82"/>
+      <c r="AK59" s="82"/>
+      <c r="AL59" s="82"/>
+      <c r="AM59" s="82"/>
+      <c r="AN59" s="82"/>
+      <c r="AO59" s="82"/>
+      <c r="AP59" s="82"/>
+      <c r="AQ59" s="82"/>
+      <c r="AR59" s="128"/>
+      <c r="AS59" s="129"/>
+      <c r="AT59" s="129"/>
+      <c r="AU59" s="129"/>
+      <c r="AV59" s="129"/>
+      <c r="AW59" s="82"/>
+      <c r="AX59" s="82"/>
+      <c r="AY59" s="82"/>
+      <c r="AZ59" s="82"/>
+      <c r="BA59" s="82"/>
+      <c r="BB59" s="82"/>
+      <c r="BC59" s="82"/>
+      <c r="BD59" s="82"/>
+      <c r="BE59" s="82"/>
+      <c r="BF59" s="82"/>
+      <c r="BG59" s="87"/>
+      <c r="BH59" s="87"/>
+      <c r="BI59" s="87"/>
+      <c r="BJ59" s="87"/>
+      <c r="BK59" s="87"/>
+      <c r="BL59" s="82"/>
+      <c r="BM59" s="82"/>
+      <c r="BN59" s="82"/>
+      <c r="BO59" s="82"/>
+      <c r="BP59" s="88"/>
+      <c r="BQ59" s="62"/>
     </row>
     <row r="60" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A60" s="62"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
-      <c r="E60" s="139"/>
-      <c r="F60" s="139"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="141"/>
-      <c r="I60" s="142"/>
-      <c r="J60" s="143"/>
-      <c r="K60" s="144"/>
-      <c r="L60" s="144"/>
-      <c r="M60" s="145"/>
-      <c r="N60" s="145"/>
-      <c r="O60" s="145"/>
-      <c r="P60" s="145"/>
-      <c r="Q60" s="145"/>
-      <c r="R60" s="145"/>
-      <c r="S60" s="145"/>
-      <c r="T60" s="145"/>
-      <c r="U60" s="145"/>
-      <c r="V60" s="145"/>
-      <c r="W60" s="145"/>
-      <c r="X60" s="145"/>
-      <c r="Y60" s="145"/>
-      <c r="Z60" s="145"/>
-      <c r="AA60" s="145"/>
-      <c r="AB60" s="145"/>
-      <c r="AC60" s="145"/>
-      <c r="AD60" s="145"/>
-      <c r="AE60" s="145"/>
-      <c r="AF60" s="145"/>
-      <c r="AG60" s="145"/>
-      <c r="AH60" s="145"/>
-      <c r="AI60" s="145"/>
-      <c r="AJ60" s="145"/>
-      <c r="AK60" s="145"/>
-      <c r="AL60" s="145"/>
-      <c r="AM60" s="145"/>
-      <c r="AN60" s="145"/>
-      <c r="AO60" s="145"/>
-      <c r="AP60" s="145"/>
-      <c r="AQ60" s="145"/>
-      <c r="AR60" s="145"/>
-      <c r="AS60" s="145"/>
-      <c r="AT60" s="145"/>
-      <c r="AU60" s="145"/>
-      <c r="AV60" s="145"/>
-      <c r="AW60" s="145"/>
-      <c r="AX60" s="145"/>
-      <c r="AY60" s="145"/>
-      <c r="AZ60" s="145"/>
-      <c r="BA60" s="145"/>
-      <c r="BB60" s="145"/>
-      <c r="BC60" s="145"/>
-      <c r="BD60" s="145"/>
-      <c r="BE60" s="145"/>
-      <c r="BF60" s="145"/>
-      <c r="BG60" s="145"/>
-      <c r="BH60" s="145"/>
-      <c r="BI60" s="145"/>
-      <c r="BJ60" s="145"/>
-      <c r="BK60" s="145"/>
-      <c r="BL60" s="145"/>
-      <c r="BM60" s="145"/>
-      <c r="BN60" s="145"/>
-      <c r="BO60" s="145"/>
-      <c r="BP60" s="145"/>
-      <c r="BQ60" s="146"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="127"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="89"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="84"/>
+      <c r="P60" s="84"/>
+      <c r="Q60" s="84"/>
+      <c r="R60" s="84"/>
+      <c r="S60" s="70"/>
+      <c r="T60" s="70"/>
+      <c r="U60" s="70"/>
+      <c r="V60" s="70"/>
+      <c r="W60" s="82"/>
+      <c r="X60" s="82"/>
+      <c r="Y60" s="82"/>
+      <c r="Z60" s="82"/>
+      <c r="AA60" s="82"/>
+      <c r="AB60" s="82"/>
+      <c r="AC60" s="85"/>
+      <c r="AD60" s="85"/>
+      <c r="AE60" s="85"/>
+      <c r="AF60" s="85"/>
+      <c r="AG60" s="85"/>
+      <c r="AH60" s="82"/>
+      <c r="AI60" s="82"/>
+      <c r="AJ60" s="82"/>
+      <c r="AK60" s="82"/>
+      <c r="AL60" s="82"/>
+      <c r="AM60" s="82"/>
+      <c r="AN60" s="82"/>
+      <c r="AO60" s="82"/>
+      <c r="AP60" s="82"/>
+      <c r="AQ60" s="82"/>
+      <c r="AR60" s="130"/>
+      <c r="AS60" s="131"/>
+      <c r="AT60" s="131"/>
+      <c r="AU60" s="131"/>
+      <c r="AV60" s="131"/>
+      <c r="AW60" s="82"/>
+      <c r="AX60" s="71"/>
+      <c r="AY60" s="71"/>
+      <c r="AZ60" s="71"/>
+      <c r="BA60" s="71"/>
+      <c r="BB60" s="71"/>
+      <c r="BC60" s="71"/>
+      <c r="BD60" s="71"/>
+      <c r="BE60" s="71"/>
+      <c r="BF60" s="71"/>
+      <c r="BG60" s="71"/>
+      <c r="BH60" s="71"/>
+      <c r="BI60" s="71"/>
+      <c r="BJ60" s="71"/>
+      <c r="BK60" s="71"/>
+      <c r="BL60" s="132"/>
+      <c r="BM60" s="71"/>
+      <c r="BN60" s="82"/>
+      <c r="BO60" s="82"/>
+      <c r="BP60" s="88"/>
+      <c r="BQ60" s="62"/>
     </row>
     <row r="61" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A61" s="62"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="139"/>
-      <c r="F61" s="139"/>
-      <c r="G61" s="140"/>
-      <c r="H61" s="141"/>
-      <c r="I61" s="142"/>
-      <c r="J61" s="143"/>
-      <c r="K61" s="144"/>
-      <c r="L61" s="144"/>
-      <c r="M61" s="145"/>
-      <c r="N61" s="145"/>
-      <c r="O61" s="145"/>
-      <c r="P61" s="145"/>
-      <c r="Q61" s="145"/>
-      <c r="R61" s="145"/>
-      <c r="S61" s="144"/>
-      <c r="T61" s="144"/>
-      <c r="U61" s="144"/>
-      <c r="V61" s="144"/>
-      <c r="W61" s="145"/>
-      <c r="X61" s="145"/>
-      <c r="Y61" s="145"/>
-      <c r="Z61" s="145"/>
-      <c r="AA61" s="145"/>
-      <c r="AB61" s="145"/>
-      <c r="AC61" s="145"/>
-      <c r="AD61" s="145"/>
-      <c r="AE61" s="145"/>
-      <c r="AF61" s="145"/>
-      <c r="AG61" s="145"/>
-      <c r="AH61" s="145"/>
-      <c r="AI61" s="145"/>
-      <c r="AJ61" s="145"/>
-      <c r="AK61" s="145"/>
-      <c r="AL61" s="145"/>
-      <c r="AM61" s="145"/>
-      <c r="AN61" s="145"/>
-      <c r="AO61" s="145"/>
-      <c r="AP61" s="145"/>
-      <c r="AQ61" s="145"/>
-      <c r="AR61" s="145"/>
-      <c r="AS61" s="145"/>
-      <c r="AT61" s="145"/>
-      <c r="AU61" s="145"/>
-      <c r="AV61" s="145"/>
-      <c r="AW61" s="145"/>
-      <c r="AX61" s="145"/>
-      <c r="AY61" s="145"/>
-      <c r="AZ61" s="145"/>
-      <c r="BA61" s="145"/>
-      <c r="BB61" s="145"/>
-      <c r="BC61" s="145"/>
-      <c r="BD61" s="145"/>
-      <c r="BE61" s="145"/>
-      <c r="BF61" s="145"/>
-      <c r="BG61" s="145"/>
-      <c r="BH61" s="145"/>
-      <c r="BI61" s="145"/>
-      <c r="BJ61" s="145"/>
-      <c r="BK61" s="145"/>
-      <c r="BL61" s="145"/>
-      <c r="BM61" s="145"/>
-      <c r="BN61" s="145"/>
-      <c r="BO61" s="145"/>
-      <c r="BP61" s="145"/>
-      <c r="BQ61" s="146"/>
+      <c r="B61" s="63">
+        <v>3.5</v>
+      </c>
+      <c r="C61" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="127">
+        <v>45391.0</v>
+      </c>
+      <c r="F61" s="65">
+        <v>45398.0</v>
+      </c>
+      <c r="G61" s="66">
+        <v>7.0</v>
+      </c>
+      <c r="H61" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I61" s="80"/>
+      <c r="J61" s="89"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="82"/>
+      <c r="N61" s="84"/>
+      <c r="O61" s="84"/>
+      <c r="P61" s="84"/>
+      <c r="Q61" s="84"/>
+      <c r="R61" s="84"/>
+      <c r="S61" s="70"/>
+      <c r="T61" s="70"/>
+      <c r="U61" s="70"/>
+      <c r="V61" s="70"/>
+      <c r="W61" s="82"/>
+      <c r="X61" s="82"/>
+      <c r="Y61" s="82"/>
+      <c r="Z61" s="82"/>
+      <c r="AA61" s="82"/>
+      <c r="AB61" s="82"/>
+      <c r="AC61" s="85"/>
+      <c r="AD61" s="85"/>
+      <c r="AE61" s="85"/>
+      <c r="AF61" s="85"/>
+      <c r="AG61" s="85"/>
+      <c r="AH61" s="82"/>
+      <c r="AI61" s="82"/>
+      <c r="AJ61" s="82"/>
+      <c r="AK61" s="82"/>
+      <c r="AL61" s="82"/>
+      <c r="AM61" s="82"/>
+      <c r="AN61" s="82"/>
+      <c r="AO61" s="82"/>
+      <c r="AP61" s="82"/>
+      <c r="AQ61" s="82"/>
+      <c r="AR61" s="130"/>
+      <c r="AS61" s="131"/>
+      <c r="AT61" s="131"/>
+      <c r="AU61" s="131"/>
+      <c r="AV61" s="131"/>
+      <c r="AW61" s="82"/>
+      <c r="AX61" s="71"/>
+      <c r="AY61" s="71"/>
+      <c r="AZ61" s="71"/>
+      <c r="BA61" s="71"/>
+      <c r="BB61" s="71"/>
+      <c r="BC61" s="71"/>
+      <c r="BD61" s="71"/>
+      <c r="BE61" s="71"/>
+      <c r="BF61" s="71"/>
+      <c r="BG61" s="71"/>
+      <c r="BH61" s="71"/>
+      <c r="BI61" s="71"/>
+      <c r="BJ61" s="71"/>
+      <c r="BK61" s="71"/>
+      <c r="BL61" s="71"/>
+      <c r="BM61" s="71"/>
+      <c r="BN61" s="82"/>
+      <c r="BO61" s="82"/>
+      <c r="BP61" s="88"/>
+      <c r="BQ61" s="62"/>
     </row>
     <row r="62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A62" s="62"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="138"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="139"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="141"/>
-      <c r="I62" s="142"/>
-      <c r="J62" s="143"/>
-      <c r="K62" s="144"/>
-      <c r="L62" s="144"/>
-      <c r="M62" s="145"/>
-      <c r="N62" s="145"/>
-      <c r="O62" s="145"/>
-      <c r="P62" s="145"/>
-      <c r="Q62" s="145"/>
-      <c r="R62" s="145"/>
-      <c r="S62" s="144"/>
-      <c r="T62" s="144"/>
-      <c r="U62" s="144"/>
-      <c r="V62" s="144"/>
-      <c r="W62" s="145"/>
-      <c r="X62" s="145"/>
-      <c r="Y62" s="145"/>
-      <c r="Z62" s="145"/>
-      <c r="AA62" s="145"/>
-      <c r="AB62" s="145"/>
-      <c r="AC62" s="145"/>
-      <c r="AD62" s="145"/>
-      <c r="AE62" s="145"/>
-      <c r="AF62" s="145"/>
-      <c r="AG62" s="145"/>
-      <c r="AH62" s="145"/>
-      <c r="AI62" s="145"/>
-      <c r="AJ62" s="145"/>
-      <c r="AK62" s="145"/>
-      <c r="AL62" s="145"/>
-      <c r="AM62" s="145"/>
-      <c r="AN62" s="145"/>
-      <c r="AO62" s="145"/>
-      <c r="AP62" s="145"/>
-      <c r="AQ62" s="145"/>
-      <c r="AR62" s="145"/>
-      <c r="AS62" s="145"/>
-      <c r="AT62" s="145"/>
-      <c r="AU62" s="145"/>
-      <c r="AV62" s="145"/>
-      <c r="AW62" s="145"/>
-      <c r="AX62" s="145"/>
-      <c r="AY62" s="145"/>
-      <c r="AZ62" s="145"/>
-      <c r="BA62" s="145"/>
-      <c r="BB62" s="145"/>
-      <c r="BC62" s="145"/>
-      <c r="BD62" s="145"/>
-      <c r="BE62" s="145"/>
-      <c r="BF62" s="145"/>
-      <c r="BG62" s="145"/>
-      <c r="BH62" s="145"/>
-      <c r="BI62" s="145"/>
-      <c r="BJ62" s="145"/>
-      <c r="BK62" s="145"/>
-      <c r="BL62" s="145"/>
-      <c r="BM62" s="145"/>
-      <c r="BN62" s="145"/>
-      <c r="BO62" s="145"/>
-      <c r="BP62" s="145"/>
-      <c r="BQ62" s="146"/>
+      <c r="B62" s="63">
+        <v>3.6</v>
+      </c>
+      <c r="C62" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="127">
+        <v>45391.0</v>
+      </c>
+      <c r="F62" s="65">
+        <v>45398.0</v>
+      </c>
+      <c r="G62" s="66">
+        <v>7.0</v>
+      </c>
+      <c r="H62" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I62" s="80"/>
+      <c r="J62" s="89"/>
+      <c r="K62" s="82"/>
+      <c r="L62" s="82"/>
+      <c r="M62" s="82"/>
+      <c r="N62" s="84"/>
+      <c r="O62" s="84"/>
+      <c r="P62" s="84"/>
+      <c r="Q62" s="84"/>
+      <c r="R62" s="84"/>
+      <c r="S62" s="70"/>
+      <c r="T62" s="70"/>
+      <c r="U62" s="70"/>
+      <c r="V62" s="70"/>
+      <c r="W62" s="82"/>
+      <c r="X62" s="82"/>
+      <c r="Y62" s="82"/>
+      <c r="Z62" s="82"/>
+      <c r="AA62" s="82"/>
+      <c r="AB62" s="82"/>
+      <c r="AC62" s="85"/>
+      <c r="AD62" s="85"/>
+      <c r="AE62" s="85"/>
+      <c r="AF62" s="85"/>
+      <c r="AG62" s="85"/>
+      <c r="AH62" s="82"/>
+      <c r="AI62" s="82"/>
+      <c r="AJ62" s="82"/>
+      <c r="AK62" s="82"/>
+      <c r="AL62" s="82"/>
+      <c r="AM62" s="82"/>
+      <c r="AN62" s="82"/>
+      <c r="AO62" s="82"/>
+      <c r="AP62" s="82"/>
+      <c r="AQ62" s="82"/>
+      <c r="AR62" s="130"/>
+      <c r="AS62" s="131"/>
+      <c r="AT62" s="131"/>
+      <c r="AU62" s="131"/>
+      <c r="AV62" s="131"/>
+      <c r="AW62" s="82"/>
+      <c r="AX62" s="71"/>
+      <c r="AY62" s="71"/>
+      <c r="AZ62" s="71"/>
+      <c r="BA62" s="71"/>
+      <c r="BB62" s="71"/>
+      <c r="BC62" s="71"/>
+      <c r="BD62" s="71"/>
+      <c r="BE62" s="71"/>
+      <c r="BF62" s="71"/>
+      <c r="BG62" s="71"/>
+      <c r="BH62" s="71"/>
+      <c r="BI62" s="71"/>
+      <c r="BJ62" s="71"/>
+      <c r="BK62" s="71"/>
+      <c r="BL62" s="71"/>
+      <c r="BM62" s="71"/>
+      <c r="BN62" s="82"/>
+      <c r="BO62" s="82"/>
+      <c r="BP62" s="88"/>
+      <c r="BQ62" s="62"/>
     </row>
-    <row r="63" ht="21.0" customHeight="1">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="147"/>
-      <c r="H63" s="147"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="32"/>
-      <c r="U63" s="32"/>
-      <c r="V63" s="32"/>
-      <c r="W63" s="32"/>
-      <c r="X63" s="32"/>
-      <c r="Y63" s="32"/>
-      <c r="Z63" s="32"/>
-      <c r="AA63" s="32"/>
-      <c r="AB63" s="32"/>
-      <c r="AC63" s="32"/>
-      <c r="AD63" s="32"/>
-      <c r="AE63" s="32"/>
-      <c r="AF63" s="32"/>
-      <c r="AG63" s="32"/>
-      <c r="AH63" s="32"/>
-      <c r="AI63" s="32"/>
-      <c r="AJ63" s="32"/>
-      <c r="AK63" s="32"/>
-      <c r="AL63" s="32"/>
-      <c r="AM63" s="32"/>
-      <c r="AN63" s="32"/>
-      <c r="AO63" s="32"/>
-      <c r="AP63" s="32"/>
-      <c r="AQ63" s="32"/>
-      <c r="AR63" s="32"/>
-      <c r="AS63" s="32"/>
-      <c r="AT63" s="32"/>
-      <c r="AU63" s="32"/>
-      <c r="AV63" s="32"/>
-      <c r="AW63" s="32"/>
-      <c r="AX63" s="32"/>
-      <c r="AY63" s="32"/>
-      <c r="AZ63" s="32"/>
-      <c r="BA63" s="32"/>
-      <c r="BB63" s="32"/>
-      <c r="BC63" s="32"/>
-      <c r="BD63" s="32"/>
-      <c r="BE63" s="32"/>
-      <c r="BF63" s="32"/>
-      <c r="BG63" s="32"/>
-      <c r="BH63" s="32"/>
-      <c r="BI63" s="32"/>
-      <c r="BJ63" s="32"/>
-      <c r="BK63" s="32"/>
-      <c r="BL63" s="32"/>
-      <c r="BM63" s="32"/>
-      <c r="BN63" s="32"/>
-      <c r="BO63" s="32"/>
-      <c r="BP63" s="32"/>
-      <c r="BQ63" s="32"/>
+    <row r="63" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A63" s="62"/>
+      <c r="B63" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="65"/>
+      <c r="F63" s="133"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I63" s="80"/>
+      <c r="J63" s="89"/>
+      <c r="K63" s="82"/>
+      <c r="L63" s="82"/>
+      <c r="M63" s="82"/>
+      <c r="N63" s="84"/>
+      <c r="O63" s="84"/>
+      <c r="P63" s="84"/>
+      <c r="Q63" s="84"/>
+      <c r="R63" s="84"/>
+      <c r="S63" s="70"/>
+      <c r="T63" s="70"/>
+      <c r="U63" s="70"/>
+      <c r="V63" s="70"/>
+      <c r="W63" s="82"/>
+      <c r="X63" s="82"/>
+      <c r="Y63" s="82"/>
+      <c r="Z63" s="82"/>
+      <c r="AA63" s="82"/>
+      <c r="AB63" s="82"/>
+      <c r="AC63" s="85"/>
+      <c r="AD63" s="85"/>
+      <c r="AE63" s="85"/>
+      <c r="AF63" s="85"/>
+      <c r="AG63" s="85"/>
+      <c r="AH63" s="82"/>
+      <c r="AI63" s="82"/>
+      <c r="AJ63" s="82"/>
+      <c r="AK63" s="82"/>
+      <c r="AL63" s="82"/>
+      <c r="AM63" s="82"/>
+      <c r="AN63" s="82"/>
+      <c r="AO63" s="82"/>
+      <c r="AP63" s="82"/>
+      <c r="AQ63" s="82"/>
+      <c r="AR63" s="130"/>
+      <c r="AS63" s="134"/>
+      <c r="AT63" s="134"/>
+      <c r="AU63" s="134"/>
+      <c r="AV63" s="134"/>
+      <c r="AW63" s="82"/>
+      <c r="AX63" s="71"/>
+      <c r="AY63" s="71"/>
+      <c r="AZ63" s="71"/>
+      <c r="BA63" s="71"/>
+      <c r="BB63" s="71"/>
+      <c r="BC63" s="71"/>
+      <c r="BD63" s="71"/>
+      <c r="BE63" s="71"/>
+      <c r="BF63" s="71"/>
+      <c r="BG63" s="71"/>
+      <c r="BH63" s="71"/>
+      <c r="BI63" s="71"/>
+      <c r="BJ63" s="71"/>
+      <c r="BK63" s="71"/>
+      <c r="BL63" s="71"/>
+      <c r="BM63" s="71"/>
+      <c r="BN63" s="82"/>
+      <c r="BO63" s="82"/>
+      <c r="BP63" s="88"/>
+      <c r="BQ63" s="62"/>
     </row>
-    <row r="64" ht="21.0" customHeight="1">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="147"/>
-      <c r="H64" s="147"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="32"/>
-      <c r="U64" s="32"/>
-      <c r="V64" s="32"/>
-      <c r="W64" s="32"/>
-      <c r="X64" s="32"/>
-      <c r="Y64" s="32"/>
-      <c r="Z64" s="32"/>
-      <c r="AA64" s="32"/>
-      <c r="AB64" s="32"/>
-      <c r="AC64" s="32"/>
-      <c r="AD64" s="32"/>
-      <c r="AE64" s="32"/>
-      <c r="AF64" s="32"/>
-      <c r="AG64" s="32"/>
-      <c r="AH64" s="32"/>
-      <c r="AI64" s="32"/>
-      <c r="AJ64" s="32"/>
-      <c r="AK64" s="32"/>
-      <c r="AL64" s="32"/>
-      <c r="AM64" s="32"/>
-      <c r="AN64" s="32"/>
-      <c r="AO64" s="32"/>
-      <c r="AP64" s="32"/>
-      <c r="AQ64" s="32"/>
-      <c r="AR64" s="32"/>
-      <c r="AS64" s="32"/>
-      <c r="AT64" s="32"/>
-      <c r="AU64" s="32"/>
-      <c r="AV64" s="32"/>
-      <c r="AW64" s="32"/>
-      <c r="AX64" s="32"/>
-      <c r="AY64" s="32"/>
-      <c r="AZ64" s="32"/>
-      <c r="BA64" s="32"/>
-      <c r="BB64" s="32"/>
-      <c r="BC64" s="32"/>
-      <c r="BD64" s="32"/>
-      <c r="BE64" s="32"/>
-      <c r="BF64" s="32"/>
-      <c r="BG64" s="32"/>
-      <c r="BH64" s="32"/>
-      <c r="BI64" s="32"/>
-      <c r="BJ64" s="32"/>
-      <c r="BK64" s="32"/>
-      <c r="BL64" s="32"/>
-      <c r="BM64" s="32"/>
-      <c r="BN64" s="32"/>
-      <c r="BO64" s="32"/>
-      <c r="BP64" s="32"/>
-      <c r="BQ64" s="32"/>
+    <row r="64" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A64" s="62"/>
+      <c r="B64" s="63">
+        <v>3.7</v>
+      </c>
+      <c r="C64" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" s="127">
+        <v>45391.0</v>
+      </c>
+      <c r="F64" s="65">
+        <v>45398.0</v>
+      </c>
+      <c r="G64" s="66">
+        <v>7.0</v>
+      </c>
+      <c r="H64" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I64" s="80"/>
+      <c r="J64" s="89"/>
+      <c r="K64" s="82"/>
+      <c r="L64" s="82"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="84"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="84"/>
+      <c r="Q64" s="84"/>
+      <c r="R64" s="84"/>
+      <c r="S64" s="70"/>
+      <c r="T64" s="70"/>
+      <c r="U64" s="70"/>
+      <c r="V64" s="70"/>
+      <c r="W64" s="82"/>
+      <c r="X64" s="82"/>
+      <c r="Y64" s="82"/>
+      <c r="Z64" s="82"/>
+      <c r="AA64" s="82"/>
+      <c r="AB64" s="82"/>
+      <c r="AC64" s="85"/>
+      <c r="AD64" s="85"/>
+      <c r="AE64" s="85"/>
+      <c r="AF64" s="85"/>
+      <c r="AG64" s="85"/>
+      <c r="AH64" s="82"/>
+      <c r="AI64" s="82"/>
+      <c r="AJ64" s="82"/>
+      <c r="AK64" s="82"/>
+      <c r="AL64" s="82"/>
+      <c r="AM64" s="82"/>
+      <c r="AN64" s="82"/>
+      <c r="AO64" s="82"/>
+      <c r="AP64" s="82"/>
+      <c r="AQ64" s="82"/>
+      <c r="AR64" s="130"/>
+      <c r="AS64" s="134"/>
+      <c r="AT64" s="134"/>
+      <c r="AU64" s="134"/>
+      <c r="AV64" s="134"/>
+      <c r="AW64" s="82"/>
+      <c r="AX64" s="71"/>
+      <c r="AY64" s="71"/>
+      <c r="AZ64" s="71"/>
+      <c r="BA64" s="71"/>
+      <c r="BB64" s="71"/>
+      <c r="BC64" s="71"/>
+      <c r="BD64" s="71"/>
+      <c r="BE64" s="71"/>
+      <c r="BF64" s="71"/>
+      <c r="BG64" s="71"/>
+      <c r="BH64" s="71"/>
+      <c r="BI64" s="71"/>
+      <c r="BJ64" s="71"/>
+      <c r="BK64" s="71"/>
+      <c r="BL64" s="71"/>
+      <c r="BM64" s="71"/>
+      <c r="BN64" s="82"/>
+      <c r="BO64" s="82"/>
+      <c r="BP64" s="88"/>
+      <c r="BQ64" s="62"/>
     </row>
-    <row r="65" ht="21.0" customHeight="1">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="147"/>
-      <c r="H65" s="147"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="32"/>
-      <c r="V65" s="32"/>
-      <c r="W65" s="32"/>
-      <c r="X65" s="32"/>
-      <c r="Y65" s="32"/>
-      <c r="Z65" s="32"/>
-      <c r="AA65" s="32"/>
-      <c r="AB65" s="32"/>
-      <c r="AC65" s="32"/>
-      <c r="AD65" s="32"/>
-      <c r="AE65" s="32"/>
-      <c r="AF65" s="32"/>
-      <c r="AG65" s="32"/>
-      <c r="AH65" s="32"/>
-      <c r="AI65" s="32"/>
-      <c r="AJ65" s="32"/>
-      <c r="AK65" s="32"/>
-      <c r="AL65" s="32"/>
-      <c r="AM65" s="32"/>
-      <c r="AN65" s="32"/>
-      <c r="AO65" s="32"/>
-      <c r="AP65" s="32"/>
-      <c r="AQ65" s="32"/>
-      <c r="AR65" s="32"/>
-      <c r="AS65" s="32"/>
-      <c r="AT65" s="32"/>
-      <c r="AU65" s="32"/>
-      <c r="AV65" s="32"/>
-      <c r="AW65" s="32"/>
-      <c r="AX65" s="32"/>
-      <c r="AY65" s="32"/>
-      <c r="AZ65" s="32"/>
-      <c r="BA65" s="32"/>
-      <c r="BB65" s="32"/>
-      <c r="BC65" s="32"/>
-      <c r="BD65" s="32"/>
-      <c r="BE65" s="32"/>
-      <c r="BF65" s="32"/>
-      <c r="BG65" s="32"/>
-      <c r="BH65" s="32"/>
-      <c r="BI65" s="32"/>
-      <c r="BJ65" s="32"/>
-      <c r="BK65" s="32"/>
-      <c r="BL65" s="32"/>
-      <c r="BM65" s="32"/>
-      <c r="BN65" s="32"/>
-      <c r="BO65" s="32"/>
-      <c r="BP65" s="32"/>
-      <c r="BQ65" s="32"/>
+    <row r="65" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A65" s="62"/>
+      <c r="B65" s="63">
+        <v>3.8</v>
+      </c>
+      <c r="C65" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="127">
+        <v>45405.0</v>
+      </c>
+      <c r="F65" s="65">
+        <v>45410.0</v>
+      </c>
+      <c r="G65" s="66">
+        <v>5.0</v>
+      </c>
+      <c r="H65" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I65" s="80"/>
+      <c r="J65" s="89"/>
+      <c r="K65" s="82"/>
+      <c r="L65" s="82"/>
+      <c r="M65" s="82"/>
+      <c r="N65" s="84"/>
+      <c r="O65" s="84"/>
+      <c r="P65" s="84"/>
+      <c r="Q65" s="84"/>
+      <c r="R65" s="84"/>
+      <c r="S65" s="70"/>
+      <c r="T65" s="70"/>
+      <c r="U65" s="70"/>
+      <c r="V65" s="70"/>
+      <c r="W65" s="82"/>
+      <c r="X65" s="82"/>
+      <c r="Y65" s="82"/>
+      <c r="Z65" s="82"/>
+      <c r="AA65" s="82"/>
+      <c r="AB65" s="82"/>
+      <c r="AC65" s="85"/>
+      <c r="AD65" s="85"/>
+      <c r="AE65" s="85"/>
+      <c r="AF65" s="85"/>
+      <c r="AG65" s="85"/>
+      <c r="AH65" s="82"/>
+      <c r="AI65" s="82"/>
+      <c r="AJ65" s="82"/>
+      <c r="AK65" s="82"/>
+      <c r="AL65" s="82"/>
+      <c r="AM65" s="82"/>
+      <c r="AN65" s="82"/>
+      <c r="AO65" s="82"/>
+      <c r="AP65" s="82"/>
+      <c r="AQ65" s="82"/>
+      <c r="AR65" s="86"/>
+      <c r="AS65" s="86"/>
+      <c r="AT65" s="86"/>
+      <c r="AU65" s="86"/>
+      <c r="AV65" s="86"/>
+      <c r="AW65" s="82"/>
+      <c r="AX65" s="82"/>
+      <c r="AY65" s="82"/>
+      <c r="AZ65" s="82"/>
+      <c r="BA65" s="82"/>
+      <c r="BB65" s="135"/>
+      <c r="BC65" s="136"/>
+      <c r="BD65" s="137"/>
+      <c r="BE65" s="71"/>
+      <c r="BF65" s="71"/>
+      <c r="BG65" s="87"/>
+      <c r="BH65" s="71"/>
+      <c r="BI65" s="71"/>
+      <c r="BJ65" s="71"/>
+      <c r="BK65" s="71"/>
+      <c r="BL65" s="71"/>
+      <c r="BM65" s="71"/>
+      <c r="BN65" s="82"/>
+      <c r="BO65" s="82"/>
+      <c r="BP65" s="88"/>
+      <c r="BQ65" s="62"/>
+    </row>
+    <row r="66" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A66" s="62"/>
+      <c r="B66" s="63">
+        <v>3.9</v>
+      </c>
+      <c r="C66" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" s="127">
+        <v>45405.0</v>
+      </c>
+      <c r="F66" s="65">
+        <v>45410.0</v>
+      </c>
+      <c r="G66" s="66">
+        <v>5.0</v>
+      </c>
+      <c r="H66" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I66" s="80"/>
+      <c r="J66" s="89"/>
+      <c r="K66" s="82"/>
+      <c r="L66" s="82"/>
+      <c r="M66" s="82"/>
+      <c r="N66" s="84"/>
+      <c r="O66" s="84"/>
+      <c r="P66" s="84"/>
+      <c r="Q66" s="84"/>
+      <c r="R66" s="84"/>
+      <c r="S66" s="70"/>
+      <c r="T66" s="70"/>
+      <c r="U66" s="70"/>
+      <c r="V66" s="70"/>
+      <c r="W66" s="82"/>
+      <c r="X66" s="82"/>
+      <c r="Y66" s="82"/>
+      <c r="Z66" s="82"/>
+      <c r="AA66" s="82"/>
+      <c r="AB66" s="82"/>
+      <c r="AC66" s="85"/>
+      <c r="AD66" s="85"/>
+      <c r="AE66" s="85"/>
+      <c r="AF66" s="85"/>
+      <c r="AG66" s="85"/>
+      <c r="AH66" s="82"/>
+      <c r="AI66" s="82"/>
+      <c r="AJ66" s="82"/>
+      <c r="AK66" s="82"/>
+      <c r="AL66" s="82"/>
+      <c r="AM66" s="82"/>
+      <c r="AN66" s="82"/>
+      <c r="AO66" s="82"/>
+      <c r="AP66" s="82"/>
+      <c r="AQ66" s="82"/>
+      <c r="AR66" s="86"/>
+      <c r="AS66" s="86"/>
+      <c r="AT66" s="86"/>
+      <c r="AU66" s="86"/>
+      <c r="AV66" s="86"/>
+      <c r="AW66" s="82"/>
+      <c r="AX66" s="82"/>
+      <c r="AY66" s="82"/>
+      <c r="AZ66" s="82"/>
+      <c r="BA66" s="82"/>
+      <c r="BB66" s="138"/>
+      <c r="BC66" s="139"/>
+      <c r="BD66" s="140"/>
+      <c r="BE66" s="71"/>
+      <c r="BF66" s="71"/>
+      <c r="BG66" s="87"/>
+      <c r="BH66" s="71"/>
+      <c r="BI66" s="71"/>
+      <c r="BJ66" s="71"/>
+      <c r="BK66" s="71"/>
+      <c r="BL66" s="71"/>
+      <c r="BM66" s="71"/>
+      <c r="BN66" s="82"/>
+      <c r="BO66" s="82"/>
+      <c r="BP66" s="88"/>
+      <c r="BQ66" s="62"/>
+    </row>
+    <row r="67" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A67" s="62"/>
+      <c r="B67" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="127">
+        <v>45391.0</v>
+      </c>
+      <c r="F67" s="127">
+        <v>45391.0</v>
+      </c>
+      <c r="G67" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="H67" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I67" s="80"/>
+      <c r="J67" s="89"/>
+      <c r="K67" s="82"/>
+      <c r="L67" s="82"/>
+      <c r="M67" s="82"/>
+      <c r="N67" s="84"/>
+      <c r="O67" s="84"/>
+      <c r="P67" s="84"/>
+      <c r="Q67" s="84"/>
+      <c r="R67" s="84"/>
+      <c r="S67" s="70"/>
+      <c r="T67" s="70"/>
+      <c r="U67" s="70"/>
+      <c r="V67" s="70"/>
+      <c r="W67" s="82"/>
+      <c r="X67" s="82"/>
+      <c r="Y67" s="82"/>
+      <c r="Z67" s="82"/>
+      <c r="AA67" s="82"/>
+      <c r="AB67" s="82"/>
+      <c r="AC67" s="85"/>
+      <c r="AD67" s="85"/>
+      <c r="AE67" s="85"/>
+      <c r="AF67" s="85"/>
+      <c r="AG67" s="85"/>
+      <c r="AH67" s="82"/>
+      <c r="AI67" s="82"/>
+      <c r="AJ67" s="82"/>
+      <c r="AK67" s="82"/>
+      <c r="AL67" s="82"/>
+      <c r="AM67" s="82"/>
+      <c r="AN67" s="82"/>
+      <c r="AO67" s="82"/>
+      <c r="AP67" s="82"/>
+      <c r="AQ67" s="82"/>
+      <c r="AR67" s="86"/>
+      <c r="AS67" s="86"/>
+      <c r="AT67" s="86"/>
+      <c r="AU67" s="86"/>
+      <c r="AV67" s="86"/>
+      <c r="AW67" s="82"/>
+      <c r="AX67" s="82"/>
+      <c r="AY67" s="82"/>
+      <c r="AZ67" s="82"/>
+      <c r="BA67" s="82"/>
+      <c r="BB67" s="135"/>
+      <c r="BC67" s="136"/>
+      <c r="BD67" s="136"/>
+      <c r="BE67" s="82"/>
+      <c r="BF67" s="82"/>
+      <c r="BG67" s="87"/>
+      <c r="BH67" s="87"/>
+      <c r="BI67" s="87"/>
+      <c r="BJ67" s="87"/>
+      <c r="BK67" s="87"/>
+      <c r="BL67" s="82"/>
+      <c r="BM67" s="82"/>
+      <c r="BN67" s="82"/>
+      <c r="BO67" s="82"/>
+      <c r="BP67" s="88"/>
+      <c r="BQ67" s="62"/>
+    </row>
+    <row r="68" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A68" s="62"/>
+      <c r="B68" s="63">
+        <v>3.11</v>
+      </c>
+      <c r="C68" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="65">
+        <v>45405.0</v>
+      </c>
+      <c r="F68" s="141">
+        <v>45412.0</v>
+      </c>
+      <c r="G68" s="66">
+        <v>7.0</v>
+      </c>
+      <c r="H68" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="I68" s="80"/>
+      <c r="J68" s="89"/>
+      <c r="K68" s="82"/>
+      <c r="L68" s="82"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="84"/>
+      <c r="O68" s="84"/>
+      <c r="P68" s="84"/>
+      <c r="Q68" s="84"/>
+      <c r="R68" s="84"/>
+      <c r="S68" s="70"/>
+      <c r="T68" s="70"/>
+      <c r="U68" s="70"/>
+      <c r="V68" s="70"/>
+      <c r="W68" s="82"/>
+      <c r="X68" s="82"/>
+      <c r="Y68" s="82"/>
+      <c r="Z68" s="82"/>
+      <c r="AA68" s="82"/>
+      <c r="AB68" s="82"/>
+      <c r="AC68" s="85"/>
+      <c r="AD68" s="85"/>
+      <c r="AE68" s="85"/>
+      <c r="AF68" s="85"/>
+      <c r="AG68" s="85"/>
+      <c r="AH68" s="82"/>
+      <c r="AI68" s="82"/>
+      <c r="AJ68" s="82"/>
+      <c r="AK68" s="82"/>
+      <c r="AL68" s="82"/>
+      <c r="AM68" s="82"/>
+      <c r="AN68" s="82"/>
+      <c r="AO68" s="82"/>
+      <c r="AP68" s="82"/>
+      <c r="AQ68" s="82"/>
+      <c r="AR68" s="86"/>
+      <c r="AS68" s="86"/>
+      <c r="AT68" s="86"/>
+      <c r="AU68" s="86"/>
+      <c r="AV68" s="86"/>
+      <c r="AW68" s="82"/>
+      <c r="AX68" s="82"/>
+      <c r="AY68" s="82"/>
+      <c r="AZ68" s="82"/>
+      <c r="BA68" s="82"/>
+      <c r="BB68" s="138"/>
+      <c r="BC68" s="140"/>
+      <c r="BD68" s="140"/>
+      <c r="BE68" s="71"/>
+      <c r="BF68" s="71"/>
+      <c r="BG68" s="87"/>
+      <c r="BH68" s="71"/>
+      <c r="BI68" s="71"/>
+      <c r="BJ68" s="71"/>
+      <c r="BK68" s="71"/>
+      <c r="BL68" s="71"/>
+      <c r="BM68" s="71"/>
+      <c r="BN68" s="82"/>
+      <c r="BO68" s="82"/>
+      <c r="BP68" s="88"/>
+      <c r="BQ68" s="62"/>
+    </row>
+    <row r="69" ht="21.0" customHeight="1">
+      <c r="A69" s="32"/>
+      <c r="B69" s="142"/>
+      <c r="C69" s="143"/>
+      <c r="D69" s="144"/>
+      <c r="E69" s="144"/>
+      <c r="F69" s="144"/>
+      <c r="G69" s="144"/>
+      <c r="H69" s="144"/>
+      <c r="I69" s="145"/>
+      <c r="J69" s="146"/>
+      <c r="K69" s="147"/>
+      <c r="L69" s="147"/>
+      <c r="M69" s="148"/>
+      <c r="N69" s="145"/>
+      <c r="O69" s="148"/>
+      <c r="P69" s="145"/>
+      <c r="Q69" s="148"/>
+      <c r="R69" s="148"/>
+      <c r="S69" s="148"/>
+      <c r="T69" s="148"/>
+      <c r="U69" s="148"/>
+      <c r="V69" s="148"/>
+      <c r="W69" s="148"/>
+      <c r="X69" s="148"/>
+      <c r="Y69" s="148"/>
+      <c r="Z69" s="148"/>
+      <c r="AA69" s="148"/>
+      <c r="AB69" s="148"/>
+      <c r="AC69" s="148"/>
+      <c r="AD69" s="148"/>
+      <c r="AE69" s="148"/>
+      <c r="AF69" s="148"/>
+      <c r="AG69" s="148"/>
+      <c r="AH69" s="148"/>
+      <c r="AI69" s="148"/>
+      <c r="AJ69" s="148"/>
+      <c r="AK69" s="148"/>
+      <c r="AL69" s="148"/>
+      <c r="AM69" s="148"/>
+      <c r="AN69" s="148"/>
+      <c r="AO69" s="148"/>
+      <c r="AP69" s="148"/>
+      <c r="AQ69" s="148"/>
+      <c r="AR69" s="148"/>
+      <c r="AS69" s="148"/>
+      <c r="AT69" s="148"/>
+      <c r="AU69" s="148"/>
+      <c r="AV69" s="148"/>
+      <c r="AW69" s="148"/>
+      <c r="AX69" s="148"/>
+      <c r="AY69" s="148"/>
+      <c r="AZ69" s="148"/>
+      <c r="BA69" s="148"/>
+      <c r="BB69" s="148"/>
+      <c r="BC69" s="148"/>
+      <c r="BD69" s="148"/>
+      <c r="BE69" s="148"/>
+      <c r="BF69" s="148"/>
+      <c r="BG69" s="148"/>
+      <c r="BH69" s="148"/>
+      <c r="BI69" s="148"/>
+      <c r="BJ69" s="148"/>
+      <c r="BK69" s="148"/>
+      <c r="BL69" s="148"/>
+      <c r="BM69" s="148"/>
+      <c r="BN69" s="148"/>
+      <c r="BO69" s="148"/>
+      <c r="BP69" s="148"/>
+      <c r="BQ69" s="149"/>
+    </row>
+    <row r="70" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A70" s="62"/>
+      <c r="B70" s="150"/>
+      <c r="C70" s="151"/>
+      <c r="D70" s="151"/>
+      <c r="E70" s="152"/>
+      <c r="F70" s="152"/>
+      <c r="G70" s="153"/>
+      <c r="H70" s="154"/>
+      <c r="I70" s="155"/>
+      <c r="J70" s="156"/>
+      <c r="K70" s="157"/>
+      <c r="L70" s="157"/>
+      <c r="M70" s="157"/>
+      <c r="N70" s="158"/>
+      <c r="O70" s="158"/>
+      <c r="P70" s="158"/>
+      <c r="Q70" s="158"/>
+      <c r="R70" s="158"/>
+      <c r="S70" s="158"/>
+      <c r="T70" s="158"/>
+      <c r="U70" s="158"/>
+      <c r="V70" s="158"/>
+      <c r="W70" s="158"/>
+      <c r="X70" s="158"/>
+      <c r="Y70" s="158"/>
+      <c r="Z70" s="158"/>
+      <c r="AA70" s="158"/>
+      <c r="AB70" s="158"/>
+      <c r="AC70" s="158"/>
+      <c r="AD70" s="158"/>
+      <c r="AE70" s="158"/>
+      <c r="AF70" s="158"/>
+      <c r="AG70" s="158"/>
+      <c r="AH70" s="158"/>
+      <c r="AI70" s="158"/>
+      <c r="AJ70" s="158"/>
+      <c r="AK70" s="158"/>
+      <c r="AL70" s="158"/>
+      <c r="AM70" s="158"/>
+      <c r="AN70" s="158"/>
+      <c r="AO70" s="158"/>
+      <c r="AP70" s="158"/>
+      <c r="AQ70" s="158"/>
+      <c r="AR70" s="158"/>
+      <c r="AS70" s="158"/>
+      <c r="AT70" s="158"/>
+      <c r="AU70" s="158"/>
+      <c r="AV70" s="158"/>
+      <c r="AW70" s="158"/>
+      <c r="AX70" s="158"/>
+      <c r="AY70" s="158"/>
+      <c r="AZ70" s="158"/>
+      <c r="BA70" s="158"/>
+      <c r="BB70" s="158"/>
+      <c r="BC70" s="158"/>
+      <c r="BD70" s="158"/>
+      <c r="BE70" s="158"/>
+      <c r="BF70" s="158"/>
+      <c r="BG70" s="158"/>
+      <c r="BH70" s="158"/>
+      <c r="BI70" s="158"/>
+      <c r="BJ70" s="158"/>
+      <c r="BK70" s="158"/>
+      <c r="BL70" s="158"/>
+      <c r="BM70" s="158"/>
+      <c r="BN70" s="158"/>
+      <c r="BO70" s="158"/>
+      <c r="BP70" s="158"/>
+      <c r="BQ70" s="159"/>
+    </row>
+    <row r="71" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A71" s="62"/>
+      <c r="B71" s="150"/>
+      <c r="C71" s="151"/>
+      <c r="D71" s="151"/>
+      <c r="E71" s="152"/>
+      <c r="F71" s="152"/>
+      <c r="G71" s="153"/>
+      <c r="H71" s="154"/>
+      <c r="I71" s="155"/>
+      <c r="J71" s="156"/>
+      <c r="K71" s="157"/>
+      <c r="L71" s="157"/>
+      <c r="M71" s="158"/>
+      <c r="N71" s="158"/>
+      <c r="O71" s="158"/>
+      <c r="P71" s="158"/>
+      <c r="Q71" s="158"/>
+      <c r="R71" s="158"/>
+      <c r="S71" s="158"/>
+      <c r="T71" s="158"/>
+      <c r="U71" s="158"/>
+      <c r="V71" s="158"/>
+      <c r="W71" s="158"/>
+      <c r="X71" s="158"/>
+      <c r="Y71" s="158"/>
+      <c r="Z71" s="158"/>
+      <c r="AA71" s="158"/>
+      <c r="AB71" s="158"/>
+      <c r="AC71" s="158"/>
+      <c r="AD71" s="158"/>
+      <c r="AE71" s="158"/>
+      <c r="AF71" s="158"/>
+      <c r="AG71" s="158"/>
+      <c r="AH71" s="158"/>
+      <c r="AI71" s="158"/>
+      <c r="AJ71" s="158"/>
+      <c r="AK71" s="158"/>
+      <c r="AL71" s="158"/>
+      <c r="AM71" s="158"/>
+      <c r="AN71" s="158"/>
+      <c r="AO71" s="158"/>
+      <c r="AP71" s="158"/>
+      <c r="AQ71" s="158"/>
+      <c r="AR71" s="158"/>
+      <c r="AS71" s="158"/>
+      <c r="AT71" s="158"/>
+      <c r="AU71" s="158"/>
+      <c r="AV71" s="158"/>
+      <c r="AW71" s="158"/>
+      <c r="AX71" s="158"/>
+      <c r="AY71" s="158"/>
+      <c r="AZ71" s="158"/>
+      <c r="BA71" s="158"/>
+      <c r="BB71" s="158"/>
+      <c r="BC71" s="158"/>
+      <c r="BD71" s="158"/>
+      <c r="BE71" s="158"/>
+      <c r="BF71" s="158"/>
+      <c r="BG71" s="158"/>
+      <c r="BH71" s="158"/>
+      <c r="BI71" s="158"/>
+      <c r="BJ71" s="158"/>
+      <c r="BK71" s="158"/>
+      <c r="BL71" s="158"/>
+      <c r="BM71" s="158"/>
+      <c r="BN71" s="158"/>
+      <c r="BO71" s="158"/>
+      <c r="BP71" s="158"/>
+      <c r="BQ71" s="159"/>
+    </row>
+    <row r="72" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A72" s="62"/>
+      <c r="B72" s="150"/>
+      <c r="C72" s="151"/>
+      <c r="D72" s="151"/>
+      <c r="E72" s="152"/>
+      <c r="F72" s="152"/>
+      <c r="G72" s="153"/>
+      <c r="H72" s="154"/>
+      <c r="I72" s="155"/>
+      <c r="J72" s="156"/>
+      <c r="K72" s="157"/>
+      <c r="L72" s="157"/>
+      <c r="M72" s="158"/>
+      <c r="N72" s="158"/>
+      <c r="O72" s="158"/>
+      <c r="P72" s="158"/>
+      <c r="Q72" s="158"/>
+      <c r="R72" s="158"/>
+      <c r="S72" s="157"/>
+      <c r="T72" s="157"/>
+      <c r="U72" s="157"/>
+      <c r="V72" s="157"/>
+      <c r="W72" s="158"/>
+      <c r="X72" s="158"/>
+      <c r="Y72" s="158"/>
+      <c r="Z72" s="158"/>
+      <c r="AA72" s="158"/>
+      <c r="AB72" s="158"/>
+      <c r="AC72" s="158"/>
+      <c r="AD72" s="158"/>
+      <c r="AE72" s="158"/>
+      <c r="AF72" s="158"/>
+      <c r="AG72" s="158"/>
+      <c r="AH72" s="158"/>
+      <c r="AI72" s="158"/>
+      <c r="AJ72" s="158"/>
+      <c r="AK72" s="158"/>
+      <c r="AL72" s="158"/>
+      <c r="AM72" s="158"/>
+      <c r="AN72" s="158"/>
+      <c r="AO72" s="158"/>
+      <c r="AP72" s="158"/>
+      <c r="AQ72" s="158"/>
+      <c r="AR72" s="158"/>
+      <c r="AS72" s="158"/>
+      <c r="AT72" s="158"/>
+      <c r="AU72" s="158"/>
+      <c r="AV72" s="158"/>
+      <c r="AW72" s="158"/>
+      <c r="AX72" s="158"/>
+      <c r="AY72" s="158"/>
+      <c r="AZ72" s="158"/>
+      <c r="BA72" s="158"/>
+      <c r="BB72" s="158"/>
+      <c r="BC72" s="158"/>
+      <c r="BD72" s="158"/>
+      <c r="BE72" s="158"/>
+      <c r="BF72" s="158"/>
+      <c r="BG72" s="158"/>
+      <c r="BH72" s="158"/>
+      <c r="BI72" s="158"/>
+      <c r="BJ72" s="158"/>
+      <c r="BK72" s="158"/>
+      <c r="BL72" s="158"/>
+      <c r="BM72" s="158"/>
+      <c r="BN72" s="158"/>
+      <c r="BO72" s="158"/>
+      <c r="BP72" s="158"/>
+      <c r="BQ72" s="159"/>
+    </row>
+    <row r="73" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A73" s="62"/>
+      <c r="B73" s="150"/>
+      <c r="C73" s="151"/>
+      <c r="D73" s="151"/>
+      <c r="E73" s="152"/>
+      <c r="F73" s="152"/>
+      <c r="G73" s="153"/>
+      <c r="H73" s="154"/>
+      <c r="I73" s="155"/>
+      <c r="J73" s="156"/>
+      <c r="K73" s="157"/>
+      <c r="L73" s="157"/>
+      <c r="M73" s="158"/>
+      <c r="N73" s="158"/>
+      <c r="O73" s="158"/>
+      <c r="P73" s="158"/>
+      <c r="Q73" s="158"/>
+      <c r="R73" s="158"/>
+      <c r="S73" s="157"/>
+      <c r="T73" s="157"/>
+      <c r="U73" s="157"/>
+      <c r="V73" s="157"/>
+      <c r="W73" s="158"/>
+      <c r="X73" s="158"/>
+      <c r="Y73" s="158"/>
+      <c r="Z73" s="158"/>
+      <c r="AA73" s="158"/>
+      <c r="AB73" s="158"/>
+      <c r="AC73" s="158"/>
+      <c r="AD73" s="158"/>
+      <c r="AE73" s="158"/>
+      <c r="AF73" s="158"/>
+      <c r="AG73" s="158"/>
+      <c r="AH73" s="158"/>
+      <c r="AI73" s="158"/>
+      <c r="AJ73" s="158"/>
+      <c r="AK73" s="158"/>
+      <c r="AL73" s="158"/>
+      <c r="AM73" s="158"/>
+      <c r="AN73" s="158"/>
+      <c r="AO73" s="158"/>
+      <c r="AP73" s="158"/>
+      <c r="AQ73" s="158"/>
+      <c r="AR73" s="158"/>
+      <c r="AS73" s="158"/>
+      <c r="AT73" s="158"/>
+      <c r="AU73" s="158"/>
+      <c r="AV73" s="158"/>
+      <c r="AW73" s="158"/>
+      <c r="AX73" s="158"/>
+      <c r="AY73" s="158"/>
+      <c r="AZ73" s="158"/>
+      <c r="BA73" s="158"/>
+      <c r="BB73" s="158"/>
+      <c r="BC73" s="158"/>
+      <c r="BD73" s="158"/>
+      <c r="BE73" s="158"/>
+      <c r="BF73" s="158"/>
+      <c r="BG73" s="158"/>
+      <c r="BH73" s="158"/>
+      <c r="BI73" s="158"/>
+      <c r="BJ73" s="158"/>
+      <c r="BK73" s="158"/>
+      <c r="BL73" s="158"/>
+      <c r="BM73" s="158"/>
+      <c r="BN73" s="158"/>
+      <c r="BO73" s="158"/>
+      <c r="BP73" s="158"/>
+      <c r="BQ73" s="159"/>
+    </row>
+    <row r="74" ht="21.0" customHeight="1">
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="160"/>
+      <c r="H74" s="160"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="32"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="32"/>
+      <c r="R74" s="32"/>
+      <c r="S74" s="32"/>
+      <c r="T74" s="32"/>
+      <c r="U74" s="32"/>
+      <c r="V74" s="32"/>
+      <c r="W74" s="32"/>
+      <c r="X74" s="32"/>
+      <c r="Y74" s="32"/>
+      <c r="Z74" s="32"/>
+      <c r="AA74" s="32"/>
+      <c r="AB74" s="32"/>
+      <c r="AC74" s="32"/>
+      <c r="AD74" s="32"/>
+      <c r="AE74" s="32"/>
+      <c r="AF74" s="32"/>
+      <c r="AG74" s="32"/>
+      <c r="AH74" s="32"/>
+      <c r="AI74" s="32"/>
+      <c r="AJ74" s="32"/>
+      <c r="AK74" s="32"/>
+      <c r="AL74" s="32"/>
+      <c r="AM74" s="32"/>
+      <c r="AN74" s="32"/>
+      <c r="AO74" s="32"/>
+      <c r="AP74" s="32"/>
+      <c r="AQ74" s="32"/>
+      <c r="AR74" s="32"/>
+      <c r="AS74" s="32"/>
+      <c r="AT74" s="32"/>
+      <c r="AU74" s="32"/>
+      <c r="AV74" s="32"/>
+      <c r="AW74" s="32"/>
+      <c r="AX74" s="32"/>
+      <c r="AY74" s="32"/>
+      <c r="AZ74" s="32"/>
+      <c r="BA74" s="32"/>
+      <c r="BB74" s="32"/>
+      <c r="BC74" s="32"/>
+      <c r="BD74" s="32"/>
+      <c r="BE74" s="32"/>
+      <c r="BF74" s="32"/>
+      <c r="BG74" s="32"/>
+      <c r="BH74" s="32"/>
+      <c r="BI74" s="32"/>
+      <c r="BJ74" s="32"/>
+      <c r="BK74" s="32"/>
+      <c r="BL74" s="32"/>
+      <c r="BM74" s="32"/>
+      <c r="BN74" s="32"/>
+      <c r="BO74" s="32"/>
+      <c r="BP74" s="32"/>
+      <c r="BQ74" s="32"/>
+    </row>
+    <row r="75" ht="21.0" customHeight="1">
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="160"/>
+      <c r="H75" s="160"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="32"/>
+      <c r="O75" s="32"/>
+      <c r="P75" s="32"/>
+      <c r="Q75" s="32"/>
+      <c r="R75" s="32"/>
+      <c r="S75" s="32"/>
+      <c r="T75" s="32"/>
+      <c r="U75" s="32"/>
+      <c r="V75" s="32"/>
+      <c r="W75" s="32"/>
+      <c r="X75" s="32"/>
+      <c r="Y75" s="32"/>
+      <c r="Z75" s="32"/>
+      <c r="AA75" s="32"/>
+      <c r="AB75" s="32"/>
+      <c r="AC75" s="32"/>
+      <c r="AD75" s="32"/>
+      <c r="AE75" s="32"/>
+      <c r="AF75" s="32"/>
+      <c r="AG75" s="32"/>
+      <c r="AH75" s="32"/>
+      <c r="AI75" s="32"/>
+      <c r="AJ75" s="32"/>
+      <c r="AK75" s="32"/>
+      <c r="AL75" s="32"/>
+      <c r="AM75" s="32"/>
+      <c r="AN75" s="32"/>
+      <c r="AO75" s="32"/>
+      <c r="AP75" s="32"/>
+      <c r="AQ75" s="32"/>
+      <c r="AR75" s="32"/>
+      <c r="AS75" s="32"/>
+      <c r="AT75" s="32"/>
+      <c r="AU75" s="32"/>
+      <c r="AV75" s="32"/>
+      <c r="AW75" s="32"/>
+      <c r="AX75" s="32"/>
+      <c r="AY75" s="32"/>
+      <c r="AZ75" s="32"/>
+      <c r="BA75" s="32"/>
+      <c r="BB75" s="32"/>
+      <c r="BC75" s="32"/>
+      <c r="BD75" s="32"/>
+      <c r="BE75" s="32"/>
+      <c r="BF75" s="32"/>
+      <c r="BG75" s="32"/>
+      <c r="BH75" s="32"/>
+      <c r="BI75" s="32"/>
+      <c r="BJ75" s="32"/>
+      <c r="BK75" s="32"/>
+      <c r="BL75" s="32"/>
+      <c r="BM75" s="32"/>
+      <c r="BN75" s="32"/>
+      <c r="BO75" s="32"/>
+      <c r="BP75" s="32"/>
+      <c r="BQ75" s="32"/>
+    </row>
+    <row r="76" ht="21.0" customHeight="1">
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="160"/>
+      <c r="H76" s="160"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="32"/>
+      <c r="N76" s="32"/>
+      <c r="O76" s="32"/>
+      <c r="P76" s="32"/>
+      <c r="Q76" s="32"/>
+      <c r="R76" s="32"/>
+      <c r="S76" s="32"/>
+      <c r="T76" s="32"/>
+      <c r="U76" s="32"/>
+      <c r="V76" s="32"/>
+      <c r="W76" s="32"/>
+      <c r="X76" s="32"/>
+      <c r="Y76" s="32"/>
+      <c r="Z76" s="32"/>
+      <c r="AA76" s="32"/>
+      <c r="AB76" s="32"/>
+      <c r="AC76" s="32"/>
+      <c r="AD76" s="32"/>
+      <c r="AE76" s="32"/>
+      <c r="AF76" s="32"/>
+      <c r="AG76" s="32"/>
+      <c r="AH76" s="32"/>
+      <c r="AI76" s="32"/>
+      <c r="AJ76" s="32"/>
+      <c r="AK76" s="32"/>
+      <c r="AL76" s="32"/>
+      <c r="AM76" s="32"/>
+      <c r="AN76" s="32"/>
+      <c r="AO76" s="32"/>
+      <c r="AP76" s="32"/>
+      <c r="AQ76" s="32"/>
+      <c r="AR76" s="32"/>
+      <c r="AS76" s="32"/>
+      <c r="AT76" s="32"/>
+      <c r="AU76" s="32"/>
+      <c r="AV76" s="32"/>
+      <c r="AW76" s="32"/>
+      <c r="AX76" s="32"/>
+      <c r="AY76" s="32"/>
+      <c r="AZ76" s="32"/>
+      <c r="BA76" s="32"/>
+      <c r="BB76" s="32"/>
+      <c r="BC76" s="32"/>
+      <c r="BD76" s="32"/>
+      <c r="BE76" s="32"/>
+      <c r="BF76" s="32"/>
+      <c r="BG76" s="32"/>
+      <c r="BH76" s="32"/>
+      <c r="BI76" s="32"/>
+      <c r="BJ76" s="32"/>
+      <c r="BK76" s="32"/>
+      <c r="BL76" s="32"/>
+      <c r="BM76" s="32"/>
+      <c r="BN76" s="32"/>
+      <c r="BO76" s="32"/>
+      <c r="BP76" s="32"/>
+      <c r="BQ76" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -6898,7 +7843,7 @@
     <mergeCell ref="AR9:AV9"/>
     <mergeCell ref="AW9:BA9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H12:H18 H20:H62">
+  <conditionalFormatting sqref="H12:H18 H20:H73">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6908,7 +7853,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H18 H20:H62">
+  <conditionalFormatting sqref="H12:H18 H20:H73">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
